--- a/Process Results/Unified_IBNP_NSL.xlsx
+++ b/Process Results/Unified_IBNP_NSL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joranias\Documents\GitHub\DMI_IBNP\Process Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{435AE814-01DB-4148-B917-BB27FBF3B467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3959C90-C9DD-4C6C-80FB-CCFDD0F05718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Completion Factors" sheetId="1" r:id="rId1"/>
@@ -2926,7 +2926,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
@@ -5127,7 +5127,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A4:AR54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E7" sqref="E7"/>
       <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
@@ -7728,21 +7728,21 @@
       </c>
       <c r="F29" s="13">
         <f>ROUND(+I29*J29/100,0)-D29-B29</f>
-        <v>-8812.9897407297321</v>
+        <v>3780.0102592702679</v>
       </c>
       <c r="G29" s="13">
         <f t="shared" si="3"/>
-        <v>3327</v>
+        <v>15920</v>
       </c>
       <c r="H29" s="14">
         <f t="shared" si="4"/>
-        <v>-3626</v>
+        <v>8967</v>
       </c>
       <c r="I29" s="13">
         <v>4752.3116666666674</v>
       </c>
       <c r="J29" s="19">
-        <v>70</v>
+        <v>335</v>
       </c>
       <c r="K29" s="13">
         <f t="shared" si="6"/>
@@ -7750,15 +7750,15 @@
       </c>
       <c r="L29" s="13">
         <f t="shared" si="7"/>
-        <v>-76.307744266211472</v>
+        <v>188.69225573378853</v>
       </c>
       <c r="M29" s="13">
         <f t="shared" si="9"/>
-        <v>101.3767948661125</v>
+        <v>122.62475286670771</v>
       </c>
       <c r="N29" s="18">
         <f t="shared" si="10"/>
-        <v>0.58602499429451949</v>
+        <v>2.8045481869809148</v>
       </c>
       <c r="O29" s="18">
         <f t="shared" si="11"/>
@@ -7820,21 +7820,21 @@
       </c>
       <c r="F30" s="13">
         <f>ROUND(+I30*J30/100,0)-D30-B30</f>
-        <v>-7606.6889117834071</v>
+        <v>4906.3110882165929</v>
       </c>
       <c r="G30" s="13">
         <f t="shared" si="3"/>
-        <v>3306</v>
+        <v>15819</v>
       </c>
       <c r="H30" s="14">
         <f t="shared" si="4"/>
-        <v>776</v>
+        <v>13289</v>
       </c>
       <c r="I30" s="13">
         <v>4722.149166666667</v>
       </c>
       <c r="J30" s="19">
-        <v>70</v>
+        <v>335</v>
       </c>
       <c r="K30" s="13">
         <f t="shared" si="6"/>
@@ -7842,15 +7842,15 @@
       </c>
       <c r="L30" s="13">
         <f t="shared" si="7"/>
-        <v>16.422700539425996</v>
+        <v>281.42270053942599</v>
       </c>
       <c r="M30" s="13">
         <f t="shared" si="9"/>
-        <v>99.706032208864158</v>
+        <v>142.32396722822614</v>
       </c>
       <c r="N30" s="18">
         <f t="shared" si="10"/>
-        <v>0.76424286898246507</v>
+        <v>3.6574480158446545</v>
       </c>
       <c r="O30" s="18">
         <f t="shared" si="11"/>
@@ -7910,21 +7910,21 @@
       </c>
       <c r="F31" s="13">
         <f>ROUND(+I31*J31/100,0)-D31-B31</f>
-        <v>3299</v>
+        <v>15786</v>
       </c>
       <c r="G31" s="13">
         <f t="shared" si="3"/>
-        <v>3299</v>
+        <v>15786</v>
       </c>
       <c r="H31" s="14">
         <f t="shared" si="4"/>
-        <v>3299</v>
+        <v>15786</v>
       </c>
       <c r="I31" s="13">
         <v>4712.149166666667</v>
       </c>
       <c r="J31" s="19">
-        <v>70</v>
+        <v>335</v>
       </c>
       <c r="K31" s="13">
         <f t="shared" si="6"/>
@@ -7932,15 +7932,15 @@
       </c>
       <c r="L31" s="13">
         <f t="shared" si="7"/>
-        <v>70</v>
+        <v>335</v>
       </c>
       <c r="M31" s="13">
         <f t="shared" si="9"/>
-        <v>103.04245266562579</v>
+        <v>167.21511016824229</v>
       </c>
       <c r="N31" s="18">
         <f t="shared" si="10"/>
-        <v>2.1103328093123959</v>
+        <v>10.099449873137894</v>
       </c>
       <c r="O31" s="18">
         <f t="shared" si="11"/>
@@ -8019,12 +8019,12 @@
       <c r="G33" s="13"/>
       <c r="H33" s="14">
         <f>SUM(H8:H31)</f>
-        <v>5654.5471461544121</v>
+        <v>43247.547146154408</v>
       </c>
       <c r="I33" s="13"/>
       <c r="J33" s="22">
         <f>SUM(G20:G31)/SUM(I20:I31)</f>
-        <v>1.0304245266562579</v>
+        <v>1.6721511016824229</v>
       </c>
       <c r="K33" s="13"/>
       <c r="L33" s="13"/>
@@ -8063,7 +8063,7 @@
       <c r="F36" s="23"/>
       <c r="H36" s="25">
         <f>H33*(1+H35)</f>
-        <v>6078.638182115993</v>
+        <v>46491.113182115987</v>
       </c>
       <c r="I36" s="26"/>
       <c r="J36" s="27" t="e">

--- a/Process Results/Unified_IBNP_NSL.xlsx
+++ b/Process Results/Unified_IBNP_NSL.xlsx
@@ -3727,20 +3727,20 @@
         <v/>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.5668106692869479</v>
+        <v>0.0942918308392913</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.08363207864994966</v>
+        <v>0.1825101663539943</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.09264052980131533</v>
+        <v>0.2517404541321113</v>
       </c>
       <c r="H7" s="4">
         <f>+I7/I8</f>
         <v/>
       </c>
       <c r="I7" s="5" t="n">
-        <v>0.1457578076588394</v>
+        <v>0.12434316158698</v>
       </c>
       <c r="J7" s="5">
         <f>I7</f>
@@ -3765,20 +3765,20 @@
         <v/>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.5668106692869479</v>
+        <v>0.0942918308392913</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.336192634572932</v>
+        <v>0.1825101663539943</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.3724057118381234</v>
+        <v>0.2517404541321113</v>
       </c>
       <c r="H8" s="4">
         <f>+I8/I9</f>
         <v/>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.4220528793130416</v>
+        <v>0.12434316158698</v>
       </c>
       <c r="J8" s="5">
         <f>I8</f>
@@ -3803,20 +3803,20 @@
         <v/>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.70718625647768</v>
+        <v>0.0942918308392913</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.4533028562704096</v>
+        <v>0.1825101663539943</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.5127858833896786</v>
+        <v>0.4782057622670228</v>
       </c>
       <c r="H9" s="4">
         <f>+I9/I10</f>
         <v/>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.5524731709328801</v>
+        <v>0.12434316158698</v>
       </c>
       <c r="J9" s="5">
         <f>I9</f>
@@ -3841,20 +3841,20 @@
         <v/>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.8496975464629292</v>
+        <v>0.4019597894184431</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.5239162869315245</v>
+        <v>0.5609290437483341</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>0.6434973289119585</v>
+        <v>0.7056823705133589</v>
       </c>
       <c r="H10" s="4">
         <f>+I10/I11</f>
         <v/>
       </c>
       <c r="I10" s="5" t="n">
-        <v>0.6481739958276135</v>
+        <v>0.4683218094081195</v>
       </c>
       <c r="J10" s="5">
         <f>I10</f>
@@ -3879,20 +3879,20 @@
         <v/>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.9620675657103515</v>
+        <v>0.4542394919165454</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.6135049405580132</v>
+        <v>0.611129669654807</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.7603974733614057</v>
+        <v>0.7417217169768191</v>
       </c>
       <c r="H11" s="4">
         <f>+I11/I12</f>
         <v/>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.7492301399849233</v>
+        <v>0.521132468729777</v>
       </c>
       <c r="J11" s="5">
         <f>I11</f>
@@ -3917,20 +3917,20 @@
         <v/>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9839255126949789</v>
+        <v>0.6163668327039694</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.8497203840164934</v>
+        <v>0.8375122043618484</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.8956749351054245</v>
+        <v>0.8195295069555704</v>
       </c>
       <c r="H12" s="4">
         <f>+I12/I13</f>
         <v/>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.9119116902453477</v>
+        <v>0.7101206243337047</v>
       </c>
       <c r="J12" s="5">
         <f>I12</f>
@@ -3955,20 +3955,20 @@
         <v/>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.9839255126949789</v>
+        <v>0.686350648098955</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.8939344754731762</v>
+        <v>0.8623648189871089</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.9154762009991185</v>
+        <v>0.8276027539800043</v>
       </c>
       <c r="H13" s="4">
         <f>+I13/I14</f>
         <v/>
       </c>
       <c r="I13" s="5" t="n">
-        <v>0.9367737133093442</v>
+        <v>0.764355577236123</v>
       </c>
       <c r="J13" s="5">
         <f>I13</f>
@@ -3993,20 +3993,20 @@
         <v/>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.9884370699084915</v>
+        <v>0.9080809209277838</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.9049752512093172</v>
+        <v>0.9227888863310572</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.9371429533664434</v>
+        <v>0.8560768287361818</v>
       </c>
       <c r="H14" s="4">
         <f>+I14/I15</f>
         <v/>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.9448666575877654</v>
+        <v>0.9153758267236115</v>
       </c>
       <c r="J14" s="5">
         <f>I14</f>
@@ -4031,20 +4031,20 @@
         <v/>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9916090925807386</v>
+        <v>0.9903346275335614</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.9060813253975262</v>
+        <v>0.9497305943251787</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.9376465114564582</v>
+        <v>0.8711636794436793</v>
       </c>
       <c r="H15" s="4">
         <f>+I15/I16</f>
         <v/>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.9469178664442037</v>
+        <v>0.9696077057524172</v>
       </c>
       <c r="J15" s="5">
         <f>I15</f>
@@ -4069,20 +4069,20 @@
         <v/>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.9916090925807386</v>
+        <v>0.9903346275335614</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.9213458753059928</v>
+        <v>0.9645736981621365</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.9459362343689113</v>
+        <v>0.8791329976070995</v>
       </c>
       <c r="H16" s="4">
         <f>+I16/I17</f>
         <v/>
       </c>
       <c r="I16" s="5" t="n">
-        <v>0.9551870929554241</v>
+        <v>0.977284429701451</v>
       </c>
       <c r="J16" s="5">
         <f>I16</f>
@@ -4107,20 +4107,20 @@
         <v/>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.9916090925807386</v>
+        <v>0.9903346275335614</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.9213458753059928</v>
+        <v>0.9938896523212171</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.9459362343689113</v>
+        <v>0.8959388225493984</v>
       </c>
       <c r="H17" s="4">
         <f>+I17/I18</f>
         <v/>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.9551870929554241</v>
+        <v>0.9921089552568435</v>
       </c>
       <c r="J17" s="5">
         <f>I17</f>
@@ -4145,20 +4145,20 @@
         <v/>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9916090925807386</v>
+        <v>1</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.9544056303851648</v>
+        <v>1</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.9697106409309303</v>
+        <v>0.8993499459639805</v>
       </c>
       <c r="H18" s="4">
         <f>+I18/I19</f>
         <v/>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.9726517378633041</v>
+        <v>1</v>
       </c>
       <c r="J18" s="5">
         <f>I18</f>
@@ -4183,20 +4183,20 @@
         <v/>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.9916090925807386</v>
+        <v>1</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.9742274463724528</v>
+        <v>1</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>0.9821793251684784</v>
+        <v>0.8993499459639805</v>
       </c>
       <c r="H19" s="4">
         <f>+I19/I20</f>
         <v/>
       </c>
       <c r="I19" s="5" t="n">
-        <v>0.9828414264586429</v>
+        <v>1</v>
       </c>
       <c r="J19" s="5">
         <f>I19</f>
@@ -4227,7 +4227,7 @@
         <v>1</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>1</v>
+        <v>0.9167045534010189</v>
       </c>
       <c r="H20" s="4">
         <f>+I20/I21</f>
@@ -4836,28 +4836,28 @@
         <v/>
       </c>
       <c r="C38" s="4" t="n">
-        <v>2.221402612152186</v>
+        <v>2.324921135646687</v>
       </c>
       <c r="D38" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>2.368733604703754</v>
       </c>
       <c r="E38" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="F38" s="4" t="n">
-        <v>1.49669085787177</v>
+        <v>1</v>
       </c>
       <c r="G38" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H38" s="4" t="n">
-        <v>1</v>
+        <v>1.043161799945391</v>
       </c>
       <c r="I38" s="4" t="n">
         <v>1</v>
       </c>
       <c r="J38" s="4" t="n">
-        <v>1</v>
+        <v>1.108725097559726</v>
       </c>
       <c r="K38" s="4" t="n">
         <v>1</v>
@@ -4911,19 +4911,19 @@
         <v/>
       </c>
       <c r="C39" s="4" t="n">
-        <v>1</v>
+        <v>1.18796992481203</v>
       </c>
       <c r="D39" s="4" t="n">
-        <v>1</v>
+        <v>1.681434599156118</v>
       </c>
       <c r="E39" s="4" t="n">
-        <v>2.286511627906977</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F39" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G39" s="4" t="n">
-        <v>1</v>
+        <v>1.148306148055207</v>
       </c>
       <c r="H39" s="4" t="n">
         <v>1</v>
@@ -4935,43 +4935,43 @@
         <v>1</v>
       </c>
       <c r="K39" s="4" t="n">
-        <v>1.392188771358828</v>
+        <v>1</v>
       </c>
       <c r="L39" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="M39" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="N39" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="O39" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="P39" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="Q39" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="R39" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="S39" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="T39" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="U39" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="V39" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="W39" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="X39" s="4" t="n">
         <v/>
@@ -4986,19 +4986,19 @@
         <v/>
       </c>
       <c r="C40" s="4" t="n">
-        <v>3.242666666666667</v>
+        <v>1</v>
       </c>
       <c r="D40" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E40" s="4" t="n">
-        <v>1</v>
+        <v>1.187160356347439</v>
       </c>
       <c r="F40" s="4" t="n">
-        <v>1.822368421052631</v>
+        <v>1</v>
       </c>
       <c r="G40" s="4" t="n">
-        <v>1</v>
+        <v>1.531860009192642</v>
       </c>
       <c r="H40" s="4" t="n">
         <v>1</v>
@@ -5061,22 +5061,22 @@
         <v/>
       </c>
       <c r="C41" s="4" t="n">
-        <v>2.67538644470868</v>
+        <v>1</v>
       </c>
       <c r="D41" s="4" t="n">
-        <v>1.146222222222222</v>
+        <v>3.573333333333333</v>
       </c>
       <c r="E41" s="4" t="n">
-        <v>1</v>
+        <v>1.814179104477612</v>
       </c>
       <c r="F41" s="4" t="n">
-        <v>1</v>
+        <v>2.892225421637186</v>
       </c>
       <c r="G41" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H41" s="4" t="n">
-        <v>1.009693679720822</v>
+        <v>1</v>
       </c>
       <c r="I41" s="4" t="n">
         <v>1</v>
@@ -5097,7 +5097,7 @@
         <v>1</v>
       </c>
       <c r="O41" s="4" t="n">
-        <v>1</v>
+        <v>1.577698762622671</v>
       </c>
       <c r="P41" s="4" t="n">
         <v>1</v>
@@ -5136,25 +5136,25 @@
         <v/>
       </c>
       <c r="C42" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v/>
       </c>
       <c r="D42" s="4" t="n">
-        <v>1.087714168762061</v>
+        <v/>
       </c>
       <c r="E42" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F42" s="4" t="n">
-        <v>2.529234987366271</v>
+        <v>2.326099099099099</v>
       </c>
       <c r="G42" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H42" s="4" t="n">
-        <v>1.175146610891824</v>
+        <v>1</v>
       </c>
       <c r="I42" s="4" t="n">
-        <v>1</v>
+        <v>1.013977699198674</v>
       </c>
       <c r="J42" s="4" t="n">
         <v>1</v>
@@ -5169,7 +5169,7 @@
         <v>1</v>
       </c>
       <c r="N42" s="4" t="n">
-        <v>1</v>
+        <v>1.381962216297564</v>
       </c>
       <c r="O42" s="4" t="n">
         <v>1</v>
@@ -5211,40 +5211,40 @@
         <v/>
       </c>
       <c r="C43" s="4" t="n">
-        <v>2.147672552166934</v>
+        <v/>
       </c>
       <c r="D43" s="4" t="n">
-        <v>1.448056801195815</v>
+        <v>1</v>
       </c>
       <c r="E43" s="4" t="n">
-        <v>1.586064516129032</v>
+        <v>1</v>
       </c>
       <c r="F43" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.263727984344423</v>
       </c>
       <c r="G43" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="H43" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.038713773586367</v>
       </c>
       <c r="I43" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="J43" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="K43" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="L43" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="M43" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="N43" s="4" t="n">
-        <v>1.147087536609177</v>
+        <v>1</v>
       </c>
       <c r="O43" s="4" t="n">
         <v>1</v>
@@ -5286,22 +5286,22 @@
         <v/>
       </c>
       <c r="C44" s="4" t="n">
-        <v>2.482759445241511</v>
+        <v>1.285954096842349</v>
       </c>
       <c r="D44" s="4" t="n">
-        <v>1.070115285710158</v>
+        <v>1.087551484324008</v>
       </c>
       <c r="E44" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.3036236832847</v>
       </c>
       <c r="F44" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="G44" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="H44" s="4" t="n">
-        <v>1.015300290705523</v>
+        <v>1</v>
       </c>
       <c r="I44" s="4" t="n">
         <v>1</v>
@@ -5313,10 +5313,10 @@
         <v>1</v>
       </c>
       <c r="L44" s="4" t="n">
-        <v>1.039181270997881</v>
+        <v>1</v>
       </c>
       <c r="M44" s="4" t="n">
-        <v>1.115500430780779</v>
+        <v>1</v>
       </c>
       <c r="N44" s="4" t="n">
         <v>1</v>
@@ -5358,22 +5358,22 @@
         <v/>
       </c>
       <c r="B45" s="4" t="n">
-        <v>1.33502538071066</v>
+        <v>2.712754555198285</v>
       </c>
       <c r="C45" s="4" t="n">
-        <v>1.555133079847909</v>
+        <v>1.624654286843145</v>
       </c>
       <c r="D45" s="4" t="n">
-        <v>1</v>
+        <v>1.04863813229572</v>
       </c>
       <c r="E45" s="4" t="n">
-        <v>1</v>
+        <v>1.053339517625232</v>
       </c>
       <c r="F45" s="4" t="n">
         <v>1</v>
       </c>
       <c r="G45" s="4" t="n">
-        <v>1.061473978344394</v>
+        <v>1</v>
       </c>
       <c r="H45" s="4" t="n">
         <v>1</v>
@@ -5433,49 +5433,49 @@
         <v/>
       </c>
       <c r="B46" s="4" t="n">
-        <v>19.2</v>
+        <v>8.487179487179487</v>
       </c>
       <c r="C46" s="4" t="n">
-        <v>2.963541666666667</v>
+        <v>1.513595166163142</v>
       </c>
       <c r="D46" s="4" t="n">
-        <v>1.240187463386057</v>
+        <v>1.05189620758483</v>
       </c>
       <c r="E46" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F46" s="4" t="n">
-        <v>1.412376003778932</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G46" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="H46" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="I46" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="J46" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K46" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="L46" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="M46" s="4" t="n">
-        <v>1.021516164994426</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="N46" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O46" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="P46" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Q46" s="4" t="n">
         <v/>
@@ -5511,13 +5511,13 @@
         <v/>
       </c>
       <c r="C47" s="4" t="n">
-        <v>2.378450393700787</v>
+        <v>1</v>
       </c>
       <c r="D47" s="4" t="n">
-        <v>1</v>
+        <v>1.665092443729904</v>
       </c>
       <c r="E47" s="4" t="n">
-        <v>1.100773612939279</v>
+        <v>1</v>
       </c>
       <c r="F47" s="4" t="n">
         <v>1</v>
@@ -5532,13 +5532,13 @@
         <v>1</v>
       </c>
       <c r="J47" s="4" t="n">
-        <v>1</v>
+        <v>1.135900066381027</v>
       </c>
       <c r="K47" s="4" t="n">
-        <v>1</v>
+        <v>1.25691972586729</v>
       </c>
       <c r="L47" s="4" t="n">
-        <v>1.169201379114547</v>
+        <v>1</v>
       </c>
       <c r="M47" s="4" t="n">
         <v>1</v>
@@ -5583,43 +5583,43 @@
         <v/>
       </c>
       <c r="B48" s="4" t="n">
-        <v>2.163841807909605</v>
+        <v/>
       </c>
       <c r="C48" s="4" t="n">
-        <v>1.514882506527415</v>
+        <v/>
       </c>
       <c r="D48" s="4" t="n">
-        <v>1.032402619786281</v>
+        <v>1.090379008746356</v>
       </c>
       <c r="E48" s="4" t="n">
-        <v>2.386644407345576</v>
+        <v>1</v>
       </c>
       <c r="F48" s="4" t="n">
-        <v>1</v>
+        <v>1.142696312974951</v>
       </c>
       <c r="G48" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="H48" s="4" t="n">
-        <v>1.153189703413542</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="I48" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="J48" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K48" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="L48" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="M48" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="N48" s="4" t="n">
-        <v>1.027845444619677</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O48" t="n">
         <v/>
@@ -5661,10 +5661,10 @@
         <v/>
       </c>
       <c r="C49" s="4" t="n">
-        <v>2.324921135646687</v>
+        <v>3.207015130674003</v>
       </c>
       <c r="D49" s="4" t="n">
-        <v>2.368733604703754</v>
+        <v>1.859961398241476</v>
       </c>
       <c r="E49" s="4" t="n">
         <v>1</v>
@@ -5676,19 +5676,19 @@
         <v>1</v>
       </c>
       <c r="H49" s="4" t="n">
-        <v>1.043161799945391</v>
+        <v>1</v>
       </c>
       <c r="I49" s="4" t="n">
         <v>1</v>
       </c>
       <c r="J49" s="4" t="n">
-        <v>1.108725097559726</v>
+        <v>1</v>
       </c>
       <c r="K49" s="4" t="n">
         <v>1</v>
       </c>
       <c r="L49" s="4" t="n">
-        <v>1</v>
+        <v>1.02709558399631</v>
       </c>
       <c r="M49" s="4" t="n">
         <v>1</v>
@@ -5736,25 +5736,25 @@
         <v/>
       </c>
       <c r="C50" s="4" t="n">
-        <v>1.18796992481203</v>
+        <v/>
       </c>
       <c r="D50" s="4" t="n">
-        <v>1.681434599156118</v>
+        <v>1.013519344167985</v>
       </c>
       <c r="E50" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="F50" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="G50" s="4" t="n">
-        <v>1.148306148055207</v>
+        <v>1</v>
       </c>
       <c r="H50" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I50" s="4" t="n">
-        <v>1</v>
+        <v>1.033858379452249</v>
       </c>
       <c r="J50" s="4" t="n">
         <v>1</v>
@@ -5811,31 +5811,31 @@
         <v/>
       </c>
       <c r="C51" s="4" t="n">
-        <v>1</v>
+        <v>1.148221343873518</v>
       </c>
       <c r="D51" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E51" s="4" t="n">
-        <v>1.187160356347439</v>
+        <v>1.488468158347676</v>
       </c>
       <c r="F51" s="4" t="n">
-        <v>1</v>
+        <v>1.436401480111008</v>
       </c>
       <c r="G51" s="4" t="n">
-        <v>1.531860009192642</v>
+        <v>1</v>
       </c>
       <c r="H51" s="4" t="n">
-        <v>1</v>
+        <v>1.094187731444212</v>
       </c>
       <c r="I51" s="4" t="n">
-        <v>1</v>
+        <v>1.07504414361389</v>
       </c>
       <c r="J51" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K51" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="L51" t="n">
         <v/>
@@ -5886,19 +5886,19 @@
         <v/>
       </c>
       <c r="C52" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="D52" s="4" t="n">
-        <v>3.573333333333333</v>
+        <v/>
       </c>
       <c r="E52" s="4" t="n">
-        <v>1.814179104477612</v>
+        <v>1</v>
       </c>
       <c r="F52" s="4" t="n">
-        <v>2.892225421637186</v>
+        <v>1</v>
       </c>
       <c r="G52" s="4" t="n">
-        <v>1</v>
+        <v>1.178147268408551</v>
       </c>
       <c r="H52" s="4" t="n">
         <v>1</v>
@@ -5970,7 +5970,7 @@
         <v>1</v>
       </c>
       <c r="F53" s="4" t="n">
-        <v>2.326099099099099</v>
+        <v>1</v>
       </c>
       <c r="G53" s="4" t="n">
         <v>1</v>
@@ -5979,7 +5979,7 @@
         <v>1</v>
       </c>
       <c r="I53" s="4" t="n">
-        <v>1.013977699198674</v>
+        <v>2.03125</v>
       </c>
       <c r="J53" t="n">
         <v/>
@@ -6039,19 +6039,19 @@
         <v/>
       </c>
       <c r="D54" s="4" t="n">
-        <v>1</v>
+        <v>4.446078431372549</v>
       </c>
       <c r="E54" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F54" s="4" t="n">
-        <v>1.263727984344423</v>
+        <v>1.465082690187431</v>
       </c>
       <c r="G54" s="4" t="n">
-        <v>1</v>
+        <v>1.168569342955833</v>
       </c>
       <c r="H54" s="4" t="n">
-        <v>1.038713773586367</v>
+        <v>1.391295248031014</v>
       </c>
       <c r="I54" t="n">
         <v/>
@@ -6111,13 +6111,13 @@
         <v/>
       </c>
       <c r="C55" s="4" t="n">
-        <v>1.285954096842349</v>
+        <v/>
       </c>
       <c r="D55" s="4" t="n">
-        <v>1.087551484324008</v>
+        <v>1</v>
       </c>
       <c r="E55" s="4" t="n">
-        <v>1.3036236832847</v>
+        <v>1</v>
       </c>
       <c r="F55" s="4" t="n">
         <v>1</v>
@@ -6183,19 +6183,19 @@
         <v/>
       </c>
       <c r="B56" s="4" t="n">
-        <v>2.712754555198285</v>
+        <v/>
       </c>
       <c r="C56" s="4" t="n">
-        <v>1.624654286843145</v>
+        <v/>
       </c>
       <c r="D56" s="4" t="n">
-        <v>1.04863813229572</v>
+        <v/>
       </c>
       <c r="E56" s="4" t="n">
-        <v>1.053339517625232</v>
+        <v>1</v>
       </c>
       <c r="F56" s="4" t="n">
-        <v>1</v>
+        <v>1.449048367226696</v>
       </c>
       <c r="G56" t="n">
         <v/>
@@ -6258,16 +6258,16 @@
         <v/>
       </c>
       <c r="B57" s="4" t="n">
-        <v>8.487179487179487</v>
+        <v/>
       </c>
       <c r="C57" s="4" t="n">
-        <v>1.513595166163142</v>
+        <v/>
       </c>
       <c r="D57" s="4" t="n">
-        <v>1.05189620758483</v>
+        <v>7.356544784145029</v>
       </c>
       <c r="E57" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.358790821520871</v>
       </c>
       <c r="F57" t="n">
         <v/>
@@ -6336,10 +6336,10 @@
         <v/>
       </c>
       <c r="C58" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="D58" s="4" t="n">
-        <v>1.665092443729904</v>
+        <v>3.610744939271255</v>
       </c>
       <c r="E58" t="n">
         <v/>
@@ -6704,61 +6704,61 @@
         <v>1</v>
       </c>
       <c r="B2" s="34" t="n">
-        <v>0.1045804653697958</v>
+        <v>0.07713279302464308</v>
       </c>
       <c r="C2" s="34" t="n">
-        <v>0.09264052980131533</v>
+        <v>0.2517404541321113</v>
       </c>
       <c r="D2" s="34" t="n">
-        <v>0.08363207864994966</v>
+        <v>0.1825101663539943</v>
       </c>
       <c r="E2" s="34" t="n">
-        <v>0.5668106692869479</v>
+        <v>0.0942918308392913</v>
       </c>
       <c r="F2" s="34" t="n">
-        <v>0.03204041393454552</v>
+        <v>0.029728084572925</v>
       </c>
       <c r="G2" s="34" t="n">
-        <v>0.04584693377733882</v>
+        <v>0.1117030197039991</v>
       </c>
       <c r="H2" s="34" t="n">
-        <v>0.04777840739094377</v>
+        <v>0.1287754513227624</v>
       </c>
       <c r="I2" s="34" t="n">
-        <v>0.5069916998628562</v>
+        <v>0.07570679818388085</v>
       </c>
       <c r="J2" s="34" t="n">
-        <v>0.1457578076588394</v>
+        <v>0.12434316158698</v>
       </c>
       <c r="M2" s="33" t="n">
         <v>1</v>
       </c>
       <c r="N2" s="22" t="n">
-        <v>2.902247191011236</v>
+        <v>4.019900497512438</v>
       </c>
       <c r="O2" s="22" t="n">
-        <v>4.019900497512438</v>
+        <v/>
       </c>
       <c r="P2" s="22" t="n">
-        <v>4.019900497512438</v>
+        <v/>
       </c>
       <c r="Q2" s="22" t="n">
         <v/>
       </c>
       <c r="R2" s="22" t="n">
-        <v>6.779760246199608</v>
+        <v>5.599967021188887</v>
       </c>
       <c r="S2" s="22" t="n">
-        <v>5.599967021188887</v>
+        <v/>
       </c>
       <c r="T2" s="22" t="n">
-        <v>5.599967021188887</v>
+        <v/>
       </c>
       <c r="U2" s="22" t="n">
         <v/>
       </c>
       <c r="V2" s="22" t="n">
-        <v>2.009950248756219</v>
+        <v/>
       </c>
     </row>
     <row r="3">
@@ -6767,62 +6767,62 @@
         <v/>
       </c>
       <c r="B3" s="34" t="n">
-        <v>0.3035183618541377</v>
+        <v>0.3100661530542866</v>
       </c>
       <c r="C3" s="34" t="n">
-        <v>0.3724057118381234</v>
+        <v>0.2517404541321113</v>
       </c>
       <c r="D3" s="34" t="n">
-        <v>0.336192634572932</v>
+        <v>0.1825101663539943</v>
       </c>
       <c r="E3" s="34" t="n">
-        <v>0.5668106692869479</v>
+        <v>0.0942918308392913</v>
       </c>
       <c r="F3" s="34" t="n">
-        <v>0.2172263246652117</v>
+        <v>0.1664762932114941</v>
       </c>
       <c r="G3" s="34" t="n">
-        <v>0.2567413171757282</v>
+        <v>0.1117030197039991</v>
       </c>
       <c r="H3" s="34" t="n">
-        <v>0.2675575057142124</v>
+        <v>0.1287754513227624</v>
       </c>
       <c r="I3" s="34" t="n">
-        <v>0.5069916998628562</v>
+        <v>0.07570679818388085</v>
       </c>
       <c r="J3" s="34" t="n">
-        <v>0.4220528793130416</v>
+        <v>0.12434316158698</v>
       </c>
       <c r="M3">
         <f>+M2+1</f>
         <v/>
       </c>
       <c r="N3" s="22" t="n">
-        <v>1.735558254649325</v>
+        <v>1.472673093223685</v>
       </c>
       <c r="O3" s="22" t="n">
-        <v>1.376954936750743</v>
+        <v>1.899598393574297</v>
       </c>
       <c r="P3" s="22" t="n">
-        <v>1.348342615674028</v>
+        <v/>
       </c>
       <c r="Q3" s="22" t="n">
-        <v>1.247658688865765</v>
+        <v/>
       </c>
       <c r="R3" s="22" t="n">
-        <v>1.795736314630848</v>
+        <v>1.529233108485487</v>
       </c>
       <c r="S3" s="22" t="n">
-        <v>1.383553012981641</v>
+        <v>2.17761823727376</v>
       </c>
       <c r="T3" s="22" t="n">
-        <v>1.356050887462159</v>
+        <v/>
       </c>
       <c r="U3" s="22" t="n">
-        <v>1.256797583081571</v>
+        <v/>
       </c>
       <c r="V3" s="22" t="n">
-        <v>1.298000652269896</v>
+        <v/>
       </c>
     </row>
     <row r="4">
@@ -6831,62 +6831,62 @@
         <v/>
       </c>
       <c r="B4" s="34" t="n">
-        <v>0.5267737983535894</v>
+        <v>0.456626080722425</v>
       </c>
       <c r="C4" s="34" t="n">
-        <v>0.5127858833896786</v>
+        <v>0.4782057622670228</v>
       </c>
       <c r="D4" s="34" t="n">
-        <v>0.4533028562704096</v>
+        <v>0.1825101663539943</v>
       </c>
       <c r="E4" s="34" t="n">
-        <v>0.70718625647768</v>
+        <v>0.0942918308392913</v>
       </c>
       <c r="F4" s="34" t="n">
-        <v>0.3900811996951113</v>
+        <v>0.2545810593569546</v>
       </c>
       <c r="G4" s="34" t="n">
-        <v>0.3552152229353539</v>
+        <v>0.2432465328659786</v>
       </c>
       <c r="H4" s="34" t="n">
-        <v>0.3628215930709195</v>
+        <v>0.1287754513227624</v>
       </c>
       <c r="I4" s="34" t="n">
-        <v>0.6371859430300548</v>
+        <v>0.07570679818388085</v>
       </c>
       <c r="J4" s="34" t="n">
-        <v>0.5524731709328801</v>
+        <v>0.12434316158698</v>
       </c>
       <c r="M4">
         <f>+M3+1</f>
         <v/>
       </c>
       <c r="N4" s="22" t="n">
-        <v>1.196880389241416</v>
+        <v>1.417850044817659</v>
       </c>
       <c r="O4" s="22" t="n">
-        <v>1.25490453180621</v>
+        <v>1.475687718960017</v>
       </c>
       <c r="P4" s="22" t="n">
-        <v>1.15577539317112</v>
+        <v>3.073412593687322</v>
       </c>
       <c r="Q4" s="22" t="n">
-        <v>1.201518749381617</v>
+        <v>4.26293334046651</v>
       </c>
       <c r="R4" s="22" t="n">
-        <v>1.325068918309513</v>
+        <v>2.10905339476896</v>
       </c>
       <c r="S4" s="22" t="n">
-        <v>1.500825674992177</v>
+        <v>2.560257816630506</v>
       </c>
       <c r="T4" s="22" t="n">
-        <v>1.170635653586892</v>
+        <v>4.103342038697209</v>
       </c>
       <c r="U4" s="22" t="n">
-        <v>1.255208927870151</v>
+        <v>5.483644861708142</v>
       </c>
       <c r="V4" s="22" t="n">
-        <v>1.178647071276368</v>
+        <v>3.668172967076916</v>
       </c>
     </row>
     <row r="5">
@@ -6895,62 +6895,62 @@
         <v/>
       </c>
       <c r="B5" s="34" t="n">
-        <v>0.6304852288156232</v>
+        <v>0.6474273090172022</v>
       </c>
       <c r="C5" s="34" t="n">
-        <v>0.6434973289119585</v>
+        <v>0.7056823705133589</v>
       </c>
       <c r="D5" s="34" t="n">
-        <v>0.5239162869315245</v>
+        <v>0.5609290437483341</v>
       </c>
       <c r="E5" s="34" t="n">
-        <v>0.8496975464629292</v>
+        <v>0.4019597894184431</v>
       </c>
       <c r="F5" s="34" t="n">
-        <v>0.5168844733328783</v>
+        <v>0.5369250474806632</v>
       </c>
       <c r="G5" s="34" t="n">
-        <v>0.5331161267294491</v>
+        <v>0.6227738371383911</v>
       </c>
       <c r="H5" s="34" t="n">
-        <v>0.4247318927400134</v>
+        <v>0.5284097229648972</v>
       </c>
       <c r="I5" s="34" t="n">
-        <v>0.7998014844046865</v>
+        <v>0.4151491948574136</v>
       </c>
       <c r="J5" s="34" t="n">
-        <v>0.6481739958276135</v>
+        <v>0.4683218094081195</v>
       </c>
       <c r="M5">
         <f>+M4+1</f>
         <v/>
       </c>
       <c r="N5" s="22" t="n">
-        <v>1.17392831307854</v>
+        <v>1.079127722837739</v>
       </c>
       <c r="O5" s="22" t="n">
-        <v>1.181663760201002</v>
+        <v>1.051070209444573</v>
       </c>
       <c r="P5" s="22" t="n">
-        <v>1.170998031290823</v>
+        <v>1.089495501197467</v>
       </c>
       <c r="Q5" s="22" t="n">
-        <v>1.132247079817036</v>
+        <v>1.13006202081492</v>
       </c>
       <c r="R5" s="22" t="n">
-        <v>1.235914841302792</v>
+        <v>1.110278082080177</v>
       </c>
       <c r="S5" s="22" t="n">
-        <v>1.23714339016832</v>
+        <v>1.070604914989046</v>
       </c>
       <c r="T5" s="22" t="n">
-        <v>1.195190384231257</v>
+        <v>1.059798470253478</v>
       </c>
       <c r="U5" s="22" t="n">
-        <v>1.118987733636644</v>
+        <v>1.119596940506957</v>
       </c>
       <c r="V5" s="22" t="n">
-        <v>1.151622555553929</v>
+        <v>1.109778761006193</v>
       </c>
     </row>
     <row r="6">
@@ -6959,62 +6959,62 @@
         <v/>
       </c>
       <c r="B6" s="34" t="n">
-        <v>0.7401444610844617</v>
+        <v>0.6986567576826987</v>
       </c>
       <c r="C6" s="34" t="n">
-        <v>0.7603974733614057</v>
+        <v>0.7417217169768191</v>
       </c>
       <c r="D6" s="34" t="n">
-        <v>0.6135049405580132</v>
+        <v>0.611129669654807</v>
       </c>
       <c r="E6" s="34" t="n">
-        <v>0.9620675657103515</v>
+        <v>0.4542394919165454</v>
       </c>
       <c r="F6" s="34" t="n">
-        <v>0.6388251918310819</v>
+        <v>0.5961361119376384</v>
       </c>
       <c r="G6" s="34" t="n">
-        <v>0.6595410923754742</v>
+        <v>0.6667447309669489</v>
       </c>
       <c r="H6" s="34" t="n">
-        <v>0.5076354740792057</v>
+        <v>0.5600078160652624</v>
       </c>
       <c r="I6" s="34" t="n">
-        <v>0.8949680503932237</v>
+        <v>0.4647997684162868</v>
       </c>
       <c r="J6" s="34" t="n">
-        <v>0.7492301399849233</v>
+        <v>0.521132468729777</v>
       </c>
       <c r="M6">
         <f>+M5+1</f>
         <v/>
       </c>
       <c r="N6" s="22" t="n">
-        <v>1.199045936491141</v>
+        <v>1.166956286409115</v>
       </c>
       <c r="O6" s="22" t="n">
-        <v>1.177903618151192</v>
+        <v>1.104901593411459</v>
       </c>
       <c r="P6" s="22" t="n">
-        <v>1.385026147048841</v>
+        <v>1.370432898201313</v>
       </c>
       <c r="Q6" s="22" t="n">
-        <v>1.022719762897826</v>
+        <v>1.356920399200364</v>
       </c>
       <c r="R6" s="22" t="n">
-        <v>1.354880146060543</v>
+        <v>1.261856913451621</v>
       </c>
       <c r="S6" s="22" t="n">
-        <v>1.324535709071637</v>
+        <v>1.124435737541674</v>
       </c>
       <c r="T6" s="22" t="n">
-        <v>1.580342084180118</v>
+        <v>1.225088756254189</v>
       </c>
       <c r="U6" s="22" t="n">
-        <v>1.087909328114808</v>
+        <v>1.304710352471376</v>
       </c>
       <c r="V6" s="22" t="n">
-        <v>1.203872954973333</v>
+        <v>1.363676648700839</v>
       </c>
     </row>
     <row r="7">
@@ -7023,62 +7023,62 @@
         <v/>
       </c>
       <c r="B7" s="34" t="n">
-        <v>0.8874672084797497</v>
+        <v>0.8153018954200352</v>
       </c>
       <c r="C7" s="34" t="n">
-        <v>0.8956749351054245</v>
+        <v>0.8195295069555704</v>
       </c>
       <c r="D7" s="34" t="n">
-        <v>0.8497203840164934</v>
+        <v>0.8375122043618484</v>
       </c>
       <c r="E7" s="34" t="n">
-        <v>0.9839255126949789</v>
+        <v>0.6163668327039694</v>
       </c>
       <c r="F7" s="34" t="n">
-        <v>0.8655315692152505</v>
+        <v>0.7522384742066782</v>
       </c>
       <c r="G7" s="34" t="n">
-        <v>0.8735857284514307</v>
+        <v>0.7497116033168461</v>
       </c>
       <c r="H7" s="34" t="n">
-        <v>0.8022377031100942</v>
+        <v>0.686059278876017</v>
       </c>
       <c r="I7" s="34" t="n">
-        <v>0.9736440903875112</v>
+        <v>0.6064290696790273</v>
       </c>
       <c r="J7" s="34" t="n">
-        <v>0.9119116902453477</v>
+        <v>0.7101206243337047</v>
       </c>
       <c r="M7">
         <f>+M6+1</f>
         <v/>
       </c>
       <c r="N7" s="22" t="n">
-        <v>1.015824505991307</v>
+        <v>1.022629523734009</v>
       </c>
       <c r="O7" s="22" t="n">
-        <v>1.022107647671712</v>
+        <v>1.009851075471858</v>
       </c>
       <c r="P7" s="22" t="n">
-        <v>1.052033695187692</v>
+        <v>1.029674331306249</v>
       </c>
       <c r="Q7" s="22" t="n">
-        <v>1</v>
+        <v>1.113542474516304</v>
       </c>
       <c r="R7" s="22" t="n">
-        <v>1.041202229755124</v>
+        <v>1.05704904270068</v>
       </c>
       <c r="S7" s="22" t="n">
-        <v>1.061803344632687</v>
+        <v>1.028893050947032</v>
       </c>
       <c r="T7" s="22" t="n">
-        <v>1.113361026207975</v>
+        <v>1.057786101894064</v>
       </c>
       <c r="U7" s="22" t="n">
-        <v>1</v>
+        <v>1.056189780985278</v>
       </c>
       <c r="V7" s="22" t="n">
-        <v>1.026016847593846</v>
+        <v>1.071608402911277</v>
       </c>
     </row>
     <row r="8">
@@ -7087,62 +7087,62 @@
         <v/>
       </c>
       <c r="B8" s="34" t="n">
-        <v>0.9015109386374264</v>
+        <v>0.833751789012825</v>
       </c>
       <c r="C8" s="34" t="n">
-        <v>0.9154762009991185</v>
+        <v>0.8276027539800043</v>
       </c>
       <c r="D8" s="34" t="n">
-        <v>0.8939344754731762</v>
+        <v>0.8623648189871089</v>
       </c>
       <c r="E8" s="34" t="n">
-        <v>0.9839255126949789</v>
+        <v>0.686350648098955</v>
       </c>
       <c r="F8" s="34" t="n">
-        <v>0.9011933997903707</v>
+        <v>0.7951529590427892</v>
       </c>
       <c r="G8" s="34" t="n">
-        <v>0.9275762482931112</v>
+        <v>0.7713730588670609</v>
       </c>
       <c r="H8" s="34" t="n">
-        <v>0.8931801923973832</v>
+        <v>0.7257039702705147</v>
       </c>
       <c r="I8" s="34" t="n">
-        <v>0.9736440903875112</v>
+        <v>0.6405041862873977</v>
       </c>
       <c r="J8" s="34" t="n">
-        <v>0.9367737133093442</v>
+        <v>0.764355577236123</v>
       </c>
       <c r="M8">
         <f>+M7+1</f>
         <v/>
       </c>
       <c r="N8" s="22" t="n">
-        <v>1.02905486510957</v>
+        <v>1.027744219430922</v>
       </c>
       <c r="O8" s="22" t="n">
-        <v>1.0236671934712</v>
+        <v>1.034405485746928</v>
       </c>
       <c r="P8" s="22" t="n">
-        <v>1.012350766235184</v>
+        <v>1.070067871524397</v>
       </c>
       <c r="Q8" s="22" t="n">
-        <v>1.004585262964831</v>
+        <v>1.323056841926171</v>
       </c>
       <c r="R8" s="22" t="n">
-        <v>1.025600344603733</v>
+        <v>1.033374032529823</v>
       </c>
       <c r="S8" s="22" t="n">
-        <v>1.020863797304235</v>
+        <v>1.043683062755133</v>
       </c>
       <c r="T8" s="22" t="n">
-        <v>1.013645928921959</v>
+        <v>1.080913829912538</v>
       </c>
       <c r="U8" s="22" t="n">
-        <v>1.012904591195456</v>
+        <v>1.130431749343671</v>
       </c>
       <c r="V8" s="22" t="n">
-        <v>1.008468014600008</v>
+        <v>1.196562356725284</v>
       </c>
     </row>
     <row r="9">
@@ -7151,62 +7151,62 @@
         <v/>
       </c>
       <c r="B9" s="34" t="n">
-        <v>0.9277042173543383</v>
+        <v>0.8568835815981207</v>
       </c>
       <c r="C9" s="34" t="n">
-        <v>0.9371429533664434</v>
+        <v>0.8560768287361818</v>
       </c>
       <c r="D9" s="34" t="n">
-        <v>0.9049752512093172</v>
+        <v>0.9227888863310572</v>
       </c>
       <c r="E9" s="34" t="n">
-        <v>0.9884370699084915</v>
+        <v>0.9080809209277838</v>
       </c>
       <c r="F9" s="34" t="n">
-        <v>0.9242642613796143</v>
+        <v>0.821690419764068</v>
       </c>
       <c r="G9" s="34" t="n">
-        <v>0.9469290111217216</v>
+        <v>0.8050689966051693</v>
       </c>
       <c r="H9" s="34" t="n">
-        <v>0.90536846581734</v>
+        <v>0.7844234578878365</v>
       </c>
       <c r="I9" s="34" t="n">
-        <v>0.9862085693438333</v>
+        <v>0.7240462677668077</v>
       </c>
       <c r="J9" s="34" t="n">
-        <v>0.9448666575877654</v>
+        <v>0.9153758267236115</v>
       </c>
       <c r="M9">
         <f>+M8+1</f>
         <v/>
       </c>
       <c r="N9" s="22" t="n">
-        <v>1.000449451299542</v>
+        <v>1.013082592708716</v>
       </c>
       <c r="O9" s="22" t="n">
-        <v>1.000537333272588</v>
+        <v>1.017623243850403</v>
       </c>
       <c r="P9" s="22" t="n">
-        <v>1.001222214847015</v>
+        <v>1.029195960628915</v>
       </c>
       <c r="Q9" s="22" t="n">
-        <v>1.003209129613624</v>
+        <v>1.090579710144927</v>
       </c>
       <c r="R9" s="22" t="n">
-        <v>1.000873606199917</v>
+        <v>1.072133138891551</v>
       </c>
       <c r="S9" s="22" t="n">
-        <v>1.001164808266556</v>
+        <v>1.096177518522068</v>
       </c>
       <c r="T9" s="22" t="n">
-        <v>1.002329616533112</v>
+        <v>1.190025420511023</v>
       </c>
       <c r="U9" s="22" t="n">
-        <v>1.004659233066225</v>
+        <v>1.368764714537964</v>
       </c>
       <c r="V9" s="22" t="n">
-        <v>1.002215672230319</v>
+        <v>1.059887835386921</v>
       </c>
     </row>
     <row r="10">
@@ -7215,62 +7215,62 @@
         <v/>
       </c>
       <c r="B10" s="34" t="n">
-        <v>0.9281211752204186</v>
+        <v>0.8680938404949547</v>
       </c>
       <c r="C10" s="34" t="n">
-        <v>0.9376465114564582</v>
+        <v>0.8711636794436793</v>
       </c>
       <c r="D10" s="34" t="n">
-        <v>0.9060813253975262</v>
+        <v>0.9497305943251787</v>
       </c>
       <c r="E10" s="34" t="n">
-        <v>0.9916090925807386</v>
+        <v>0.9903346275335614</v>
       </c>
       <c r="F10" s="34" t="n">
-        <v>0.9250717043687173</v>
+        <v>0.8809615289387661</v>
       </c>
       <c r="G10" s="34" t="n">
-        <v>0.9480320018617179</v>
+        <v>0.8824985349377054</v>
       </c>
       <c r="H10" s="34" t="n">
-        <v>0.9074776271638666</v>
+        <v>0.9334838553316837</v>
       </c>
       <c r="I10" s="34" t="n">
-        <v>0.990803544920314</v>
+        <v>0.9910489830121124</v>
       </c>
       <c r="J10" s="34" t="n">
-        <v>0.9469178664442037</v>
+        <v>0.9696077057524172</v>
       </c>
       <c r="M10">
         <f>+M9+1</f>
         <v/>
       </c>
       <c r="N10" s="22" t="n">
-        <v>1.007643219653523</v>
+        <v>1.015802433793334</v>
       </c>
       <c r="O10" s="22" t="n">
-        <v>1.008840989446627</v>
+        <v>1.009147899931399</v>
       </c>
       <c r="P10" s="22" t="n">
-        <v>1.016846776862739</v>
+        <v>1.015628751906749</v>
       </c>
       <c r="Q10" s="22" t="n">
         <v>1</v>
       </c>
       <c r="R10" s="22" t="n">
-        <v>1.007248339837315</v>
+        <v>1.016308344262717</v>
       </c>
       <c r="S10" s="22" t="n">
-        <v>1.009060424796644</v>
+        <v>1.011325005531752</v>
       </c>
       <c r="T10" s="22" t="n">
-        <v>1.018120849593288</v>
+        <v>1.022650011063504</v>
       </c>
       <c r="U10" s="22" t="n">
         <v>1</v>
       </c>
       <c r="V10" s="22" t="n">
-        <v>1.008423388431369</v>
+        <v>1.007814375953375</v>
       </c>
     </row>
     <row r="11">
@@ -7279,62 +7279,62 @@
         <v/>
       </c>
       <c r="B11" s="34" t="n">
-        <v>0.9352150092277141</v>
+        <v>0.8818118359357775</v>
       </c>
       <c r="C11" s="34" t="n">
-        <v>0.9459362343689113</v>
+        <v>0.8791329976070995</v>
       </c>
       <c r="D11" s="34" t="n">
-        <v>0.9213458753059928</v>
+        <v>0.9645736981621365</v>
       </c>
       <c r="E11" s="34" t="n">
-        <v>0.9916090925807386</v>
+        <v>0.9903346275335614</v>
       </c>
       <c r="F11" s="34" t="n">
-        <v>0.9317769384558661</v>
+        <v>0.8953285528349088</v>
       </c>
       <c r="G11" s="34" t="n">
-        <v>0.9566215745193976</v>
+        <v>0.8924928357276382</v>
       </c>
       <c r="H11" s="34" t="n">
-        <v>0.9239218927549766</v>
+        <v>0.9546272749825491</v>
       </c>
       <c r="I11" s="34" t="n">
-        <v>0.990803544920314</v>
+        <v>0.9910489830121124</v>
       </c>
       <c r="J11" s="34" t="n">
-        <v>0.9551870929554241</v>
+        <v>0.977284429701451</v>
       </c>
       <c r="M11">
         <f>+M10+1</f>
         <v/>
       </c>
       <c r="N11" s="22" t="n">
-        <v>1.013524331310202</v>
+        <v>1.016364912922826</v>
       </c>
       <c r="O11" s="22" t="n">
-        <v>1</v>
+        <v>1.019116362357052</v>
       </c>
       <c r="P11" s="22" t="n">
-        <v>1</v>
+        <v>1.03039265347473</v>
       </c>
       <c r="Q11" s="22" t="n">
         <v>1</v>
       </c>
       <c r="R11" s="22" t="n">
-        <v>1.028013483668488</v>
+        <v>1.018351408990521</v>
       </c>
       <c r="S11" s="22" t="n">
-        <v>1</v>
+        <v>1.021409977155608</v>
       </c>
       <c r="T11" s="22" t="n">
-        <v>1</v>
+        <v>1.042819954311215</v>
       </c>
       <c r="U11" s="22" t="n">
         <v>1</v>
       </c>
       <c r="V11" s="22" t="n">
-        <v>1</v>
+        <v>1.015196326737365</v>
       </c>
     </row>
     <row r="12">
@@ -7343,62 +7343,62 @@
         <v/>
       </c>
       <c r="B12" s="34" t="n">
-        <v>0.9478631668587832</v>
+        <v>0.8962426098451841</v>
       </c>
       <c r="C12" s="34" t="n">
-        <v>0.9459362343689113</v>
+        <v>0.8959388225493984</v>
       </c>
       <c r="D12" s="34" t="n">
-        <v>0.9213458753059928</v>
+        <v>0.9938896523212171</v>
       </c>
       <c r="E12" s="34" t="n">
-        <v>0.9916090925807386</v>
+        <v>0.9903346275335614</v>
       </c>
       <c r="F12" s="34" t="n">
-        <v>0.9578792565039729</v>
+        <v>0.9117590932888733</v>
       </c>
       <c r="G12" s="34" t="n">
-        <v>0.9566215745193976</v>
+        <v>0.9116010869521103</v>
       </c>
       <c r="H12" s="34" t="n">
-        <v>0.9239218927549766</v>
+        <v>0.9955043712815412</v>
       </c>
       <c r="I12" s="34" t="n">
-        <v>0.990803544920314</v>
+        <v>0.9910489830121124</v>
       </c>
       <c r="J12" s="34" t="n">
-        <v>0.9551870929554241</v>
+        <v>0.9921089552568435</v>
       </c>
       <c r="M12">
         <f>+M11+1</f>
         <v/>
       </c>
       <c r="N12" s="22" t="n">
-        <v>1.023049185616685</v>
+        <v>1.003467070282826</v>
       </c>
       <c r="O12" s="22" t="n">
-        <v>1.025133202110479</v>
+        <v>1.0038073173399</v>
       </c>
       <c r="P12" s="22" t="n">
-        <v>1.035882024292118</v>
+        <v>1.006147913568184</v>
       </c>
       <c r="Q12" s="22" t="n">
-        <v>1</v>
+        <v>1.009759703637255</v>
       </c>
       <c r="R12" s="22" t="n">
-        <v>1.016029434624033</v>
+        <v>1.002084275692024</v>
       </c>
       <c r="S12" s="22" t="n">
-        <v>1.017365220842702</v>
+        <v>1.002257965333026</v>
       </c>
       <c r="T12" s="22" t="n">
-        <v>1.028200229852424</v>
+        <v>1.004515930666052</v>
       </c>
       <c r="U12" s="22" t="n">
-        <v>1</v>
+        <v>1.009031861332103</v>
       </c>
       <c r="V12" s="22" t="n">
-        <v>1.017941012146059</v>
+        <v>1.007953808602719</v>
       </c>
     </row>
     <row r="13">
@@ -7407,62 +7407,62 @@
         <v/>
       </c>
       <c r="B13" s="34" t="n">
-        <v>0.9697106409309303</v>
+        <v>0.8993499459639805</v>
       </c>
       <c r="C13" s="34" t="n">
-        <v>0.9697106409309303</v>
+        <v>0.8993499459639805</v>
       </c>
       <c r="D13" s="34" t="n">
-        <v>0.9544056303851648</v>
+        <v>1</v>
       </c>
       <c r="E13" s="34" t="n">
-        <v>0.9916090925807386</v>
+        <v>1</v>
       </c>
       <c r="F13" s="34" t="n">
-        <v>0.9732335194238206</v>
+        <v>0.913659450603997</v>
       </c>
       <c r="G13" s="34" t="n">
-        <v>0.9732335194238206</v>
+        <v>0.913659450603997</v>
       </c>
       <c r="H13" s="34" t="n">
-        <v>0.9499767024963539</v>
+        <v>1</v>
       </c>
       <c r="I13" s="34" t="n">
-        <v>0.990803544920314</v>
+        <v>1</v>
       </c>
       <c r="J13" s="34" t="n">
-        <v>0.9726517378633041</v>
+        <v>1</v>
       </c>
       <c r="M13">
         <f>+M12+1</f>
         <v/>
       </c>
       <c r="N13" s="22" t="n">
-        <v>1.012858149339867</v>
+        <v>1</v>
       </c>
       <c r="O13" s="22" t="n">
-        <v>1.012858149339867</v>
+        <v>1</v>
       </c>
       <c r="P13" s="22" t="n">
-        <v>1.020768754244763</v>
+        <v>1</v>
       </c>
       <c r="Q13" s="22" t="n">
         <v>1</v>
       </c>
       <c r="R13" s="22" t="n">
-        <v>1.011418049647934</v>
+        <v>1</v>
       </c>
       <c r="S13" s="22" t="n">
-        <v>1.011418049647934</v>
+        <v>1</v>
       </c>
       <c r="T13" s="22" t="n">
-        <v>1.022836099295868</v>
+        <v>1</v>
       </c>
       <c r="U13" s="22" t="n">
         <v>1</v>
       </c>
       <c r="V13" s="22" t="n">
-        <v>1.010384377122382</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -7471,62 +7471,62 @@
         <v/>
       </c>
       <c r="B14" s="34" t="n">
-        <v>0.9821793251684784</v>
+        <v>0.8993499459639805</v>
       </c>
       <c r="C14" s="34" t="n">
-        <v>0.9821793251684784</v>
+        <v>0.8993499459639805</v>
       </c>
       <c r="D14" s="34" t="n">
-        <v>0.9742274463724528</v>
+        <v>1</v>
       </c>
       <c r="E14" s="34" t="n">
-        <v>0.9916090925807386</v>
+        <v>1</v>
       </c>
       <c r="F14" s="34" t="n">
-        <v>0.9843459480676351</v>
+        <v>0.913659450603997</v>
       </c>
       <c r="G14" s="34" t="n">
-        <v>0.9843459480676351</v>
+        <v>0.913659450603997</v>
       </c>
       <c r="H14" s="34" t="n">
-        <v>0.9716704648033215</v>
+        <v>1</v>
       </c>
       <c r="I14" s="34" t="n">
-        <v>0.990803544920314</v>
+        <v>1</v>
       </c>
       <c r="J14" s="34" t="n">
-        <v>0.9828414264586429</v>
+        <v>1</v>
       </c>
       <c r="M14">
         <f>+M13+1</f>
         <v/>
       </c>
       <c r="N14" s="22" t="n">
-        <v>1.018144013394361</v>
+        <v>1.01929683491384</v>
       </c>
       <c r="O14" s="22" t="n">
-        <v>1.018144013394361</v>
+        <v>1.01929683491384</v>
       </c>
       <c r="P14" s="22" t="n">
-        <v>1.026454349775827</v>
+        <v>1</v>
       </c>
       <c r="Q14" s="22" t="n">
-        <v>1.008461910527084</v>
+        <v>1</v>
       </c>
       <c r="R14" s="22" t="n">
-        <v>1.015902998293532</v>
+        <v>1.034723837845233</v>
       </c>
       <c r="S14" s="22" t="n">
-        <v>1.015902998293532</v>
+        <v>1.034723837845233</v>
       </c>
       <c r="T14" s="22" t="n">
-        <v>1.029155496871476</v>
+        <v>1</v>
       </c>
       <c r="U14" s="22" t="n">
-        <v>1.009281814873226</v>
+        <v>1</v>
       </c>
       <c r="V14" s="22" t="n">
-        <v>1.017458130151455</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -7535,10 +7535,10 @@
         <v/>
       </c>
       <c r="B15" s="34" t="n">
-        <v>1</v>
+        <v>0.9167045534010189</v>
       </c>
       <c r="C15" s="34" t="n">
-        <v>1</v>
+        <v>0.9167045534010189</v>
       </c>
       <c r="D15" s="34" t="n">
         <v>1</v>
@@ -7547,10 +7547,10 @@
         <v>1</v>
       </c>
       <c r="F15" s="34" t="n">
-        <v>1</v>
+        <v>0.9453852132125348</v>
       </c>
       <c r="G15" s="34" t="n">
-        <v>1</v>
+        <v>0.9453852132125348</v>
       </c>
       <c r="H15" s="34" t="n">
         <v>1</v>
@@ -7566,10 +7566,10 @@
         <v/>
       </c>
       <c r="N15" s="22" t="n">
-        <v>1</v>
+        <v>1.090864004427545</v>
       </c>
       <c r="O15" s="22" t="n">
-        <v>1</v>
+        <v>1.090864004427545</v>
       </c>
       <c r="P15" s="22" t="n">
         <v>1</v>
@@ -7578,10 +7578,10 @@
         <v>1</v>
       </c>
       <c r="R15" s="22" t="n">
-        <v>1</v>
+        <v>1.057769876262267</v>
       </c>
       <c r="S15" s="22" t="n">
-        <v>1</v>
+        <v>1.057769876262267</v>
       </c>
       <c r="T15" s="22" t="n">
         <v>1</v>
@@ -8234,7 +8234,7 @@
         </is>
       </c>
       <c r="H4" s="8" t="n">
-        <v>45322</v>
+        <v>45657</v>
       </c>
       <c r="J4" s="40" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v/>
       </c>
       <c r="B8" s="14" t="n">
-        <v>5854.889999999999</v>
+        <v>6057.320000000001</v>
       </c>
       <c r="C8" s="14">
         <f>+'Completion Factors'!J30</f>
@@ -8582,7 +8582,7 @@
         <v/>
       </c>
       <c r="I8" s="14" t="n">
-        <v>5490.725833333334</v>
+        <v>5155.900000000001</v>
       </c>
       <c r="J8" s="14">
         <f>100*$G8/$I8</f>
@@ -8608,73 +8608,73 @@
         <v/>
       </c>
       <c r="T8" s="22" t="n">
-        <v>1761</v>
+        <v>951</v>
       </c>
       <c r="U8" s="22" t="n">
-        <v>3911.89</v>
+        <v>2211</v>
       </c>
       <c r="V8" s="22" t="n">
-        <v>3911.89</v>
+        <v>5237.27</v>
       </c>
       <c r="W8" s="22" t="n">
-        <v>3911.89</v>
+        <v>5237.27</v>
       </c>
       <c r="X8" s="22" t="n">
-        <v>5854.889999999999</v>
+        <v>5237.27</v>
       </c>
       <c r="Y8" s="22" t="n">
-        <v>5854.889999999999</v>
+        <v>5237.27</v>
       </c>
       <c r="Z8" s="22" t="n">
-        <v>5854.889999999999</v>
+        <v>5463.320000000001</v>
       </c>
       <c r="AA8" s="22" t="n">
-        <v>5854.889999999999</v>
+        <v>5463.320000000001</v>
       </c>
       <c r="AB8" s="22" t="n">
-        <v>5854.889999999999</v>
+        <v>6057.320000000001</v>
       </c>
       <c r="AC8" s="22" t="n">
-        <v>5854.889999999999</v>
+        <v>6057.320000000001</v>
       </c>
       <c r="AD8" s="22" t="n">
-        <v>5854.889999999999</v>
+        <v>6057.320000000001</v>
       </c>
       <c r="AE8" s="22" t="n">
-        <v>5854.889999999999</v>
+        <v>6057.320000000001</v>
       </c>
       <c r="AF8" s="22" t="n">
-        <v>5854.889999999999</v>
+        <v>6057.320000000001</v>
       </c>
       <c r="AG8" s="22" t="n">
-        <v>5854.889999999999</v>
+        <v>6057.320000000001</v>
       </c>
       <c r="AH8" s="22" t="n">
-        <v>5854.889999999999</v>
+        <v>6057.320000000001</v>
       </c>
       <c r="AI8" s="22" t="n">
-        <v>5854.889999999999</v>
+        <v>6057.320000000001</v>
       </c>
       <c r="AJ8" s="22" t="n">
-        <v>5854.889999999999</v>
+        <v>6057.320000000001</v>
       </c>
       <c r="AK8" s="22" t="n">
-        <v>5854.889999999999</v>
+        <v>6057.320000000001</v>
       </c>
       <c r="AL8" s="22" t="n">
-        <v>5854.889999999999</v>
+        <v>6057.320000000001</v>
       </c>
       <c r="AM8" s="22" t="n">
-        <v>5854.889999999999</v>
+        <v>6057.320000000001</v>
       </c>
       <c r="AN8" s="22" t="n">
-        <v>5854.889999999999</v>
+        <v>6057.320000000001</v>
       </c>
       <c r="AO8" s="22" t="n">
-        <v>5854.889999999999</v>
+        <v>6057.320000000001</v>
       </c>
       <c r="AP8" s="22" t="n">
-        <v>5854.889999999999</v>
+        <v>6057.320000000001</v>
       </c>
       <c r="AQ8" s="14" t="n"/>
       <c r="AR8" s="14" t="n"/>
@@ -8685,7 +8685,7 @@
         <v/>
       </c>
       <c r="B9" s="14" t="n">
-        <v>3422</v>
+        <v>4576</v>
       </c>
       <c r="C9" s="14">
         <f>+'Completion Factors'!J29</f>
@@ -8709,7 +8709,7 @@
         <v/>
       </c>
       <c r="I9" s="14" t="n">
-        <v>5447.142500000001</v>
+        <v>5079.55</v>
       </c>
       <c r="J9" s="14">
         <f>100*$G9/$I9</f>
@@ -8735,70 +8735,70 @@
         <v/>
       </c>
       <c r="T9" s="22" t="n">
-        <v>1075</v>
+        <v>1995</v>
       </c>
       <c r="U9" s="22" t="n">
-        <v>1075</v>
+        <v>2370</v>
       </c>
       <c r="V9" s="22" t="n">
-        <v>1075</v>
+        <v>3985</v>
       </c>
       <c r="W9" s="22" t="n">
-        <v>2458</v>
+        <v>3985</v>
       </c>
       <c r="X9" s="22" t="n">
-        <v>2458</v>
+        <v>3985</v>
       </c>
       <c r="Y9" s="22" t="n">
-        <v>2458</v>
+        <v>4576</v>
       </c>
       <c r="Z9" s="22" t="n">
-        <v>2458</v>
+        <v>4576</v>
       </c>
       <c r="AA9" s="22" t="n">
-        <v>2458</v>
+        <v>4576</v>
       </c>
       <c r="AB9" s="22" t="n">
-        <v>2458</v>
+        <v>4576</v>
       </c>
       <c r="AC9" s="22" t="n">
-        <v>3422</v>
+        <v>4576</v>
       </c>
       <c r="AD9" s="22" t="n">
-        <v>3422</v>
+        <v>4576</v>
       </c>
       <c r="AE9" s="22" t="n">
-        <v>3422</v>
+        <v>4576</v>
       </c>
       <c r="AF9" s="22" t="n">
-        <v>3422</v>
+        <v>4576</v>
       </c>
       <c r="AG9" s="22" t="n">
-        <v>3422</v>
+        <v>4576</v>
       </c>
       <c r="AH9" s="22" t="n">
-        <v>3422</v>
+        <v>4576</v>
       </c>
       <c r="AI9" s="22" t="n">
-        <v>3422</v>
+        <v>4576</v>
       </c>
       <c r="AJ9" s="22" t="n">
-        <v>3422</v>
+        <v>4576</v>
       </c>
       <c r="AK9" s="22" t="n">
-        <v>3422</v>
+        <v>4576</v>
       </c>
       <c r="AL9" s="22" t="n">
-        <v>3422</v>
+        <v>4576</v>
       </c>
       <c r="AM9" s="22" t="n">
-        <v>3422</v>
+        <v>4576</v>
       </c>
       <c r="AN9" s="22" t="n">
-        <v>3422</v>
+        <v>4576</v>
       </c>
       <c r="AO9" s="22" t="n">
-        <v>3422</v>
+        <v>4576</v>
       </c>
       <c r="AP9" s="22" t="n">
         <v/>
@@ -8812,7 +8812,7 @@
         <v/>
       </c>
       <c r="B10" s="14" t="n">
-        <v>2216</v>
+        <v>1633.07</v>
       </c>
       <c r="C10" s="14">
         <f>+'Completion Factors'!J28</f>
@@ -8836,7 +8836,7 @@
         <v/>
       </c>
       <c r="I10" s="14" t="n">
-        <v>5447.142500000001</v>
+        <v>5040.595833333334</v>
       </c>
       <c r="J10" s="14">
         <f>100*$G10/$I10</f>
@@ -8862,67 +8862,67 @@
         <v/>
       </c>
       <c r="T10" s="22" t="n">
-        <v>375</v>
+        <v>898</v>
       </c>
       <c r="U10" s="22" t="n">
-        <v>1216</v>
+        <v>898</v>
       </c>
       <c r="V10" s="22" t="n">
-        <v>1216</v>
+        <v>898</v>
       </c>
       <c r="W10" s="22" t="n">
-        <v>1216</v>
+        <v>1066.07</v>
       </c>
       <c r="X10" s="22" t="n">
-        <v>2216</v>
+        <v>1066.07</v>
       </c>
       <c r="Y10" s="22" t="n">
-        <v>2216</v>
+        <v>1633.07</v>
       </c>
       <c r="Z10" s="22" t="n">
-        <v>2216</v>
+        <v>1633.07</v>
       </c>
       <c r="AA10" s="22" t="n">
-        <v>2216</v>
+        <v>1633.07</v>
       </c>
       <c r="AB10" s="22" t="n">
-        <v>2216</v>
+        <v>1633.07</v>
       </c>
       <c r="AC10" s="22" t="n">
-        <v>2216</v>
+        <v>1633.07</v>
       </c>
       <c r="AD10" s="22" t="n">
-        <v>2216</v>
+        <v>1633.07</v>
       </c>
       <c r="AE10" s="22" t="n">
-        <v>2216</v>
+        <v>1633.07</v>
       </c>
       <c r="AF10" s="22" t="n">
-        <v>2216</v>
+        <v>1633.07</v>
       </c>
       <c r="AG10" s="22" t="n">
-        <v>2216</v>
+        <v>1633.07</v>
       </c>
       <c r="AH10" s="22" t="n">
-        <v>2216</v>
+        <v>1633.07</v>
       </c>
       <c r="AI10" s="22" t="n">
-        <v>2216</v>
+        <v>1633.07</v>
       </c>
       <c r="AJ10" s="22" t="n">
-        <v>2216</v>
+        <v>1633.07</v>
       </c>
       <c r="AK10" s="22" t="n">
-        <v>2216</v>
+        <v>1633.07</v>
       </c>
       <c r="AL10" s="22" t="n">
-        <v>2216</v>
+        <v>1633.07</v>
       </c>
       <c r="AM10" s="22" t="n">
-        <v>2216</v>
+        <v>1633.07</v>
       </c>
       <c r="AN10" s="22" t="n">
-        <v>2216</v>
+        <v>1633.07</v>
       </c>
       <c r="AO10" s="22" t="n">
         <v/>
@@ -8939,7 +8939,7 @@
         <v/>
       </c>
       <c r="B11" s="14" t="n">
-        <v>2604</v>
+        <v>11092.8</v>
       </c>
       <c r="C11" s="14">
         <f>+'Completion Factors'!J27</f>
@@ -8963,7 +8963,7 @@
         <v/>
       </c>
       <c r="I11" s="14" t="n">
-        <v>5391.421666666667</v>
+        <v>5040.595833333334</v>
       </c>
       <c r="J11" s="14">
         <f>100*$G11/$I11</f>
@@ -8989,64 +8989,64 @@
         <v/>
       </c>
       <c r="T11" s="22" t="n">
-        <v>841</v>
+        <v>375</v>
       </c>
       <c r="U11" s="22" t="n">
-        <v>2250</v>
+        <v>375</v>
       </c>
       <c r="V11" s="22" t="n">
-        <v>2579</v>
+        <v>1340</v>
       </c>
       <c r="W11" s="22" t="n">
-        <v>2579</v>
+        <v>2431</v>
       </c>
       <c r="X11" s="22" t="n">
-        <v>2579</v>
+        <v>7031</v>
       </c>
       <c r="Y11" s="22" t="n">
-        <v>2579</v>
+        <v>7031</v>
       </c>
       <c r="Z11" s="22" t="n">
-        <v>2604</v>
+        <v>7031</v>
       </c>
       <c r="AA11" s="22" t="n">
-        <v>2604</v>
+        <v>7031</v>
       </c>
       <c r="AB11" s="22" t="n">
-        <v>2604</v>
+        <v>7031</v>
       </c>
       <c r="AC11" s="22" t="n">
-        <v>2604</v>
+        <v>7031</v>
       </c>
       <c r="AD11" s="22" t="n">
-        <v>2604</v>
+        <v>7031</v>
       </c>
       <c r="AE11" s="22" t="n">
-        <v>2604</v>
+        <v>7031</v>
       </c>
       <c r="AF11" s="22" t="n">
-        <v>2604</v>
+        <v>7031</v>
       </c>
       <c r="AG11" s="22" t="n">
-        <v>2604</v>
+        <v>11092.8</v>
       </c>
       <c r="AH11" s="22" t="n">
-        <v>2604</v>
+        <v>11092.8</v>
       </c>
       <c r="AI11" s="22" t="n">
-        <v>2604</v>
+        <v>11092.8</v>
       </c>
       <c r="AJ11" s="22" t="n">
-        <v>2604</v>
+        <v>11092.8</v>
       </c>
       <c r="AK11" s="22" t="n">
-        <v>2604</v>
+        <v>11092.8</v>
       </c>
       <c r="AL11" s="22" t="n">
-        <v>2604</v>
+        <v>11092.8</v>
       </c>
       <c r="AM11" s="22" t="n">
-        <v>2604</v>
+        <v>11092.8</v>
       </c>
       <c r="AN11" s="22" t="n">
         <v/>
@@ -9066,7 +9066,7 @@
         <v/>
       </c>
       <c r="B12" s="14" t="n">
-        <v>5528.63</v>
+        <v>3618.06</v>
       </c>
       <c r="C12" s="14">
         <f>++'Completion Factors'!J26</f>
@@ -9090,7 +9090,7 @@
         <v/>
       </c>
       <c r="I12" s="14" t="n">
-        <v>5357.213333333334</v>
+        <v>5040.595833333334</v>
       </c>
       <c r="J12" s="14">
         <f>100*$G12/$I12</f>
@@ -9116,61 +9116,61 @@
         <v/>
       </c>
       <c r="T12" s="22" t="n">
-        <v>1710.1</v>
+        <v/>
       </c>
       <c r="U12" s="22" t="n">
-        <v>1710.1</v>
+        <v/>
       </c>
       <c r="V12" s="22" t="n">
-        <v>1860.1</v>
+        <v>1110</v>
       </c>
       <c r="W12" s="22" t="n">
-        <v>1860.1</v>
+        <v>1110</v>
       </c>
       <c r="X12" s="22" t="n">
-        <v>4704.63</v>
+        <v>2581.97</v>
       </c>
       <c r="Y12" s="22" t="n">
-        <v>4704.63</v>
+        <v>2581.97</v>
       </c>
       <c r="Z12" s="22" t="n">
-        <v>5528.63</v>
+        <v>2581.97</v>
       </c>
       <c r="AA12" s="22" t="n">
-        <v>5528.63</v>
+        <v>2618.06</v>
       </c>
       <c r="AB12" s="22" t="n">
-        <v>5528.63</v>
+        <v>2618.06</v>
       </c>
       <c r="AC12" s="22" t="n">
-        <v>5528.63</v>
+        <v>2618.06</v>
       </c>
       <c r="AD12" s="22" t="n">
-        <v>5528.63</v>
+        <v>2618.06</v>
       </c>
       <c r="AE12" s="22" t="n">
-        <v>5528.63</v>
+        <v>2618.06</v>
       </c>
       <c r="AF12" s="22" t="n">
-        <v>5528.63</v>
+        <v>3618.06</v>
       </c>
       <c r="AG12" s="22" t="n">
-        <v>5528.63</v>
+        <v>3618.06</v>
       </c>
       <c r="AH12" s="22" t="n">
-        <v>5528.63</v>
+        <v>3618.06</v>
       </c>
       <c r="AI12" s="22" t="n">
-        <v>5528.63</v>
+        <v>3618.06</v>
       </c>
       <c r="AJ12" s="22" t="n">
-        <v>5528.63</v>
+        <v>3618.06</v>
       </c>
       <c r="AK12" s="22" t="n">
-        <v>5528.63</v>
+        <v>3618.06</v>
       </c>
       <c r="AL12" s="22" t="n">
-        <v>5528.63</v>
+        <v>3618.06</v>
       </c>
       <c r="AM12" s="22" t="n">
         <v/>
@@ -9193,7 +9193,7 @@
         <v/>
       </c>
       <c r="B13" s="14" t="n">
-        <v>7050</v>
+        <v>1341.53</v>
       </c>
       <c r="C13" s="14">
         <f>++'Completion Factors'!J25</f>
@@ -9217,7 +9217,7 @@
         <v/>
       </c>
       <c r="I13" s="14" t="n">
-        <v>5336.613333333334</v>
+        <v>5005.4375</v>
       </c>
       <c r="J13" s="14">
         <f>100*$G13/$I13</f>
@@ -9243,58 +9243,58 @@
         <v/>
       </c>
       <c r="T13" s="22" t="n">
-        <v>1246</v>
+        <v/>
       </c>
       <c r="U13" s="22" t="n">
-        <v>2676</v>
+        <v>1022</v>
       </c>
       <c r="V13" s="22" t="n">
-        <v>3875</v>
+        <v>1022</v>
       </c>
       <c r="W13" s="22" t="n">
-        <v>6146</v>
+        <v>1022</v>
       </c>
       <c r="X13" s="22" t="n">
-        <v>6146</v>
+        <v>1291.53</v>
       </c>
       <c r="Y13" s="22" t="n">
-        <v>6146</v>
+        <v>1291.53</v>
       </c>
       <c r="Z13" s="22" t="n">
-        <v>6146</v>
+        <v>1341.53</v>
       </c>
       <c r="AA13" s="22" t="n">
-        <v>6146</v>
+        <v>1341.53</v>
       </c>
       <c r="AB13" s="22" t="n">
-        <v>6146</v>
+        <v>1341.53</v>
       </c>
       <c r="AC13" s="22" t="n">
-        <v>6146</v>
+        <v>1341.53</v>
       </c>
       <c r="AD13" s="22" t="n">
-        <v>6146</v>
+        <v>1341.53</v>
       </c>
       <c r="AE13" s="22" t="n">
-        <v>6146</v>
+        <v>1341.53</v>
       </c>
       <c r="AF13" s="22" t="n">
-        <v>7050</v>
+        <v>1341.53</v>
       </c>
       <c r="AG13" s="22" t="n">
-        <v>7050</v>
+        <v>1341.53</v>
       </c>
       <c r="AH13" s="22" t="n">
-        <v>7050</v>
+        <v>1341.53</v>
       </c>
       <c r="AI13" s="22" t="n">
-        <v>7050</v>
+        <v>1341.53</v>
       </c>
       <c r="AJ13" s="22" t="n">
-        <v>7050</v>
+        <v>1341.53</v>
       </c>
       <c r="AK13" s="22" t="n">
-        <v>7050</v>
+        <v>1341.53</v>
       </c>
       <c r="AL13" s="22" t="n">
         <v/>
@@ -9320,7 +9320,7 @@
         <v/>
       </c>
       <c r="B14" s="14" t="n">
-        <v>6538.45</v>
+        <v>6299.240000000001</v>
       </c>
       <c r="C14" s="14">
         <f>++'Completion Factors'!J24</f>
@@ -9344,7 +9344,7 @@
         <v/>
       </c>
       <c r="I14" s="14" t="n">
-        <v>5299.386666666666</v>
+        <v>4973.020833333333</v>
       </c>
       <c r="J14" s="14">
         <f>100*$G14/$I14</f>
@@ -9370,55 +9370,55 @@
         <v/>
       </c>
       <c r="T14" s="22" t="n">
-        <v>2091</v>
+        <v>3455.1</v>
       </c>
       <c r="U14" s="22" t="n">
-        <v>5191.45</v>
+        <v>4443.1</v>
       </c>
       <c r="V14" s="22" t="n">
-        <v>5555.45</v>
+        <v>4832.1</v>
       </c>
       <c r="W14" s="22" t="n">
-        <v>5555.45</v>
+        <v>6299.240000000001</v>
       </c>
       <c r="X14" s="22" t="n">
-        <v>5555.45</v>
+        <v>6299.240000000001</v>
       </c>
       <c r="Y14" s="22" t="n">
-        <v>5555.45</v>
+        <v>6299.240000000001</v>
       </c>
       <c r="Z14" s="22" t="n">
-        <v>5640.45</v>
+        <v>6299.240000000001</v>
       </c>
       <c r="AA14" s="22" t="n">
-        <v>5640.45</v>
+        <v>6299.240000000001</v>
       </c>
       <c r="AB14" s="22" t="n">
-        <v>5640.45</v>
+        <v>6299.240000000001</v>
       </c>
       <c r="AC14" s="22" t="n">
-        <v>5640.45</v>
+        <v>6299.240000000001</v>
       </c>
       <c r="AD14" s="22" t="n">
-        <v>5861.45</v>
+        <v>6299.240000000001</v>
       </c>
       <c r="AE14" s="22" t="n">
-        <v>6538.45</v>
+        <v>6299.240000000001</v>
       </c>
       <c r="AF14" s="22" t="n">
-        <v>6538.45</v>
+        <v>6299.240000000001</v>
       </c>
       <c r="AG14" s="22" t="n">
-        <v>6538.45</v>
+        <v>6299.240000000001</v>
       </c>
       <c r="AH14" s="22" t="n">
-        <v>6538.45</v>
+        <v>6299.240000000001</v>
       </c>
       <c r="AI14" s="22" t="n">
-        <v>6538.45</v>
+        <v>6299.240000000001</v>
       </c>
       <c r="AJ14" s="22" t="n">
-        <v>6538.45</v>
+        <v>6299.240000000001</v>
       </c>
       <c r="AK14" s="22" t="n">
         <v/>
@@ -9447,7 +9447,7 @@
         <v/>
       </c>
       <c r="B15" s="14" t="n">
-        <v>3039</v>
+        <v>4542</v>
       </c>
       <c r="C15" s="14">
         <f>++'Completion Factors'!J23</f>
@@ -9471,7 +9471,7 @@
         <v/>
       </c>
       <c r="I15" s="14" t="n">
-        <v>5303.145</v>
+        <v>4940.436666666666</v>
       </c>
       <c r="J15" s="14">
         <f>100*$G15/$I15</f>
@@ -9494,55 +9494,55 @@
         <v/>
       </c>
       <c r="S15" s="22" t="n">
-        <v>1379</v>
+        <v>933</v>
       </c>
       <c r="T15" s="22" t="n">
-        <v>1841</v>
+        <v>2531</v>
       </c>
       <c r="U15" s="22" t="n">
-        <v>2863</v>
+        <v>4112</v>
       </c>
       <c r="V15" s="22" t="n">
-        <v>2863</v>
+        <v>4312</v>
       </c>
       <c r="W15" s="22" t="n">
-        <v>2863</v>
+        <v>4542</v>
       </c>
       <c r="X15" s="22" t="n">
-        <v>2863</v>
+        <v>4542</v>
       </c>
       <c r="Y15" s="22" t="n">
-        <v>3039</v>
+        <v>4542</v>
       </c>
       <c r="Z15" s="22" t="n">
-        <v>3039</v>
+        <v>4542</v>
       </c>
       <c r="AA15" s="22" t="n">
-        <v>3039</v>
+        <v>4542</v>
       </c>
       <c r="AB15" s="22" t="n">
-        <v>3039</v>
+        <v>4542</v>
       </c>
       <c r="AC15" s="22" t="n">
-        <v>3039</v>
+        <v>4542</v>
       </c>
       <c r="AD15" s="22" t="n">
-        <v>3039</v>
+        <v>4542</v>
       </c>
       <c r="AE15" s="22" t="n">
-        <v>3039</v>
+        <v>4542</v>
       </c>
       <c r="AF15" s="22" t="n">
-        <v>3039</v>
+        <v>4542</v>
       </c>
       <c r="AG15" s="22" t="n">
-        <v>3039</v>
+        <v>4542</v>
       </c>
       <c r="AH15" s="22" t="n">
-        <v>3039</v>
+        <v>4542</v>
       </c>
       <c r="AI15" s="22" t="n">
-        <v>3039</v>
+        <v>4542</v>
       </c>
       <c r="AJ15" s="22" t="n">
         <v/>
@@ -9574,7 +9574,7 @@
         <v/>
       </c>
       <c r="B16" s="14" t="n">
-        <v>9163</v>
+        <v>3689</v>
       </c>
       <c r="C16" s="14">
         <f>++'Completion Factors'!J22</f>
@@ -9598,7 +9598,7 @@
         <v/>
       </c>
       <c r="I16" s="14" t="n">
-        <v>5264.215833333334</v>
+        <v>4909.183333333333</v>
       </c>
       <c r="J16" s="14">
         <f>100*$G16/$I16</f>
@@ -9621,52 +9621,52 @@
         <v/>
       </c>
       <c r="S16" s="22" t="n">
-        <v>90</v>
+        <v>273</v>
       </c>
       <c r="T16" s="22" t="n">
-        <v>1728</v>
+        <v>2317</v>
       </c>
       <c r="U16" s="22" t="n">
-        <v>5121</v>
+        <v>3507</v>
       </c>
       <c r="V16" s="22" t="n">
-        <v>6351</v>
+        <v>3689</v>
       </c>
       <c r="W16" s="22" t="n">
-        <v>6351</v>
+        <v>3689</v>
       </c>
       <c r="X16" s="22" t="n">
-        <v>8970</v>
+        <v>3689</v>
       </c>
       <c r="Y16" s="22" t="n">
-        <v>8970</v>
+        <v>3689</v>
       </c>
       <c r="Z16" s="22" t="n">
-        <v>8970</v>
+        <v>3689</v>
       </c>
       <c r="AA16" s="22" t="n">
-        <v>8970</v>
+        <v>3689</v>
       </c>
       <c r="AB16" s="22" t="n">
-        <v>8970</v>
+        <v>3689</v>
       </c>
       <c r="AC16" s="22" t="n">
-        <v>8970</v>
+        <v>3689</v>
       </c>
       <c r="AD16" s="22" t="n">
-        <v>8970</v>
+        <v>3689</v>
       </c>
       <c r="AE16" s="22" t="n">
-        <v>9163</v>
+        <v>3689</v>
       </c>
       <c r="AF16" s="22" t="n">
-        <v>9163</v>
+        <v>3689</v>
       </c>
       <c r="AG16" s="22" t="n">
-        <v>9163</v>
+        <v>3689</v>
       </c>
       <c r="AH16" s="22" t="n">
-        <v>9163</v>
+        <v>3689</v>
       </c>
       <c r="AI16" s="22" t="n">
         <v/>
@@ -9701,7 +9701,7 @@
         <v/>
       </c>
       <c r="B17" s="14" t="n">
-        <v>9719.08</v>
+        <v>5914.75</v>
       </c>
       <c r="C17" s="14">
         <f>++'Completion Factors'!J21</f>
@@ -9725,7 +9725,7 @@
         <v/>
       </c>
       <c r="I17" s="14" t="n">
-        <v>5244.595833333334</v>
+        <v>4864.166666666667</v>
       </c>
       <c r="J17" s="14">
         <f>100*$G17/$I17</f>
@@ -9751,46 +9751,46 @@
         <v/>
       </c>
       <c r="T17" s="22" t="n">
-        <v>3175</v>
+        <v>2488</v>
       </c>
       <c r="U17" s="22" t="n">
-        <v>7551.58</v>
+        <v>2488</v>
       </c>
       <c r="V17" s="22" t="n">
-        <v>7551.58</v>
+        <v>4142.75</v>
       </c>
       <c r="W17" s="22" t="n">
-        <v>8312.58</v>
+        <v>4142.75</v>
       </c>
       <c r="X17" s="22" t="n">
-        <v>8312.58</v>
+        <v>4142.75</v>
       </c>
       <c r="Y17" s="22" t="n">
-        <v>8312.58</v>
+        <v>4142.75</v>
       </c>
       <c r="Z17" s="22" t="n">
-        <v>8312.58</v>
+        <v>4142.75</v>
       </c>
       <c r="AA17" s="22" t="n">
-        <v>8312.58</v>
+        <v>4142.75</v>
       </c>
       <c r="AB17" s="22" t="n">
-        <v>8312.58</v>
+        <v>4705.75</v>
       </c>
       <c r="AC17" s="22" t="n">
-        <v>8312.58</v>
+        <v>5914.75</v>
       </c>
       <c r="AD17" s="22" t="n">
-        <v>9719.08</v>
+        <v>5914.75</v>
       </c>
       <c r="AE17" s="22" t="n">
-        <v>9719.08</v>
+        <v>5914.75</v>
       </c>
       <c r="AF17" s="22" t="n">
-        <v>9719.08</v>
+        <v>5914.75</v>
       </c>
       <c r="AG17" s="22" t="n">
-        <v>9719.08</v>
+        <v>5914.75</v>
       </c>
       <c r="AH17" s="22" t="n">
         <v/>
@@ -9828,7 +9828,7 @@
         <v/>
       </c>
       <c r="B18" s="14" t="n">
-        <v>8472.530000000001</v>
+        <v>8120</v>
       </c>
       <c r="C18" s="14">
         <f>++'Completion Factors'!J20</f>
@@ -9852,7 +9852,7 @@
         <v/>
       </c>
       <c r="I18" s="14" t="n">
-        <v>5223.585833333334</v>
+        <v>4828.1075</v>
       </c>
       <c r="J18" s="14">
         <f>100*$G18/$I18</f>
@@ -9875,46 +9875,46 @@
         <v/>
       </c>
       <c r="S18" s="22" t="n">
-        <v>885</v>
+        <v/>
       </c>
       <c r="T18" s="22" t="n">
-        <v>1915</v>
+        <v/>
       </c>
       <c r="U18" s="22" t="n">
-        <v>2901</v>
+        <v>6517</v>
       </c>
       <c r="V18" s="22" t="n">
-        <v>2995</v>
+        <v>7106</v>
       </c>
       <c r="W18" s="22" t="n">
-        <v>7148</v>
+        <v>7106</v>
       </c>
       <c r="X18" s="22" t="n">
-        <v>7148</v>
+        <v>8120</v>
       </c>
       <c r="Y18" s="22" t="n">
-        <v>7148</v>
+        <v>8120</v>
       </c>
       <c r="Z18" s="22" t="n">
-        <v>8243</v>
+        <v>8120</v>
       </c>
       <c r="AA18" s="22" t="n">
-        <v>8243</v>
+        <v>8120</v>
       </c>
       <c r="AB18" s="22" t="n">
-        <v>8243</v>
+        <v>8120</v>
       </c>
       <c r="AC18" s="22" t="n">
-        <v>8243</v>
+        <v>8120</v>
       </c>
       <c r="AD18" s="22" t="n">
-        <v>8243</v>
+        <v>8120</v>
       </c>
       <c r="AE18" s="22" t="n">
-        <v>8243</v>
+        <v>8120</v>
       </c>
       <c r="AF18" s="22" t="n">
-        <v>8472.530000000001</v>
+        <v>8120</v>
       </c>
       <c r="AG18" s="22" t="n">
         <v/>
@@ -9955,7 +9955,7 @@
         <v/>
       </c>
       <c r="B19" s="14" t="n">
-        <v>6057.320000000001</v>
+        <v>8908</v>
       </c>
       <c r="C19" s="14">
         <f>++'Completion Factors'!J19</f>
@@ -9979,7 +9979,7 @@
         <v/>
       </c>
       <c r="I19" s="14" t="n">
-        <v>5155.900000000001</v>
+        <v>4792.87</v>
       </c>
       <c r="J19" s="14">
         <f>100*$G19/$I19</f>
@@ -10008,40 +10008,40 @@
         <v/>
       </c>
       <c r="T19" s="22" t="n">
-        <v>951</v>
+        <v>1454</v>
       </c>
       <c r="U19" s="22" t="n">
-        <v>2211</v>
+        <v>4663</v>
       </c>
       <c r="V19" s="22" t="n">
-        <v>5237.27</v>
+        <v>8673</v>
       </c>
       <c r="W19" s="22" t="n">
-        <v>5237.27</v>
+        <v>8673</v>
       </c>
       <c r="X19" s="22" t="n">
-        <v>5237.27</v>
+        <v>8673</v>
       </c>
       <c r="Y19" s="22" t="n">
-        <v>5237.27</v>
+        <v>8673</v>
       </c>
       <c r="Z19" s="22" t="n">
-        <v>5463.320000000001</v>
+        <v>8673</v>
       </c>
       <c r="AA19" s="22" t="n">
-        <v>5463.320000000001</v>
+        <v>8673</v>
       </c>
       <c r="AB19" s="22" t="n">
-        <v>6057.320000000001</v>
+        <v>8673</v>
       </c>
       <c r="AC19" s="22" t="n">
-        <v>6057.320000000001</v>
+        <v>8673</v>
       </c>
       <c r="AD19" s="22" t="n">
-        <v>6057.320000000001</v>
+        <v>8908</v>
       </c>
       <c r="AE19" s="22" t="n">
-        <v>6057.320000000001</v>
+        <v>8908</v>
       </c>
       <c r="AF19" s="22" t="n">
         <v/>
@@ -10085,7 +10085,7 @@
         <v/>
       </c>
       <c r="B20" s="14" t="n">
-        <v>4576</v>
+        <v>7285.6</v>
       </c>
       <c r="C20" s="14">
         <f>++'Completion Factors'!J18</f>
@@ -10109,7 +10109,7 @@
         <v/>
       </c>
       <c r="I20" s="14" t="n">
-        <v>5079.55</v>
+        <v>4752.311666666667</v>
       </c>
       <c r="J20" s="14">
         <f>100*$G20/$I20</f>
@@ -10144,37 +10144,37 @@
         <v/>
       </c>
       <c r="T20" s="22" t="n">
-        <v>1995</v>
+        <v/>
       </c>
       <c r="U20" s="22" t="n">
-        <v>2370</v>
+        <v>6953</v>
       </c>
       <c r="V20" s="22" t="n">
-        <v>3985</v>
+        <v>7047</v>
       </c>
       <c r="W20" s="22" t="n">
-        <v>3985</v>
+        <v>7047</v>
       </c>
       <c r="X20" s="22" t="n">
-        <v>3985</v>
+        <v>7047</v>
       </c>
       <c r="Y20" s="22" t="n">
-        <v>4576</v>
+        <v>7047</v>
       </c>
       <c r="Z20" s="22" t="n">
-        <v>4576</v>
+        <v>7047</v>
       </c>
       <c r="AA20" s="22" t="n">
-        <v>4576</v>
+        <v>7285.6</v>
       </c>
       <c r="AB20" s="22" t="n">
-        <v>4576</v>
+        <v>7285.6</v>
       </c>
       <c r="AC20" s="22" t="n">
-        <v>4576</v>
+        <v>7285.6</v>
       </c>
       <c r="AD20" s="22" t="n">
-        <v>4576</v>
+        <v>7285.6</v>
       </c>
       <c r="AE20" s="22" t="n">
         <v/>
@@ -10221,7 +10221,7 @@
         <v/>
       </c>
       <c r="B21" s="14" t="n">
-        <v>1633.07</v>
+        <v>7306</v>
       </c>
       <c r="C21" s="14">
         <f>++'Completion Factors'!J17</f>
@@ -10245,7 +10245,7 @@
         <v/>
       </c>
       <c r="I21" s="14" t="n">
-        <v>5040.595833333334</v>
+        <v>4722.149166666667</v>
       </c>
       <c r="J21" s="14">
         <f>100*$G21/$I21</f>
@@ -10280,34 +10280,34 @@
         <v/>
       </c>
       <c r="T21" s="22" t="n">
-        <v>898</v>
+        <v>2530</v>
       </c>
       <c r="U21" s="22" t="n">
-        <v>898</v>
+        <v>2905</v>
       </c>
       <c r="V21" s="22" t="n">
-        <v>898</v>
+        <v>2905</v>
       </c>
       <c r="W21" s="22" t="n">
-        <v>1066.07</v>
+        <v>4324</v>
       </c>
       <c r="X21" s="22" t="n">
-        <v>1066.07</v>
+        <v>6211</v>
       </c>
       <c r="Y21" s="22" t="n">
-        <v>1633.07</v>
+        <v>6211</v>
       </c>
       <c r="Z21" s="22" t="n">
-        <v>1633.07</v>
+        <v>6796</v>
       </c>
       <c r="AA21" s="22" t="n">
-        <v>1633.07</v>
+        <v>7306</v>
       </c>
       <c r="AB21" s="22" t="n">
-        <v>1633.07</v>
+        <v>7306</v>
       </c>
       <c r="AC21" s="22" t="n">
-        <v>1633.07</v>
+        <v>7306</v>
       </c>
       <c r="AD21" s="22" t="n">
         <v/>
@@ -10357,7 +10357,7 @@
         <v/>
       </c>
       <c r="B22" s="14" t="n">
-        <v>7031</v>
+        <v>496</v>
       </c>
       <c r="C22" s="14">
         <f>++'Completion Factors'!J16</f>
@@ -10381,7 +10381,7 @@
         <v/>
       </c>
       <c r="I22" s="14" t="n">
-        <v>5040.595833333334</v>
+        <v>4712.149166666667</v>
       </c>
       <c r="J22" s="14">
         <f>100*$G22/$I22</f>
@@ -10416,31 +10416,31 @@
         <v/>
       </c>
       <c r="T22" s="22" t="n">
-        <v>375</v>
+        <v/>
       </c>
       <c r="U22" s="22" t="n">
-        <v>375</v>
+        <v/>
       </c>
       <c r="V22" s="22" t="n">
-        <v>1340</v>
+        <v>421</v>
       </c>
       <c r="W22" s="22" t="n">
-        <v>2431</v>
+        <v>421</v>
       </c>
       <c r="X22" s="22" t="n">
-        <v>7031</v>
+        <v>421</v>
       </c>
       <c r="Y22" s="22" t="n">
-        <v>7031</v>
+        <v>496</v>
       </c>
       <c r="Z22" s="22" t="n">
-        <v>7031</v>
+        <v>496</v>
       </c>
       <c r="AA22" s="22" t="n">
-        <v>7031</v>
+        <v>496</v>
       </c>
       <c r="AB22" s="22" t="n">
-        <v>7031</v>
+        <v>496</v>
       </c>
       <c r="AC22" s="22" t="n">
         <v/>
@@ -10493,7 +10493,7 @@
         <v/>
       </c>
       <c r="B23" s="14" t="n">
-        <v>2618.06</v>
+        <v>325</v>
       </c>
       <c r="C23" s="14">
         <f>++'Completion Factors'!J15</f>
@@ -10517,7 +10517,7 @@
         <v/>
       </c>
       <c r="I23" s="14" t="n">
-        <v>5040.595833333334</v>
+        <v>4698.078333333334</v>
       </c>
       <c r="J23" s="14">
         <f>100*$G23/$I23</f>
@@ -10558,22 +10558,22 @@
         <v/>
       </c>
       <c r="V23" s="22" t="n">
-        <v>1110</v>
+        <v>160</v>
       </c>
       <c r="W23" s="22" t="n">
-        <v>1110</v>
+        <v>160</v>
       </c>
       <c r="X23" s="22" t="n">
-        <v>2581.97</v>
+        <v>160</v>
       </c>
       <c r="Y23" s="22" t="n">
-        <v>2581.97</v>
+        <v>160</v>
       </c>
       <c r="Z23" s="22" t="n">
-        <v>2581.97</v>
+        <v>160</v>
       </c>
       <c r="AA23" s="22" t="n">
-        <v>2618.06</v>
+        <v>325</v>
       </c>
       <c r="AB23" s="22" t="n">
         <v/>
@@ -10629,7 +10629,7 @@
         <v/>
       </c>
       <c r="B24" s="14" t="n">
-        <v>1341.53</v>
+        <v>4320.889999999999</v>
       </c>
       <c r="C24" s="14">
         <f>++'Completion Factors'!J14</f>
@@ -10655,7 +10655,7 @@
         <v/>
       </c>
       <c r="I24" s="14" t="n">
-        <v>5005.4375</v>
+        <v>4661.936666666667</v>
       </c>
       <c r="J24" s="14">
         <f>100*$G24/$I24</f>
@@ -10693,22 +10693,22 @@
         <v/>
       </c>
       <c r="U24" s="22" t="n">
-        <v>1022</v>
+        <v>408</v>
       </c>
       <c r="V24" s="22" t="n">
-        <v>1022</v>
+        <v>1814</v>
       </c>
       <c r="W24" s="22" t="n">
-        <v>1022</v>
+        <v>1814</v>
       </c>
       <c r="X24" s="22" t="n">
-        <v>1291.53</v>
+        <v>2657.66</v>
       </c>
       <c r="Y24" s="22" t="n">
-        <v>1291.53</v>
+        <v>3105.66</v>
       </c>
       <c r="Z24" s="22" t="n">
-        <v>1341.53</v>
+        <v>4320.889999999999</v>
       </c>
       <c r="AA24" s="22" t="n">
         <v/>
@@ -10767,7 +10767,7 @@
         <v/>
       </c>
       <c r="B25" s="14" t="n">
-        <v>6299.240000000001</v>
+        <v>1128</v>
       </c>
       <c r="C25" s="14">
         <f>++'Completion Factors'!J13</f>
@@ -10793,7 +10793,7 @@
         <v/>
       </c>
       <c r="I25" s="14" t="n">
-        <v>4973.020833333333</v>
+        <v>4626.9575</v>
       </c>
       <c r="J25" s="14">
         <f>100*$G25/$I25</f>
@@ -10828,22 +10828,22 @@
         <v/>
       </c>
       <c r="T25" s="22" t="n">
-        <v>3455.1</v>
+        <v/>
       </c>
       <c r="U25" s="22" t="n">
-        <v>4443.1</v>
+        <v>1128</v>
       </c>
       <c r="V25" s="22" t="n">
-        <v>4832.1</v>
+        <v>1128</v>
       </c>
       <c r="W25" s="22" t="n">
-        <v>6299.240000000001</v>
+        <v>1128</v>
       </c>
       <c r="X25" s="22" t="n">
-        <v>6299.240000000001</v>
+        <v>1128</v>
       </c>
       <c r="Y25" s="22" t="n">
-        <v>6299.240000000001</v>
+        <v>1128</v>
       </c>
       <c r="Z25" s="22" t="n">
         <v/>
@@ -10905,7 +10905,7 @@
         <v/>
       </c>
       <c r="B26" s="14" t="n">
-        <v>4542</v>
+        <v>3246.39</v>
       </c>
       <c r="C26" s="14">
         <f>++'Completion Factors'!J12</f>
@@ -10931,7 +10931,7 @@
         <v/>
       </c>
       <c r="I26" s="14" t="n">
-        <v>4940.436666666666</v>
+        <v>4592.820000000001</v>
       </c>
       <c r="J26" s="14">
         <f>100*$G26/$I26</f>
@@ -10963,22 +10963,22 @@
         <v/>
       </c>
       <c r="S26" s="22" t="n">
-        <v>933</v>
+        <v/>
       </c>
       <c r="T26" s="22" t="n">
-        <v>2531</v>
+        <v/>
       </c>
       <c r="U26" s="22" t="n">
-        <v>4112</v>
+        <v/>
       </c>
       <c r="V26" s="22" t="n">
-        <v>4312</v>
+        <v>2240.36</v>
       </c>
       <c r="W26" s="22" t="n">
-        <v>4542</v>
+        <v>2240.36</v>
       </c>
       <c r="X26" s="22" t="n">
-        <v>4542</v>
+        <v>3246.39</v>
       </c>
       <c r="Y26" s="22" t="n">
         <v/>
@@ -11043,7 +11043,7 @@
         <v/>
       </c>
       <c r="B27" s="14" t="n">
-        <v>3689</v>
+        <v>2602.56</v>
       </c>
       <c r="C27" s="14">
         <f>++'Completion Factors'!J11</f>
@@ -11069,7 +11069,7 @@
         <v/>
       </c>
       <c r="I27" s="14" t="n">
-        <v>4909.183333333333</v>
+        <v>4528.328333333334</v>
       </c>
       <c r="J27" s="14">
         <f>100*$G27/$I27</f>
@@ -11101,19 +11101,19 @@
         <v/>
       </c>
       <c r="S27" s="22" t="n">
-        <v>273</v>
+        <v/>
       </c>
       <c r="T27" s="22" t="n">
-        <v>2317</v>
+        <v/>
       </c>
       <c r="U27" s="22" t="n">
-        <v>3507</v>
+        <v>260.36</v>
       </c>
       <c r="V27" s="22" t="n">
-        <v>3689</v>
+        <v>1915.35</v>
       </c>
       <c r="W27" s="22" t="n">
-        <v>3689</v>
+        <v>2602.56</v>
       </c>
       <c r="X27" s="22" t="n">
         <v/>
@@ -11181,7 +11181,7 @@
         <v/>
       </c>
       <c r="B28" s="14" t="n">
-        <v>4142.75</v>
+        <v>4459.27</v>
       </c>
       <c r="C28" s="14">
         <f>++'Completion Factors'!J10</f>
@@ -11207,7 +11207,7 @@
         <v/>
       </c>
       <c r="I28" s="14" t="n">
-        <v>4864.166666666667</v>
+        <v>4499.67</v>
       </c>
       <c r="J28" s="14">
         <f>100*$G28/$I28</f>
@@ -11242,13 +11242,13 @@
         <v/>
       </c>
       <c r="T28" s="22" t="n">
-        <v>2488</v>
+        <v/>
       </c>
       <c r="U28" s="22" t="n">
-        <v>2488</v>
+        <v>1235</v>
       </c>
       <c r="V28" s="22" t="n">
-        <v>4142.75</v>
+        <v>4459.27</v>
       </c>
       <c r="W28" s="22" t="n">
         <v/>
@@ -11319,7 +11319,7 @@
         <v/>
       </c>
       <c r="B29" s="14" t="n">
-        <v>6517</v>
+        <v/>
       </c>
       <c r="C29" s="14">
         <f>++'Completion Factors'!J9</f>
@@ -11346,7 +11346,7 @@
         <v/>
       </c>
       <c r="I29" s="14" t="n">
-        <v>4828.1075</v>
+        <v>4412.840833333334</v>
       </c>
       <c r="J29" s="20" t="n">
         <v>335</v>
@@ -11383,7 +11383,7 @@
         <v/>
       </c>
       <c r="U29" s="22" t="n">
-        <v>6517</v>
+        <v/>
       </c>
       <c r="V29" s="22" t="n">
         <v/>
@@ -11457,7 +11457,7 @@
         <v/>
       </c>
       <c r="B30" s="14" t="n">
-        <v>1454</v>
+        <v/>
       </c>
       <c r="C30" s="14">
         <f>++'Completion Factors'!J8</f>
@@ -11484,7 +11484,7 @@
         <v/>
       </c>
       <c r="I30" s="14" t="n">
-        <v>4792.87</v>
+        <v>4386.054166666667</v>
       </c>
       <c r="J30" s="20" t="n">
         <v>335</v>
@@ -11518,7 +11518,7 @@
         <v/>
       </c>
       <c r="T30" s="22" t="n">
-        <v>1454</v>
+        <v/>
       </c>
       <c r="U30" s="22" t="n">
         <v/>
@@ -11622,7 +11622,7 @@
         <v/>
       </c>
       <c r="I31" s="14" t="n">
-        <v>4752.311666666667</v>
+        <v>4386.054166666667</v>
       </c>
       <c r="J31" s="20" t="n">
         <v>335</v>

--- a/Process Results/Unified_IBNP_NSL.xlsx
+++ b/Process Results/Unified_IBNP_NSL.xlsx
@@ -3727,20 +3727,20 @@
         <v/>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.0942918308392913</v>
+        <v>0.09862740802000147</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.1825101663539943</v>
+        <v>0.113050729884849</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.2517404541321113</v>
+        <v>0.1287651765301288</v>
       </c>
       <c r="H7" s="4">
         <f>+I7/I8</f>
         <v/>
       </c>
       <c r="I7" s="5" t="n">
-        <v>0.12434316158698</v>
+        <v>0.1053476809052796</v>
       </c>
       <c r="J7" s="5">
         <f>I7</f>
@@ -3765,20 +3765,20 @@
         <v/>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.0942918308392913</v>
+        <v>0.1782480766806828</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1825101663539943</v>
+        <v>0.2043151652655733</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2517404541321113</v>
+        <v>0.2327156874617388</v>
       </c>
       <c r="H8" s="4">
         <f>+I8/I9</f>
         <v/>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.12434316158698</v>
+        <v>0.1903935415227401</v>
       </c>
       <c r="J8" s="5">
         <f>I8</f>
@@ -3803,20 +3803,20 @@
         <v/>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.0942918308392913</v>
+        <v>0.3203952770716071</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1825101663539943</v>
+        <v>0.2911149128951352</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.4782057622670228</v>
+        <v>0.3315809034375719</v>
       </c>
       <c r="H9" s="4">
         <f>+I9/I10</f>
         <v/>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.12434316158698</v>
+        <v>0.3050540929883321</v>
       </c>
       <c r="J9" s="5">
         <f>I9</f>
@@ -3841,20 +3841,20 @@
         <v/>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.4019597894184431</v>
+        <v>0.4841951535549701</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.5609290437483341</v>
+        <v>0.460857037951438</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>0.7056823705133589</v>
+        <v>0.5658979178118957</v>
       </c>
       <c r="H10" s="4">
         <f>+I10/I11</f>
         <v/>
       </c>
       <c r="I10" s="5" t="n">
-        <v>0.4683218094081195</v>
+        <v>0.472237927731999</v>
       </c>
       <c r="J10" s="5">
         <f>I10</f>
@@ -3879,20 +3879,20 @@
         <v/>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4542394919165454</v>
+        <v>0.545923618952834</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.611129669654807</v>
+        <v>0.5470774150960893</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.7417217169768191</v>
+        <v>0.6683906336294939</v>
       </c>
       <c r="H11" s="4">
         <f>+I11/I12</f>
         <v/>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.521132468729777</v>
+        <v>0.5464999080380569</v>
       </c>
       <c r="J11" s="5">
         <f>I11</f>
@@ -3917,20 +3917,20 @@
         <v/>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.6163668327039694</v>
+        <v>0.5474069063203393</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.8375122043618484</v>
+        <v>0.5752638858512109</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.8195295069555704</v>
+        <v>0.7322520045723535</v>
       </c>
       <c r="H12" s="4">
         <f>+I12/I13</f>
         <v/>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.7101206243337047</v>
+        <v>0.5609897866186034</v>
       </c>
       <c r="J12" s="5">
         <f>I12</f>
@@ -3955,20 +3955,20 @@
         <v/>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.686350648098955</v>
+        <v>0.5474069063203393</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.8623648189871089</v>
+        <v>0.6497534919527654</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.8276027539800043</v>
+        <v>0.7853574104377868</v>
       </c>
       <c r="H13" s="4">
         <f>+I13/I14</f>
         <v/>
       </c>
       <c r="I13" s="5" t="n">
-        <v>0.764355577236123</v>
+        <v>0.5942053369185382</v>
       </c>
       <c r="J13" s="5">
         <f>I13</f>
@@ -3993,20 +3993,20 @@
         <v/>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.9080809209277838</v>
+        <v>0.5474069063203393</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.9227888863310572</v>
+        <v>0.6875292062748409</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.8560768287361818</v>
+        <v>0.8134150498091358</v>
       </c>
       <c r="H14" s="4">
         <f>+I14/I15</f>
         <v/>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.9153758267236115</v>
+        <v>0.609518552374153</v>
       </c>
       <c r="J14" s="5">
         <f>I14</f>
@@ -4031,20 +4031,20 @@
         <v/>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9903346275335614</v>
+        <v>0.5716939545301805</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.9497305943251787</v>
+        <v>0.715186490509674</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.8711636794436793</v>
+        <v>0.8365252606063317</v>
       </c>
       <c r="H15" s="4">
         <f>+I15/I16</f>
         <v/>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.9696077057524172</v>
+        <v>0.635440214453448</v>
       </c>
       <c r="J15" s="5">
         <f>I15</f>
@@ -4069,20 +4069,20 @@
         <v/>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.9903346275335614</v>
+        <v>0.74944423398824</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.9645736981621365</v>
+        <v>0.8675447591822691</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.8791329976070995</v>
+        <v>0.8972957630993383</v>
       </c>
       <c r="H16" s="4">
         <f>+I16/I17</f>
         <v/>
       </c>
       <c r="I16" s="5" t="n">
-        <v>0.977284429701451</v>
+        <v>0.8041816242929832</v>
       </c>
       <c r="J16" s="5">
         <f>I16</f>
@@ -4107,20 +4107,20 @@
         <v/>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.9903346275335614</v>
+        <v>0.74944423398824</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.9938896523212171</v>
+        <v>0.8675447591822691</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.8959388225493984</v>
+        <v>0.9150809292918035</v>
       </c>
       <c r="H17" s="4">
         <f>+I17/I18</f>
         <v/>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.9921089552568435</v>
+        <v>0.8041816242929832</v>
       </c>
       <c r="J17" s="5">
         <f>I17</f>
@@ -4145,20 +4145,20 @@
         <v/>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1</v>
+        <v>0.8259449462219076</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1</v>
+        <v>0.9014397147373685</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.8993499459639805</v>
+        <v>0.9327353258319749</v>
       </c>
       <c r="H18" s="4">
         <f>+I18/I19</f>
         <v/>
       </c>
       <c r="I18" s="5" t="n">
-        <v>1</v>
+        <v>0.8620425936833075</v>
       </c>
       <c r="J18" s="5">
         <f>I18</f>
@@ -4183,20 +4183,20 @@
         <v/>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1</v>
+        <v>0.9398856525003829</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>1</v>
+        <v>0.9346383559257626</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>0.8993499459639805</v>
+        <v>0.9495412701508625</v>
       </c>
       <c r="H19" s="4">
         <f>+I19/I20</f>
         <v/>
       </c>
       <c r="I19" s="5" t="n">
-        <v>1</v>
+        <v>0.9372546599162758</v>
       </c>
       <c r="J19" s="5">
         <f>I19</f>
@@ -4221,20 +4221,20 @@
         <v/>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1</v>
+        <v>0.9398856525003829</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1</v>
+        <v>0.9346383559257626</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.9167045534010189</v>
+        <v>0.9495412701508625</v>
       </c>
       <c r="H20" s="4">
         <f>+I20/I21</f>
         <v/>
       </c>
       <c r="I20" s="5" t="n">
-        <v>1</v>
+        <v>0.9372546599162758</v>
       </c>
       <c r="J20" s="5">
         <f>I20</f>
@@ -4259,20 +4259,20 @@
         <v/>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1</v>
+        <v>0.9398856525003829</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>1</v>
+        <v>0.9632422909287531</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>1</v>
+        <v>0.9700988360590376</v>
       </c>
       <c r="H21" s="4">
         <f>+I21/I22</f>
         <v/>
       </c>
       <c r="I21" s="5" t="n">
-        <v>1</v>
+        <v>0.9514206464692641</v>
       </c>
       <c r="J21" s="5">
         <f>I21</f>
@@ -4297,20 +4297,20 @@
         <v/>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1</v>
+        <v>0.9728237872478267</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1</v>
+        <v>0.9820738638619442</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>1</v>
+        <v>0.9848577851309547</v>
       </c>
       <c r="H22" s="4">
         <f>+I22/I23</f>
         <v/>
       </c>
       <c r="I22" s="5" t="n">
-        <v>1</v>
+        <v>0.9774269410543546</v>
       </c>
       <c r="J22" s="5">
         <f>I22</f>
@@ -4836,28 +4836,28 @@
         <v/>
       </c>
       <c r="C38" s="4" t="n">
-        <v>2.324921135646687</v>
+        <v/>
       </c>
       <c r="D38" s="4" t="n">
-        <v>2.368733604703754</v>
+        <v>1</v>
       </c>
       <c r="E38" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F38" s="4" t="n">
-        <v>1</v>
+        <v>1.263727984344423</v>
       </c>
       <c r="G38" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H38" s="4" t="n">
-        <v>1.043161799945391</v>
+        <v>1.038713773586367</v>
       </c>
       <c r="I38" s="4" t="n">
         <v>1</v>
       </c>
       <c r="J38" s="4" t="n">
-        <v>1.108725097559726</v>
+        <v>1</v>
       </c>
       <c r="K38" s="4" t="n">
         <v>1</v>
@@ -4911,19 +4911,19 @@
         <v/>
       </c>
       <c r="C39" s="4" t="n">
-        <v>1.18796992481203</v>
+        <v>1.285954096842349</v>
       </c>
       <c r="D39" s="4" t="n">
-        <v>1.681434599156118</v>
+        <v>1.087551484324008</v>
       </c>
       <c r="E39" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.3036236832847</v>
       </c>
       <c r="F39" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="G39" s="4" t="n">
-        <v>1.148306148055207</v>
+        <v>1</v>
       </c>
       <c r="H39" s="4" t="n">
         <v>1</v>
@@ -4983,22 +4983,22 @@
         <v/>
       </c>
       <c r="B40" s="4" t="n">
-        <v/>
+        <v>2.712754555198285</v>
       </c>
       <c r="C40" s="4" t="n">
-        <v>1</v>
+        <v>1.624654286843145</v>
       </c>
       <c r="D40" s="4" t="n">
-        <v>1</v>
+        <v>1.04863813229572</v>
       </c>
       <c r="E40" s="4" t="n">
-        <v>1.187160356347439</v>
+        <v>1.053339517625232</v>
       </c>
       <c r="F40" s="4" t="n">
         <v>1</v>
       </c>
       <c r="G40" s="4" t="n">
-        <v>1.531860009192642</v>
+        <v>1</v>
       </c>
       <c r="H40" s="4" t="n">
         <v>1</v>
@@ -5058,64 +5058,64 @@
         <v/>
       </c>
       <c r="B41" s="4" t="n">
-        <v/>
+        <v>8.487179487179487</v>
       </c>
       <c r="C41" s="4" t="n">
-        <v>1</v>
+        <v>1.513595166163142</v>
       </c>
       <c r="D41" s="4" t="n">
-        <v>3.573333333333333</v>
+        <v>1.05189620758483</v>
       </c>
       <c r="E41" s="4" t="n">
-        <v>1.814179104477612</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F41" s="4" t="n">
-        <v>2.892225421637186</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G41" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="H41" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="I41" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="J41" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K41" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="L41" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="M41" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="N41" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O41" s="4" t="n">
-        <v>1.577698762622671</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="P41" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Q41" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="R41" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="S41" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="T41" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="U41" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="V41" s="4" t="n">
         <v/>
@@ -5136,16 +5136,16 @@
         <v/>
       </c>
       <c r="C42" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="D42" s="4" t="n">
-        <v/>
+        <v>1.665092443729904</v>
       </c>
       <c r="E42" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F42" s="4" t="n">
-        <v>2.326099099099099</v>
+        <v>1</v>
       </c>
       <c r="G42" s="4" t="n">
         <v>1</v>
@@ -5154,13 +5154,13 @@
         <v>1</v>
       </c>
       <c r="I42" s="4" t="n">
-        <v>1.013977699198674</v>
+        <v>1</v>
       </c>
       <c r="J42" s="4" t="n">
-        <v>1</v>
+        <v>1.135900066381027</v>
       </c>
       <c r="K42" s="4" t="n">
-        <v>1</v>
+        <v>1.25691972586729</v>
       </c>
       <c r="L42" s="4" t="n">
         <v>1</v>
@@ -5169,7 +5169,7 @@
         <v>1</v>
       </c>
       <c r="N42" s="4" t="n">
-        <v>1.381962216297564</v>
+        <v>1</v>
       </c>
       <c r="O42" s="4" t="n">
         <v>1</v>
@@ -5214,46 +5214,46 @@
         <v/>
       </c>
       <c r="D43" s="4" t="n">
-        <v>1</v>
+        <v>1.090379008746356</v>
       </c>
       <c r="E43" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F43" s="4" t="n">
-        <v>1.263727984344423</v>
+        <v>1.142696312974951</v>
       </c>
       <c r="G43" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="H43" s="4" t="n">
-        <v>1.038713773586367</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="I43" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="J43" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K43" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="L43" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="M43" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="N43" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O43" s="4" t="n">
-        <v>1</v>
+        <v>1.144636699507389</v>
       </c>
       <c r="P43" s="4" t="n">
         <v>1</v>
       </c>
       <c r="Q43" s="4" t="n">
-        <v>1</v>
+        <v>1.080155361532958</v>
       </c>
       <c r="R43" s="4" t="n">
         <v>1</v>
@@ -5286,13 +5286,13 @@
         <v/>
       </c>
       <c r="C44" s="4" t="n">
-        <v>1.285954096842349</v>
+        <v>3.207015130674003</v>
       </c>
       <c r="D44" s="4" t="n">
-        <v>1.087551484324008</v>
+        <v>1.859961398241476</v>
       </c>
       <c r="E44" s="4" t="n">
-        <v>1.3036236832847</v>
+        <v>1</v>
       </c>
       <c r="F44" s="4" t="n">
         <v>1</v>
@@ -5313,7 +5313,7 @@
         <v>1</v>
       </c>
       <c r="L44" s="4" t="n">
-        <v>1</v>
+        <v>1.02709558399631</v>
       </c>
       <c r="M44" s="4" t="n">
         <v>1</v>
@@ -5325,7 +5325,7 @@
         <v>1</v>
       </c>
       <c r="P44" s="4" t="n">
-        <v>1</v>
+        <v>1.093806690615177</v>
       </c>
       <c r="Q44" s="4" t="n">
         <v>1</v>
@@ -5358,16 +5358,16 @@
         <v/>
       </c>
       <c r="B45" s="4" t="n">
-        <v>2.712754555198285</v>
+        <v/>
       </c>
       <c r="C45" s="4" t="n">
-        <v>1.624654286843145</v>
+        <v/>
       </c>
       <c r="D45" s="4" t="n">
-        <v>1.04863813229572</v>
+        <v>1.013519344167985</v>
       </c>
       <c r="E45" s="4" t="n">
-        <v>1.053339517625232</v>
+        <v>1</v>
       </c>
       <c r="F45" s="4" t="n">
         <v>1</v>
@@ -5379,7 +5379,7 @@
         <v>1</v>
       </c>
       <c r="I45" s="4" t="n">
-        <v>1</v>
+        <v>1.033858379452249</v>
       </c>
       <c r="J45" s="4" t="n">
         <v>1</v>
@@ -5391,19 +5391,19 @@
         <v>1</v>
       </c>
       <c r="M45" s="4" t="n">
-        <v>1</v>
+        <v>1.047353683979357</v>
       </c>
       <c r="N45" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O45" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="P45" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Q45" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="R45" s="4" t="n">
         <v/>
@@ -5433,28 +5433,28 @@
         <v/>
       </c>
       <c r="B46" s="4" t="n">
-        <v>8.487179487179487</v>
+        <v/>
       </c>
       <c r="C46" s="4" t="n">
-        <v>1.513595166163142</v>
+        <v>1.148221343873518</v>
       </c>
       <c r="D46" s="4" t="n">
-        <v>1.05189620758483</v>
+        <v>1</v>
       </c>
       <c r="E46" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.488468158347676</v>
       </c>
       <c r="F46" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.436401480111008</v>
       </c>
       <c r="G46" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="H46" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.094187731444212</v>
       </c>
       <c r="I46" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.07504414361389</v>
       </c>
       <c r="J46" s="4" t="n">
         <v>0.9999999999999999</v>
@@ -5511,10 +5511,10 @@
         <v/>
       </c>
       <c r="C47" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="D47" s="4" t="n">
-        <v>1.665092443729904</v>
+        <v/>
       </c>
       <c r="E47" s="4" t="n">
         <v>1</v>
@@ -5523,7 +5523,7 @@
         <v>1</v>
       </c>
       <c r="G47" s="4" t="n">
-        <v>1</v>
+        <v>1.178147268408551</v>
       </c>
       <c r="H47" s="4" t="n">
         <v>1</v>
@@ -5532,10 +5532,10 @@
         <v>1</v>
       </c>
       <c r="J47" s="4" t="n">
-        <v>1.135900066381027</v>
+        <v>1</v>
       </c>
       <c r="K47" s="4" t="n">
-        <v>1.25691972586729</v>
+        <v>1</v>
       </c>
       <c r="L47" s="4" t="n">
         <v>1</v>
@@ -5589,37 +5589,37 @@
         <v/>
       </c>
       <c r="D48" s="4" t="n">
-        <v>1.090379008746356</v>
+        <v/>
       </c>
       <c r="E48" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F48" s="4" t="n">
-        <v>1.142696312974951</v>
+        <v>1</v>
       </c>
       <c r="G48" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="H48" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="I48" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>2.03125</v>
       </c>
       <c r="J48" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.014861538461538</v>
       </c>
       <c r="K48" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="L48" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="M48" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="N48" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="O48" t="n">
         <v/>
@@ -5661,22 +5661,22 @@
         <v/>
       </c>
       <c r="C49" s="4" t="n">
-        <v>3.207015130674003</v>
+        <v/>
       </c>
       <c r="D49" s="4" t="n">
-        <v>1.859961398241476</v>
+        <v>4.446078431372549</v>
       </c>
       <c r="E49" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F49" s="4" t="n">
-        <v>1</v>
+        <v>1.465082690187431</v>
       </c>
       <c r="G49" s="4" t="n">
-        <v>1</v>
+        <v>1.168569342955833</v>
       </c>
       <c r="H49" s="4" t="n">
-        <v>1</v>
+        <v>1.391295248031014</v>
       </c>
       <c r="I49" s="4" t="n">
         <v>1</v>
@@ -5688,10 +5688,10 @@
         <v>1</v>
       </c>
       <c r="L49" s="4" t="n">
-        <v>1.02709558399631</v>
+        <v>1</v>
       </c>
       <c r="M49" s="4" t="n">
-        <v>1</v>
+        <v>1.16431799930107</v>
       </c>
       <c r="N49" t="n">
         <v/>
@@ -5739,7 +5739,7 @@
         <v/>
       </c>
       <c r="D50" s="4" t="n">
-        <v>1.013519344167985</v>
+        <v>1</v>
       </c>
       <c r="E50" s="4" t="n">
         <v>1</v>
@@ -5751,19 +5751,19 @@
         <v>1</v>
       </c>
       <c r="H50" s="4" t="n">
-        <v>1</v>
+        <v>1.100177304964539</v>
       </c>
       <c r="I50" s="4" t="n">
-        <v>1.033858379452249</v>
+        <v>1</v>
       </c>
       <c r="J50" s="4" t="n">
-        <v>1</v>
+        <v>3.79129734085415</v>
       </c>
       <c r="K50" s="4" t="n">
         <v>1</v>
       </c>
       <c r="L50" s="4" t="n">
-        <v>1</v>
+        <v>1.20297555791711</v>
       </c>
       <c r="M50" t="n">
         <v/>
@@ -5811,31 +5811,31 @@
         <v/>
       </c>
       <c r="C51" s="4" t="n">
-        <v>1.148221343873518</v>
+        <v/>
       </c>
       <c r="D51" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E51" s="4" t="n">
-        <v>1.488468158347676</v>
+        <v>1</v>
       </c>
       <c r="F51" s="4" t="n">
-        <v>1.436401480111008</v>
+        <v>1.449048367226696</v>
       </c>
       <c r="G51" s="4" t="n">
-        <v>1</v>
+        <v>1.911939107747375</v>
       </c>
       <c r="H51" s="4" t="n">
-        <v>1.094187731444212</v>
+        <v>1</v>
       </c>
       <c r="I51" s="4" t="n">
-        <v>1.07504414361389</v>
+        <v>1.099308833717314</v>
       </c>
       <c r="J51" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="K51" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="L51" t="n">
         <v/>
@@ -5889,25 +5889,25 @@
         <v/>
       </c>
       <c r="D52" s="4" t="n">
-        <v/>
+        <v>7.356544784145029</v>
       </c>
       <c r="E52" s="4" t="n">
-        <v>1</v>
+        <v>1.358790821520871</v>
       </c>
       <c r="F52" s="4" t="n">
-        <v>1</v>
+        <v>1.182251321775483</v>
       </c>
       <c r="G52" s="4" t="n">
-        <v>1.178147268408551</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="H52" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="I52" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="J52" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K52" t="n">
         <v/>
@@ -5964,10 +5964,10 @@
         <v/>
       </c>
       <c r="D53" s="4" t="n">
-        <v/>
+        <v>3.610744939271255</v>
       </c>
       <c r="E53" s="4" t="n">
-        <v>1</v>
+        <v>1.448104734631453</v>
       </c>
       <c r="F53" s="4" t="n">
         <v>1</v>
@@ -5979,7 +5979,7 @@
         <v>1</v>
       </c>
       <c r="I53" s="4" t="n">
-        <v>2.03125</v>
+        <v>1.012698432363039</v>
       </c>
       <c r="J53" t="n">
         <v/>
@@ -6039,19 +6039,19 @@
         <v/>
       </c>
       <c r="D54" s="4" t="n">
-        <v>4.446078431372549</v>
+        <v/>
       </c>
       <c r="E54" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F54" s="4" t="n">
-        <v>1.465082690187431</v>
+        <v>1</v>
       </c>
       <c r="G54" s="4" t="n">
-        <v>1.168569342955833</v>
+        <v>1</v>
       </c>
       <c r="H54" s="4" t="n">
-        <v>1.391295248031014</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v/>
@@ -6114,13 +6114,13 @@
         <v/>
       </c>
       <c r="D55" s="4" t="n">
-        <v>1</v>
+        <v>1.106444038612053</v>
       </c>
       <c r="E55" s="4" t="n">
-        <v>1</v>
+        <v>1.4226526762556</v>
       </c>
       <c r="F55" s="4" t="n">
-        <v>1</v>
+        <v>1.008287105098724</v>
       </c>
       <c r="G55" s="4" t="n">
         <v>1</v>
@@ -6186,16 +6186,16 @@
         <v/>
       </c>
       <c r="C56" s="4" t="n">
-        <v/>
+        <v>1.179823455233291</v>
       </c>
       <c r="D56" s="4" t="n">
-        <v/>
+        <v>2.030354852501069</v>
       </c>
       <c r="E56" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F56" s="4" t="n">
-        <v>1.449048367226696</v>
+        <v>1</v>
       </c>
       <c r="G56" t="n">
         <v/>
@@ -6264,10 +6264,10 @@
         <v/>
       </c>
       <c r="D57" s="4" t="n">
-        <v>7.356544784145029</v>
+        <v>1</v>
       </c>
       <c r="E57" s="4" t="n">
-        <v>1.358790821520871</v>
+        <v>1.109660278745645</v>
       </c>
       <c r="F57" t="n">
         <v/>
@@ -6336,10 +6336,10 @@
         <v/>
       </c>
       <c r="C58" s="4" t="n">
-        <v/>
+        <v>6.544</v>
       </c>
       <c r="D58" s="4" t="n">
-        <v>3.610744939271255</v>
+        <v>1</v>
       </c>
       <c r="E58" t="n">
         <v/>
@@ -6408,10 +6408,10 @@
         <v/>
       </c>
       <c r="B59" s="4" t="n">
-        <v/>
+        <v>1.807287449392712</v>
       </c>
       <c r="C59" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="D59" t="n">
         <v/>
@@ -6704,61 +6704,61 @@
         <v>1</v>
       </c>
       <c r="B2" s="34" t="n">
-        <v>0.07713279302464308</v>
+        <v>0.1132047060188934</v>
       </c>
       <c r="C2" s="34" t="n">
-        <v>0.2517404541321113</v>
+        <v>0.1287651765301288</v>
       </c>
       <c r="D2" s="34" t="n">
-        <v>0.1825101663539943</v>
+        <v>0.113050729884849</v>
       </c>
       <c r="E2" s="34" t="n">
-        <v>0.0942918308392913</v>
+        <v>0.09862740802000147</v>
       </c>
       <c r="F2" s="34" t="n">
-        <v>0.029728084572925</v>
+        <v>0.0308440341466188</v>
       </c>
       <c r="G2" s="34" t="n">
-        <v>0.1117030197039991</v>
+        <v>0.03108336300719786</v>
       </c>
       <c r="H2" s="34" t="n">
-        <v>0.1287754513227624</v>
+        <v>0.03270472081402305</v>
       </c>
       <c r="I2" s="34" t="n">
-        <v>0.07570679818388085</v>
+        <v>0.0387306357109533</v>
       </c>
       <c r="J2" s="34" t="n">
-        <v>0.12434316158698</v>
+        <v>0.1053476809052796</v>
       </c>
       <c r="M2" s="33" t="n">
         <v>1</v>
       </c>
       <c r="N2" s="22" t="n">
-        <v>4.019900497512438</v>
+        <v>2.900450634985662</v>
       </c>
       <c r="O2" s="22" t="n">
-        <v/>
+        <v>1.807287449392712</v>
       </c>
       <c r="P2" s="22" t="n">
-        <v/>
+        <v>1.807287449392712</v>
       </c>
       <c r="Q2" s="22" t="n">
-        <v/>
+        <v>1.807287449392712</v>
       </c>
       <c r="R2" s="22" t="n">
-        <v>5.599967021188887</v>
+        <v>4.335740497256828</v>
       </c>
       <c r="S2" s="22" t="n">
-        <v/>
+        <v>1.807287449392712</v>
       </c>
       <c r="T2" s="22" t="n">
-        <v/>
+        <v>1.807287449392712</v>
       </c>
       <c r="U2" s="22" t="n">
-        <v/>
+        <v>1.807287449392712</v>
       </c>
       <c r="V2" s="22" t="n">
-        <v/>
+        <v>1.807287449392712</v>
       </c>
     </row>
     <row r="3">
@@ -6767,62 +6767,62 @@
         <v/>
       </c>
       <c r="B3" s="34" t="n">
-        <v>0.3100661530542866</v>
+        <v>0.3283446614558645</v>
       </c>
       <c r="C3" s="34" t="n">
-        <v>0.2517404541321113</v>
+        <v>0.2327156874617388</v>
       </c>
       <c r="D3" s="34" t="n">
-        <v>0.1825101663539943</v>
+        <v>0.2043151652655733</v>
       </c>
       <c r="E3" s="34" t="n">
-        <v>0.0942918308392913</v>
+        <v>0.1782480766806828</v>
       </c>
       <c r="F3" s="34" t="n">
-        <v>0.1664762932114941</v>
+        <v>0.1337317279482676</v>
       </c>
       <c r="G3" s="34" t="n">
-        <v>0.1117030197039991</v>
+        <v>0.05617657184782642</v>
       </c>
       <c r="H3" s="34" t="n">
-        <v>0.1287754513227624</v>
+        <v>0.05910683146307647</v>
       </c>
       <c r="I3" s="34" t="n">
-        <v>0.07570679818388085</v>
+        <v>0.06999739182740709</v>
       </c>
       <c r="J3" s="34" t="n">
-        <v>0.12434316158698</v>
+        <v>0.1903935415227401</v>
       </c>
       <c r="M3">
         <f>+M2+1</f>
         <v/>
       </c>
       <c r="N3" s="22" t="n">
-        <v>1.472673093223685</v>
+        <v>1.474771748855817</v>
       </c>
       <c r="O3" s="22" t="n">
-        <v>1.899598393574297</v>
+        <v>1.424832623250152</v>
       </c>
       <c r="P3" s="22" t="n">
-        <v/>
+        <v>1.424832623250152</v>
       </c>
       <c r="Q3" s="22" t="n">
-        <v/>
+        <v>1.79746835443038</v>
       </c>
       <c r="R3" s="22" t="n">
-        <v>1.529233108485487</v>
+        <v>2.055918164403272</v>
       </c>
       <c r="S3" s="22" t="n">
-        <v>2.17761823727376</v>
+        <v>2.90794115174443</v>
       </c>
       <c r="T3" s="22" t="n">
-        <v/>
+        <v>2.90794115174443</v>
       </c>
       <c r="U3" s="22" t="n">
-        <v/>
+        <v>3.772</v>
       </c>
       <c r="V3" s="22" t="n">
-        <v/>
+        <v>1.611150488840266</v>
       </c>
     </row>
     <row r="4">
@@ -6831,62 +6831,62 @@
         <v/>
       </c>
       <c r="B4" s="34" t="n">
-        <v>0.456626080722425</v>
+        <v>0.4842334306027363</v>
       </c>
       <c r="C4" s="34" t="n">
-        <v>0.4782057622670228</v>
+        <v>0.3315809034375719</v>
       </c>
       <c r="D4" s="34" t="n">
-        <v>0.1825101663539943</v>
+        <v>0.2911149128951352</v>
       </c>
       <c r="E4" s="34" t="n">
-        <v>0.0942918308392913</v>
+        <v>0.3203952770716071</v>
       </c>
       <c r="F4" s="34" t="n">
-        <v>0.2545810593569546</v>
+        <v>0.27494148864588</v>
       </c>
       <c r="G4" s="34" t="n">
-        <v>0.2432465328659786</v>
+        <v>0.1633581650402221</v>
       </c>
       <c r="H4" s="34" t="n">
-        <v>0.1287754513227624</v>
+        <v>0.1718791875607025</v>
       </c>
       <c r="I4" s="34" t="n">
-        <v>0.07570679818388085</v>
+        <v>0.2640301619729795</v>
       </c>
       <c r="J4" s="34" t="n">
-        <v>0.12434316158698</v>
+        <v>0.3050540929883321</v>
       </c>
       <c r="M4">
         <f>+M3+1</f>
         <v/>
       </c>
       <c r="N4" s="22" t="n">
-        <v>1.417850044817659</v>
+        <v>1.352195531171897</v>
       </c>
       <c r="O4" s="22" t="n">
-        <v>1.475687718960017</v>
+        <v>1.70666619200656</v>
       </c>
       <c r="P4" s="22" t="n">
-        <v>3.073412593687322</v>
+        <v>1.583076020971302</v>
       </c>
       <c r="Q4" s="22" t="n">
-        <v>4.26293334046651</v>
+        <v>1.511243105642766</v>
       </c>
       <c r="R4" s="22" t="n">
-        <v>2.10905339476896</v>
+        <v>1.90395323911719</v>
       </c>
       <c r="S4" s="22" t="n">
-        <v>2.560257816630506</v>
+        <v>2.693770880737745</v>
       </c>
       <c r="T4" s="22" t="n">
-        <v>4.103342038697209</v>
+        <v>1.749508766076875</v>
       </c>
       <c r="U4" s="22" t="n">
-        <v>5.483644861708142</v>
+        <v>1.343451617500356</v>
       </c>
       <c r="V4" s="22" t="n">
-        <v>3.668172967076916</v>
+        <v>1.547159563307034</v>
       </c>
     </row>
     <row r="5">
@@ -6895,62 +6895,62 @@
         <v/>
       </c>
       <c r="B5" s="34" t="n">
-        <v>0.6474273090172022</v>
+        <v>0.6547782809050565</v>
       </c>
       <c r="C5" s="34" t="n">
-        <v>0.7056823705133589</v>
+        <v>0.5658979178118957</v>
       </c>
       <c r="D5" s="34" t="n">
-        <v>0.5609290437483341</v>
+        <v>0.460857037951438</v>
       </c>
       <c r="E5" s="34" t="n">
-        <v>0.4019597894184431</v>
+        <v>0.4841951535549701</v>
       </c>
       <c r="F5" s="34" t="n">
-        <v>0.5369250474806632</v>
+        <v>0.5234757378750254</v>
       </c>
       <c r="G5" s="34" t="n">
-        <v>0.6227738371383911</v>
+        <v>0.440049468116101</v>
       </c>
       <c r="H5" s="34" t="n">
-        <v>0.5284097229648972</v>
+        <v>0.3007041453436205</v>
       </c>
       <c r="I5" s="34" t="n">
-        <v>0.4151491948574136</v>
+        <v>0.3547117481714804</v>
       </c>
       <c r="J5" s="34" t="n">
-        <v>0.4683218094081195</v>
+        <v>0.472237927731999</v>
       </c>
       <c r="M5">
         <f>+M4+1</f>
         <v/>
       </c>
       <c r="N5" s="22" t="n">
-        <v>1.079127722837739</v>
+        <v>1.104928727472605</v>
       </c>
       <c r="O5" s="22" t="n">
-        <v>1.051070209444573</v>
+        <v>1.181115202215087</v>
       </c>
       <c r="P5" s="22" t="n">
-        <v>1.089495501197467</v>
+        <v>1.187087035771246</v>
       </c>
       <c r="Q5" s="22" t="n">
-        <v>1.13006202081492</v>
+        <v>1.12748674773932</v>
       </c>
       <c r="R5" s="22" t="n">
-        <v>1.110278082080177</v>
+        <v>1.109231993520559</v>
       </c>
       <c r="S5" s="22" t="n">
-        <v>1.070604914989046</v>
+        <v>1.152306389125104</v>
       </c>
       <c r="T5" s="22" t="n">
-        <v>1.059798470253478</v>
+        <v>1.223201418525595</v>
       </c>
       <c r="U5" s="22" t="n">
-        <v>1.119596940506957</v>
+        <v>1.177437651667082</v>
       </c>
       <c r="V5" s="22" t="n">
-        <v>1.109778761006193</v>
+        <v>1.157286891755283</v>
       </c>
     </row>
     <row r="6">
@@ -6959,62 +6959,62 @@
         <v/>
       </c>
       <c r="B6" s="34" t="n">
-        <v>0.6986567576826987</v>
+        <v>0.7234833326971242</v>
       </c>
       <c r="C6" s="34" t="n">
-        <v>0.7417217169768191</v>
+        <v>0.6683906336294939</v>
       </c>
       <c r="D6" s="34" t="n">
-        <v>0.611129669654807</v>
+        <v>0.5470774150960893</v>
       </c>
       <c r="E6" s="34" t="n">
-        <v>0.4542394919165454</v>
+        <v>0.545923618952834</v>
       </c>
       <c r="F6" s="34" t="n">
-        <v>0.5961361119376384</v>
+        <v>0.58065603628276</v>
       </c>
       <c r="G6" s="34" t="n">
-        <v>0.6667447309669489</v>
+        <v>0.5070718136412867</v>
       </c>
       <c r="H6" s="34" t="n">
-        <v>0.5600078160652624</v>
+        <v>0.3678217371408432</v>
       </c>
       <c r="I6" s="34" t="n">
-        <v>0.4647997684162868</v>
+        <v>0.4176509677857532</v>
       </c>
       <c r="J6" s="34" t="n">
-        <v>0.521132468729777</v>
+        <v>0.5464999080380569</v>
       </c>
       <c r="M6">
         <f>+M5+1</f>
         <v/>
       </c>
       <c r="N6" s="22" t="n">
-        <v>1.166956286409115</v>
+        <v>1.069245389928849</v>
       </c>
       <c r="O6" s="22" t="n">
-        <v>1.104901593411459</v>
+        <v>1.095544981826091</v>
       </c>
       <c r="P6" s="22" t="n">
-        <v>1.370432898201313</v>
+        <v>1.051521905268509</v>
       </c>
       <c r="Q6" s="22" t="n">
-        <v>1.356920399200364</v>
+        <v>1.002717023620173</v>
       </c>
       <c r="R6" s="22" t="n">
-        <v>1.261856913451621</v>
+        <v>1.102499750616774</v>
       </c>
       <c r="S6" s="22" t="n">
-        <v>1.124435737541674</v>
+        <v>1.128422580366612</v>
       </c>
       <c r="T6" s="22" t="n">
-        <v>1.225088756254189</v>
+        <v>1.106597799016817</v>
       </c>
       <c r="U6" s="22" t="n">
-        <v>1.304710352471376</v>
+        <v>1.002762368366241</v>
       </c>
       <c r="V6" s="22" t="n">
-        <v>1.363676648700839</v>
+        <v>1.027119464444341</v>
       </c>
     </row>
     <row r="7">
@@ -7023,62 +7023,62 @@
         <v/>
       </c>
       <c r="B7" s="34" t="n">
-        <v>0.8153018954200352</v>
+        <v>0.7735812181767601</v>
       </c>
       <c r="C7" s="34" t="n">
-        <v>0.8195295069555704</v>
+        <v>0.7322520045723535</v>
       </c>
       <c r="D7" s="34" t="n">
-        <v>0.8375122043618484</v>
+        <v>0.5752638858512109</v>
       </c>
       <c r="E7" s="34" t="n">
-        <v>0.6163668327039694</v>
+        <v>0.5474069063203393</v>
       </c>
       <c r="F7" s="34" t="n">
-        <v>0.7522384742066782</v>
+        <v>0.6401731351958675</v>
       </c>
       <c r="G7" s="34" t="n">
-        <v>0.7497116033168461</v>
+        <v>0.5721912843802786</v>
       </c>
       <c r="H7" s="34" t="n">
-        <v>0.686059278876017</v>
+        <v>0.4070307247505994</v>
       </c>
       <c r="I7" s="34" t="n">
-        <v>0.6064290696790273</v>
+        <v>0.4188046736072946</v>
       </c>
       <c r="J7" s="34" t="n">
-        <v>0.7101206243337047</v>
+        <v>0.5609897866186034</v>
       </c>
       <c r="M7">
         <f>+M6+1</f>
         <v/>
       </c>
       <c r="N7" s="22" t="n">
-        <v>1.022629523734009</v>
+        <v>1.045764945032958</v>
       </c>
       <c r="O7" s="22" t="n">
-        <v>1.009851075471858</v>
+        <v>1.072523401143091</v>
       </c>
       <c r="P7" s="22" t="n">
-        <v>1.029674331306249</v>
+        <v>1.129487715001148</v>
       </c>
       <c r="Q7" s="22" t="n">
-        <v>1.113542474516304</v>
+        <v>1</v>
       </c>
       <c r="R7" s="22" t="n">
-        <v>1.05704904270068</v>
+        <v>1.069925317728431</v>
       </c>
       <c r="S7" s="22" t="n">
-        <v>1.028893050947032</v>
+        <v>1.104887976592647</v>
       </c>
       <c r="T7" s="22" t="n">
-        <v>1.057786101894064</v>
+        <v>1.151989851291229</v>
       </c>
       <c r="U7" s="22" t="n">
-        <v>1.056189780985278</v>
+        <v>1</v>
       </c>
       <c r="V7" s="22" t="n">
-        <v>1.071608402911277</v>
+        <v>1.064743857500574</v>
       </c>
     </row>
     <row r="8">
@@ -7087,62 +7087,62 @@
         <v/>
       </c>
       <c r="B8" s="34" t="n">
-        <v>0.833751789012825</v>
+        <v>0.8089841201051481</v>
       </c>
       <c r="C8" s="34" t="n">
-        <v>0.8276027539800043</v>
+        <v>0.7853574104377868</v>
       </c>
       <c r="D8" s="34" t="n">
-        <v>0.8623648189871089</v>
+        <v>0.6497534919527654</v>
       </c>
       <c r="E8" s="34" t="n">
-        <v>0.686350648098955</v>
+        <v>0.5474069063203393</v>
       </c>
       <c r="F8" s="34" t="n">
-        <v>0.7951529590427892</v>
+        <v>0.6849374450756445</v>
       </c>
       <c r="G8" s="34" t="n">
-        <v>0.7713730588670609</v>
+        <v>0.6322072704228736</v>
       </c>
       <c r="H8" s="34" t="n">
-        <v>0.7257039702705147</v>
+        <v>0.4688952640764043</v>
       </c>
       <c r="I8" s="34" t="n">
-        <v>0.6405041862873977</v>
+        <v>0.4188046736072946</v>
       </c>
       <c r="J8" s="34" t="n">
-        <v>0.764355577236123</v>
+        <v>0.5942053369185382</v>
       </c>
       <c r="M8">
         <f>+M7+1</f>
         <v/>
       </c>
       <c r="N8" s="22" t="n">
-        <v>1.027744219430922</v>
+        <v>1.026704264986268</v>
       </c>
       <c r="O8" s="22" t="n">
-        <v>1.034405485746928</v>
+        <v>1.035725949737596</v>
       </c>
       <c r="P8" s="22" t="n">
-        <v>1.070067871524397</v>
+        <v>1.058138532212493</v>
       </c>
       <c r="Q8" s="22" t="n">
-        <v>1.323056841926171</v>
+        <v>1</v>
       </c>
       <c r="R8" s="22" t="n">
-        <v>1.033374032529823</v>
+        <v>1.036727885766243</v>
       </c>
       <c r="S8" s="22" t="n">
-        <v>1.043683062755133</v>
+        <v>1.048805023703314</v>
       </c>
       <c r="T8" s="22" t="n">
-        <v>1.080913829912538</v>
+        <v>1.081912092165926</v>
       </c>
       <c r="U8" s="22" t="n">
-        <v>1.130431749343671</v>
+        <v>1</v>
       </c>
       <c r="V8" s="22" t="n">
-        <v>1.196562356725284</v>
+        <v>1.029069266106246</v>
       </c>
     </row>
     <row r="9">
@@ -7151,62 +7151,62 @@
         <v/>
       </c>
       <c r="B9" s="34" t="n">
-        <v>0.8568835815981207</v>
+        <v>0.8305874464181187</v>
       </c>
       <c r="C9" s="34" t="n">
-        <v>0.8560768287361818</v>
+        <v>0.8134150498091358</v>
       </c>
       <c r="D9" s="34" t="n">
-        <v>0.9227888863310572</v>
+        <v>0.6875292062748409</v>
       </c>
       <c r="E9" s="34" t="n">
-        <v>0.9080809209277838</v>
+        <v>0.5474069063203393</v>
       </c>
       <c r="F9" s="34" t="n">
-        <v>0.821690419764068</v>
+        <v>0.710093749315405</v>
       </c>
       <c r="G9" s="34" t="n">
-        <v>0.8050689966051693</v>
+        <v>0.6630621612412693</v>
       </c>
       <c r="H9" s="34" t="n">
-        <v>0.7844234578878365</v>
+        <v>0.5073034561635966</v>
       </c>
       <c r="I9" s="34" t="n">
-        <v>0.7240462677668077</v>
+        <v>0.4188046736072946</v>
       </c>
       <c r="J9" s="34" t="n">
-        <v>0.9153758267236115</v>
+        <v>0.609518552374153</v>
       </c>
       <c r="M9">
         <f>+M8+1</f>
         <v/>
       </c>
       <c r="N9" s="22" t="n">
-        <v>1.013082592708716</v>
+        <v>1.022200896629761</v>
       </c>
       <c r="O9" s="22" t="n">
-        <v>1.017623243850403</v>
+        <v>1.028411339085278</v>
       </c>
       <c r="P9" s="22" t="n">
-        <v>1.029195960628915</v>
+        <v>1.040227068148399</v>
       </c>
       <c r="Q9" s="22" t="n">
-        <v>1.090579710144927</v>
+        <v>1.044367449386231</v>
       </c>
       <c r="R9" s="22" t="n">
-        <v>1.072133138891551</v>
+        <v>1.078259986821656</v>
       </c>
       <c r="S9" s="22" t="n">
-        <v>1.096177518522068</v>
+        <v>1.104346649095541</v>
       </c>
       <c r="T9" s="22" t="n">
-        <v>1.190025420511023</v>
+        <v>1.190542877680059</v>
       </c>
       <c r="U9" s="22" t="n">
-        <v>1.368764714537964</v>
+        <v>1.037335755360118</v>
       </c>
       <c r="V9" s="22" t="n">
-        <v>1.059887835386921</v>
+        <v>1.042297258767315</v>
       </c>
     </row>
     <row r="10">
@@ -7215,62 +7215,62 @@
         <v/>
       </c>
       <c r="B10" s="34" t="n">
-        <v>0.8680938404949547</v>
+        <v>0.8490272324580241</v>
       </c>
       <c r="C10" s="34" t="n">
-        <v>0.8711636794436793</v>
+        <v>0.8365252606063317</v>
       </c>
       <c r="D10" s="34" t="n">
-        <v>0.9497305943251787</v>
+        <v>0.715186490509674</v>
       </c>
       <c r="E10" s="34" t="n">
-        <v>0.9903346275335614</v>
+        <v>0.5716939545301805</v>
       </c>
       <c r="F10" s="34" t="n">
-        <v>0.8809615289387661</v>
+        <v>0.7656656767789689</v>
       </c>
       <c r="G10" s="34" t="n">
-        <v>0.8824985349377054</v>
+        <v>0.7322504759088431</v>
       </c>
       <c r="H10" s="34" t="n">
-        <v>0.9334838553316837</v>
+        <v>0.6039665165580479</v>
       </c>
       <c r="I10" s="34" t="n">
-        <v>0.9910489830121124</v>
+        <v>0.4344410624447707</v>
       </c>
       <c r="J10" s="34" t="n">
-        <v>0.9696077057524172</v>
+        <v>0.635440214453448</v>
       </c>
       <c r="M10">
         <f>+M9+1</f>
         <v/>
       </c>
       <c r="N10" s="22" t="n">
-        <v>1.015802433793334</v>
+        <v>1.059570028688493</v>
       </c>
       <c r="O10" s="22" t="n">
-        <v>1.009147899931399</v>
+        <v>1.072646344772612</v>
       </c>
       <c r="P10" s="22" t="n">
-        <v>1.015628751906749</v>
+        <v>1.213032923152698</v>
       </c>
       <c r="Q10" s="22" t="n">
-        <v>1</v>
+        <v>1.310918592106042</v>
       </c>
       <c r="R10" s="22" t="n">
-        <v>1.016308344262717</v>
+        <v>1.196137263046448</v>
       </c>
       <c r="S10" s="22" t="n">
-        <v>1.011325005531752</v>
+        <v>1.24517157880806</v>
       </c>
       <c r="T10" s="22" t="n">
-        <v>1.022650011063504</v>
+        <v>1.467693146552615</v>
       </c>
       <c r="U10" s="22" t="n">
-        <v>1</v>
+        <v>1.930432446951383</v>
       </c>
       <c r="V10" s="22" t="n">
-        <v>1.007814375953375</v>
+        <v>1.26197575762937</v>
       </c>
     </row>
     <row r="11">
@@ -7279,44 +7279,44 @@
         <v/>
       </c>
       <c r="B11" s="34" t="n">
-        <v>0.8818118359357775</v>
+        <v>0.8996038090528601</v>
       </c>
       <c r="C11" s="34" t="n">
-        <v>0.8791329976070995</v>
+        <v>0.8972957630993383</v>
       </c>
       <c r="D11" s="34" t="n">
-        <v>0.9645736981621365</v>
+        <v>0.8675447591822691</v>
       </c>
       <c r="E11" s="34" t="n">
-        <v>0.9903346275335614</v>
+        <v>0.74944423398824</v>
       </c>
       <c r="F11" s="34" t="n">
-        <v>0.8953285528349088</v>
+        <v>0.915841247031002</v>
       </c>
       <c r="G11" s="34" t="n">
-        <v>0.8924928357276382</v>
+        <v>0.9117774811703672</v>
       </c>
       <c r="H11" s="34" t="n">
-        <v>0.9546272749825491</v>
+        <v>0.8864375170995034</v>
       </c>
       <c r="I11" s="34" t="n">
-        <v>0.9910489830121124</v>
+        <v>0.8386591232314173</v>
       </c>
       <c r="J11" s="34" t="n">
-        <v>0.977284429701451</v>
+        <v>0.8041816242929832</v>
       </c>
       <c r="M11">
         <f>+M10+1</f>
         <v/>
       </c>
       <c r="N11" s="22" t="n">
-        <v>1.016364912922826</v>
+        <v>1.017614370295732</v>
       </c>
       <c r="O11" s="22" t="n">
-        <v>1.019116362357052</v>
+        <v>1.019820851634286</v>
       </c>
       <c r="P11" s="22" t="n">
-        <v>1.03039265347473</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="22" t="n">
         <v>1</v>
@@ -7328,13 +7328,13 @@
         <v>1.021409977155608</v>
       </c>
       <c r="T11" s="22" t="n">
-        <v>1.042819954311215</v>
+        <v>1</v>
       </c>
       <c r="U11" s="22" t="n">
         <v>1</v>
       </c>
       <c r="V11" s="22" t="n">
-        <v>1.015196326737365</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -7343,62 +7343,62 @@
         <v/>
       </c>
       <c r="B12" s="34" t="n">
-        <v>0.8962426098451841</v>
+        <v>0.9154497636649682</v>
       </c>
       <c r="C12" s="34" t="n">
-        <v>0.8959388225493984</v>
+        <v>0.9150809292918035</v>
       </c>
       <c r="D12" s="34" t="n">
-        <v>0.9938896523212171</v>
+        <v>0.8675447591822691</v>
       </c>
       <c r="E12" s="34" t="n">
-        <v>0.9903346275335614</v>
+        <v>0.74944423398824</v>
       </c>
       <c r="F12" s="34" t="n">
-        <v>0.9117590932888733</v>
+        <v>0.9326482243256565</v>
       </c>
       <c r="G12" s="34" t="n">
-        <v>0.9116010869521103</v>
+        <v>0.931298616213222</v>
       </c>
       <c r="H12" s="34" t="n">
-        <v>0.9955043712815412</v>
+        <v>0.8864375170995034</v>
       </c>
       <c r="I12" s="34" t="n">
-        <v>0.9910489830121124</v>
+        <v>0.8386591232314173</v>
       </c>
       <c r="J12" s="34" t="n">
-        <v>0.9921089552568435</v>
+        <v>0.8041816242929832</v>
       </c>
       <c r="M12">
         <f>+M11+1</f>
         <v/>
       </c>
       <c r="N12" s="22" t="n">
-        <v>1.003467070282826</v>
+        <v>1.018882043398869</v>
       </c>
       <c r="O12" s="22" t="n">
-        <v>1.0038073173399</v>
+        <v>1.01929271605937</v>
       </c>
       <c r="P12" s="22" t="n">
-        <v>1.006147913568184</v>
+        <v>1.039069979037218</v>
       </c>
       <c r="Q12" s="22" t="n">
-        <v>1.009759703637255</v>
+        <v>1.102076590577743</v>
       </c>
       <c r="R12" s="22" t="n">
-        <v>1.002084275692024</v>
+        <v>1.017697780147186</v>
       </c>
       <c r="S12" s="22" t="n">
-        <v>1.002257965333026</v>
+        <v>1.019172595159452</v>
       </c>
       <c r="T12" s="22" t="n">
-        <v>1.004515930666052</v>
+        <v>1.033829259652852</v>
       </c>
       <c r="U12" s="22" t="n">
-        <v>1.009031861332103</v>
+        <v>1.067658519305703</v>
       </c>
       <c r="V12" s="22" t="n">
-        <v>1.007953808602719</v>
+        <v>1.07057328480748</v>
       </c>
     </row>
     <row r="13">
@@ -7407,62 +7407,62 @@
         <v/>
       </c>
       <c r="B13" s="34" t="n">
-        <v>0.8993499459639805</v>
+        <v>0.9327353258319749</v>
       </c>
       <c r="C13" s="34" t="n">
-        <v>0.8993499459639805</v>
+        <v>0.9327353258319749</v>
       </c>
       <c r="D13" s="34" t="n">
-        <v>1</v>
+        <v>0.9014397147373685</v>
       </c>
       <c r="E13" s="34" t="n">
-        <v>1</v>
+        <v>0.8259449462219076</v>
       </c>
       <c r="F13" s="34" t="n">
-        <v>0.913659450603997</v>
+        <v>0.9491540275544356</v>
       </c>
       <c r="G13" s="34" t="n">
-        <v>0.913659450603997</v>
+        <v>0.9491540275544356</v>
       </c>
       <c r="H13" s="34" t="n">
-        <v>1</v>
+        <v>0.9164250420314914</v>
       </c>
       <c r="I13" s="34" t="n">
-        <v>1</v>
+        <v>0.8954015577114742</v>
       </c>
       <c r="J13" s="34" t="n">
-        <v>1</v>
+        <v>0.8620425936833075</v>
       </c>
       <c r="M13">
         <f>+M12+1</f>
         <v/>
       </c>
       <c r="N13" s="22" t="n">
-        <v>1</v>
+        <v>1.018017913392416</v>
       </c>
       <c r="O13" s="22" t="n">
-        <v>1</v>
+        <v>1.018017913392416</v>
       </c>
       <c r="P13" s="22" t="n">
-        <v>1</v>
+        <v>1.036828465226947</v>
       </c>
       <c r="Q13" s="22" t="n">
-        <v>1</v>
+        <v>1.137951938321883</v>
       </c>
       <c r="R13" s="22" t="n">
-        <v>1</v>
+        <v>1.017639306940035</v>
       </c>
       <c r="S13" s="22" t="n">
-        <v>1</v>
+        <v>1.017639306940035</v>
       </c>
       <c r="T13" s="22" t="n">
-        <v>1</v>
+        <v>1.035278613880071</v>
       </c>
       <c r="U13" s="22" t="n">
-        <v>1</v>
+        <v>1.05477266643369</v>
       </c>
       <c r="V13" s="22" t="n">
-        <v>1</v>
+        <v>1.087390201774415</v>
       </c>
     </row>
     <row r="14">
@@ -7471,41 +7471,41 @@
         <v/>
       </c>
       <c r="B14" s="34" t="n">
-        <v>0.8993499459639805</v>
+        <v>0.9495412701508625</v>
       </c>
       <c r="C14" s="34" t="n">
-        <v>0.8993499459639805</v>
+        <v>0.9495412701508625</v>
       </c>
       <c r="D14" s="34" t="n">
-        <v>1</v>
+        <v>0.9346383559257626</v>
       </c>
       <c r="E14" s="34" t="n">
-        <v>1</v>
+        <v>0.9398856525003829</v>
       </c>
       <c r="F14" s="34" t="n">
-        <v>0.913659450603997</v>
+        <v>0.965896446779839</v>
       </c>
       <c r="G14" s="34" t="n">
-        <v>0.913659450603997</v>
+        <v>0.965896446779839</v>
       </c>
       <c r="H14" s="34" t="n">
-        <v>1</v>
+        <v>0.9487552472393485</v>
       </c>
       <c r="I14" s="34" t="n">
-        <v>1</v>
+        <v>0.9444450885562112</v>
       </c>
       <c r="J14" s="34" t="n">
-        <v>1</v>
+        <v>0.9372546599162758</v>
       </c>
       <c r="M14">
         <f>+M13+1</f>
         <v/>
       </c>
       <c r="N14" s="22" t="n">
-        <v>1.01929683491384</v>
+        <v>1</v>
       </c>
       <c r="O14" s="22" t="n">
-        <v>1.01929683491384</v>
+        <v>1</v>
       </c>
       <c r="P14" s="22" t="n">
         <v>1</v>
@@ -7514,10 +7514,10 @@
         <v>1</v>
       </c>
       <c r="R14" s="22" t="n">
-        <v>1.034723837845233</v>
+        <v>1</v>
       </c>
       <c r="S14" s="22" t="n">
-        <v>1.034723837845233</v>
+        <v>1</v>
       </c>
       <c r="T14" s="22" t="n">
         <v>1</v>
@@ -7535,62 +7535,62 @@
         <v/>
       </c>
       <c r="B15" s="34" t="n">
-        <v>0.9167045534010189</v>
+        <v>0.9495412701508625</v>
       </c>
       <c r="C15" s="34" t="n">
-        <v>0.9167045534010189</v>
+        <v>0.9495412701508625</v>
       </c>
       <c r="D15" s="34" t="n">
-        <v>1</v>
+        <v>0.9346383559257626</v>
       </c>
       <c r="E15" s="34" t="n">
-        <v>1</v>
+        <v>0.9398856525003829</v>
       </c>
       <c r="F15" s="34" t="n">
-        <v>0.9453852132125348</v>
+        <v>0.965896446779839</v>
       </c>
       <c r="G15" s="34" t="n">
-        <v>0.9453852132125348</v>
+        <v>0.965896446779839</v>
       </c>
       <c r="H15" s="34" t="n">
-        <v>1</v>
+        <v>0.9487552472393485</v>
       </c>
       <c r="I15" s="34" t="n">
-        <v>1</v>
+        <v>0.9444450885562112</v>
       </c>
       <c r="J15" s="34" t="n">
-        <v>1</v>
+        <v>0.9372546599162758</v>
       </c>
       <c r="M15">
         <f>+M14+1</f>
         <v/>
       </c>
       <c r="N15" s="22" t="n">
-        <v>1.090864004427545</v>
+        <v>1.021649997271745</v>
       </c>
       <c r="O15" s="22" t="n">
-        <v>1.090864004427545</v>
+        <v>1.021649997271745</v>
       </c>
       <c r="P15" s="22" t="n">
-        <v>1</v>
+        <v>1.030604281133592</v>
       </c>
       <c r="Q15" s="22" t="n">
         <v>1</v>
       </c>
       <c r="R15" s="22" t="n">
-        <v>1.057769876262267</v>
+        <v>1.014463669950739</v>
       </c>
       <c r="S15" s="22" t="n">
-        <v>1.057769876262267</v>
+        <v>1.014463669950739</v>
       </c>
       <c r="T15" s="22" t="n">
-        <v>1</v>
+        <v>1.024106116584565</v>
       </c>
       <c r="U15" s="22" t="n">
         <v>1</v>
       </c>
       <c r="V15" s="22" t="n">
-        <v>1</v>
+        <v>1.015302140566796</v>
       </c>
     </row>
     <row r="16">
@@ -7599,62 +7599,62 @@
         <v/>
       </c>
       <c r="B16" s="34" t="n">
-        <v>1</v>
+        <v>0.9700988360590376</v>
       </c>
       <c r="C16" s="34" t="n">
-        <v>1</v>
+        <v>0.9700988360590376</v>
       </c>
       <c r="D16" s="34" t="n">
-        <v>1</v>
+        <v>0.9632422909287531</v>
       </c>
       <c r="E16" s="34" t="n">
-        <v>1</v>
+        <v>0.9398856525003829</v>
       </c>
       <c r="F16" s="34" t="n">
-        <v>1</v>
+        <v>0.9798668541926542</v>
       </c>
       <c r="G16" s="34" t="n">
-        <v>1</v>
+        <v>0.9798668541926542</v>
       </c>
       <c r="H16" s="34" t="n">
-        <v>1</v>
+        <v>0.9716260518395178</v>
       </c>
       <c r="I16" s="34" t="n">
-        <v>1</v>
+        <v>0.9444450885562112</v>
       </c>
       <c r="J16" s="34" t="n">
-        <v>1</v>
+        <v>0.9514206464692641</v>
       </c>
       <c r="M16">
         <f>+M15+1</f>
         <v/>
       </c>
       <c r="N16" s="22" t="n">
-        <v>1</v>
+        <v>1.015213861230753</v>
       </c>
       <c r="O16" s="22" t="n">
-        <v>1</v>
+        <v>1.015213861230753</v>
       </c>
       <c r="P16" s="22" t="n">
-        <v>1</v>
+        <v>1.019550193248921</v>
       </c>
       <c r="Q16" s="22" t="n">
-        <v>1</v>
+        <v>1.035044831953566</v>
       </c>
       <c r="R16" s="22" t="n">
-        <v>1</v>
+        <v>1.010422965623909</v>
       </c>
       <c r="S16" s="22" t="n">
-        <v>1</v>
+        <v>1.010422965623909</v>
       </c>
       <c r="T16" s="22" t="n">
-        <v>1</v>
+        <v>1.015634448435863</v>
       </c>
       <c r="U16" s="22" t="n">
-        <v>1</v>
+        <v>1.031268896871726</v>
       </c>
       <c r="V16" s="22" t="n">
-        <v>1</v>
+        <v>1.027297512601244</v>
       </c>
     </row>
     <row r="17">
@@ -7663,62 +7663,62 @@
         <v/>
       </c>
       <c r="B17" s="34" t="n">
-        <v>1</v>
+        <v>0.9848577851309547</v>
       </c>
       <c r="C17" s="34" t="n">
-        <v>1</v>
+        <v>0.9848577851309547</v>
       </c>
       <c r="D17" s="34" t="n">
-        <v>1</v>
+        <v>0.9820738638619442</v>
       </c>
       <c r="E17" s="34" t="n">
-        <v>1</v>
+        <v>0.9728237872478267</v>
       </c>
       <c r="F17" s="34" t="n">
-        <v>1</v>
+        <v>0.9900799727299117</v>
       </c>
       <c r="G17" s="34" t="n">
-        <v>1</v>
+        <v>0.9900799727299117</v>
       </c>
       <c r="H17" s="34" t="n">
-        <v>1</v>
+        <v>0.9868168892459438</v>
       </c>
       <c r="I17" s="34" t="n">
-        <v>1</v>
+        <v>0.9739768446312833</v>
       </c>
       <c r="J17" s="34" t="n">
-        <v>1</v>
+        <v>0.9774269410543546</v>
       </c>
       <c r="M17">
         <f>+M16+1</f>
         <v/>
       </c>
       <c r="N17" s="22" t="n">
-        <v>1</v>
+        <v>1.015375026828906</v>
       </c>
       <c r="O17" s="22" t="n">
-        <v>1</v>
+        <v>1.015375026828906</v>
       </c>
       <c r="P17" s="22" t="n">
-        <v>1</v>
+        <v>1.018253348141821</v>
       </c>
       <c r="Q17" s="22" t="n">
-        <v>1</v>
+        <v>1.027935390877989</v>
       </c>
       <c r="R17" s="22" t="n">
-        <v>1</v>
+        <v>1.01001942019162</v>
       </c>
       <c r="S17" s="22" t="n">
-        <v>1</v>
+        <v>1.01001942019162</v>
       </c>
       <c r="T17" s="22" t="n">
-        <v>1</v>
+        <v>1.01335922692216</v>
       </c>
       <c r="U17" s="22" t="n">
-        <v>1</v>
+        <v>1.026718453844319</v>
       </c>
       <c r="V17" s="22" t="n">
-        <v>1</v>
+        <v>1.023094369509905</v>
       </c>
     </row>
     <row r="18">
@@ -8234,7 +8234,7 @@
         </is>
       </c>
       <c r="H4" s="8" t="n">
-        <v>45657</v>
+        <v>45808</v>
       </c>
       <c r="J4" s="40" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v/>
       </c>
       <c r="B8" s="14" t="n">
-        <v>6057.320000000001</v>
+        <v>1341.53</v>
       </c>
       <c r="C8" s="14">
         <f>+'Completion Factors'!J30</f>
@@ -8582,7 +8582,7 @@
         <v/>
       </c>
       <c r="I8" s="14" t="n">
-        <v>5155.900000000001</v>
+        <v>5005.4375</v>
       </c>
       <c r="J8" s="14">
         <f>100*$G8/$I8</f>
@@ -8608,73 +8608,73 @@
         <v/>
       </c>
       <c r="T8" s="22" t="n">
-        <v>951</v>
+        <v/>
       </c>
       <c r="U8" s="22" t="n">
-        <v>2211</v>
+        <v>1022</v>
       </c>
       <c r="V8" s="22" t="n">
-        <v>5237.27</v>
+        <v>1022</v>
       </c>
       <c r="W8" s="22" t="n">
-        <v>5237.27</v>
+        <v>1022</v>
       </c>
       <c r="X8" s="22" t="n">
-        <v>5237.27</v>
+        <v>1291.53</v>
       </c>
       <c r="Y8" s="22" t="n">
-        <v>5237.27</v>
+        <v>1291.53</v>
       </c>
       <c r="Z8" s="22" t="n">
-        <v>5463.320000000001</v>
+        <v>1341.53</v>
       </c>
       <c r="AA8" s="22" t="n">
-        <v>5463.320000000001</v>
+        <v>1341.53</v>
       </c>
       <c r="AB8" s="22" t="n">
-        <v>6057.320000000001</v>
+        <v>1341.53</v>
       </c>
       <c r="AC8" s="22" t="n">
-        <v>6057.320000000001</v>
+        <v>1341.53</v>
       </c>
       <c r="AD8" s="22" t="n">
-        <v>6057.320000000001</v>
+        <v>1341.53</v>
       </c>
       <c r="AE8" s="22" t="n">
-        <v>6057.320000000001</v>
+        <v>1341.53</v>
       </c>
       <c r="AF8" s="22" t="n">
-        <v>6057.320000000001</v>
+        <v>1341.53</v>
       </c>
       <c r="AG8" s="22" t="n">
-        <v>6057.320000000001</v>
+        <v>1341.53</v>
       </c>
       <c r="AH8" s="22" t="n">
-        <v>6057.320000000001</v>
+        <v>1341.53</v>
       </c>
       <c r="AI8" s="22" t="n">
-        <v>6057.320000000001</v>
+        <v>1341.53</v>
       </c>
       <c r="AJ8" s="22" t="n">
-        <v>6057.320000000001</v>
+        <v>1341.53</v>
       </c>
       <c r="AK8" s="22" t="n">
-        <v>6057.320000000001</v>
+        <v>1341.53</v>
       </c>
       <c r="AL8" s="22" t="n">
-        <v>6057.320000000001</v>
+        <v>1341.53</v>
       </c>
       <c r="AM8" s="22" t="n">
-        <v>6057.320000000001</v>
+        <v>1341.53</v>
       </c>
       <c r="AN8" s="22" t="n">
-        <v>6057.320000000001</v>
+        <v>1341.53</v>
       </c>
       <c r="AO8" s="22" t="n">
-        <v>6057.320000000001</v>
+        <v>1341.53</v>
       </c>
       <c r="AP8" s="22" t="n">
-        <v>6057.320000000001</v>
+        <v>1341.53</v>
       </c>
       <c r="AQ8" s="14" t="n"/>
       <c r="AR8" s="14" t="n"/>
@@ -8685,7 +8685,7 @@
         <v/>
       </c>
       <c r="B9" s="14" t="n">
-        <v>4576</v>
+        <v>6299.240000000001</v>
       </c>
       <c r="C9" s="14">
         <f>+'Completion Factors'!J29</f>
@@ -8709,7 +8709,7 @@
         <v/>
       </c>
       <c r="I9" s="14" t="n">
-        <v>5079.55</v>
+        <v>4973.020833333333</v>
       </c>
       <c r="J9" s="14">
         <f>100*$G9/$I9</f>
@@ -8735,70 +8735,70 @@
         <v/>
       </c>
       <c r="T9" s="22" t="n">
-        <v>1995</v>
+        <v>3455.1</v>
       </c>
       <c r="U9" s="22" t="n">
-        <v>2370</v>
+        <v>4443.1</v>
       </c>
       <c r="V9" s="22" t="n">
-        <v>3985</v>
+        <v>4832.1</v>
       </c>
       <c r="W9" s="22" t="n">
-        <v>3985</v>
+        <v>6299.240000000001</v>
       </c>
       <c r="X9" s="22" t="n">
-        <v>3985</v>
+        <v>6299.240000000001</v>
       </c>
       <c r="Y9" s="22" t="n">
-        <v>4576</v>
+        <v>6299.240000000001</v>
       </c>
       <c r="Z9" s="22" t="n">
-        <v>4576</v>
+        <v>6299.240000000001</v>
       </c>
       <c r="AA9" s="22" t="n">
-        <v>4576</v>
+        <v>6299.240000000001</v>
       </c>
       <c r="AB9" s="22" t="n">
-        <v>4576</v>
+        <v>6299.240000000001</v>
       </c>
       <c r="AC9" s="22" t="n">
-        <v>4576</v>
+        <v>6299.240000000001</v>
       </c>
       <c r="AD9" s="22" t="n">
-        <v>4576</v>
+        <v>6299.240000000001</v>
       </c>
       <c r="AE9" s="22" t="n">
-        <v>4576</v>
+        <v>6299.240000000001</v>
       </c>
       <c r="AF9" s="22" t="n">
-        <v>4576</v>
+        <v>6299.240000000001</v>
       </c>
       <c r="AG9" s="22" t="n">
-        <v>4576</v>
+        <v>6299.240000000001</v>
       </c>
       <c r="AH9" s="22" t="n">
-        <v>4576</v>
+        <v>6299.240000000001</v>
       </c>
       <c r="AI9" s="22" t="n">
-        <v>4576</v>
+        <v>6299.240000000001</v>
       </c>
       <c r="AJ9" s="22" t="n">
-        <v>4576</v>
+        <v>6299.240000000001</v>
       </c>
       <c r="AK9" s="22" t="n">
-        <v>4576</v>
+        <v>6299.240000000001</v>
       </c>
       <c r="AL9" s="22" t="n">
-        <v>4576</v>
+        <v>6299.240000000001</v>
       </c>
       <c r="AM9" s="22" t="n">
-        <v>4576</v>
+        <v>6299.240000000001</v>
       </c>
       <c r="AN9" s="22" t="n">
-        <v>4576</v>
+        <v>6299.240000000001</v>
       </c>
       <c r="AO9" s="22" t="n">
-        <v>4576</v>
+        <v>6299.240000000001</v>
       </c>
       <c r="AP9" s="22" t="n">
         <v/>
@@ -8812,7 +8812,7 @@
         <v/>
       </c>
       <c r="B10" s="14" t="n">
-        <v>1633.07</v>
+        <v>4542</v>
       </c>
       <c r="C10" s="14">
         <f>+'Completion Factors'!J28</f>
@@ -8836,7 +8836,7 @@
         <v/>
       </c>
       <c r="I10" s="14" t="n">
-        <v>5040.595833333334</v>
+        <v>4940.436666666666</v>
       </c>
       <c r="J10" s="14">
         <f>100*$G10/$I10</f>
@@ -8859,70 +8859,70 @@
         <v/>
       </c>
       <c r="S10" s="22" t="n">
-        <v/>
+        <v>933</v>
       </c>
       <c r="T10" s="22" t="n">
-        <v>898</v>
+        <v>2531</v>
       </c>
       <c r="U10" s="22" t="n">
-        <v>898</v>
+        <v>4112</v>
       </c>
       <c r="V10" s="22" t="n">
-        <v>898</v>
+        <v>4312</v>
       </c>
       <c r="W10" s="22" t="n">
-        <v>1066.07</v>
+        <v>4542</v>
       </c>
       <c r="X10" s="22" t="n">
-        <v>1066.07</v>
+        <v>4542</v>
       </c>
       <c r="Y10" s="22" t="n">
-        <v>1633.07</v>
+        <v>4542</v>
       </c>
       <c r="Z10" s="22" t="n">
-        <v>1633.07</v>
+        <v>4542</v>
       </c>
       <c r="AA10" s="22" t="n">
-        <v>1633.07</v>
+        <v>4542</v>
       </c>
       <c r="AB10" s="22" t="n">
-        <v>1633.07</v>
+        <v>4542</v>
       </c>
       <c r="AC10" s="22" t="n">
-        <v>1633.07</v>
+        <v>4542</v>
       </c>
       <c r="AD10" s="22" t="n">
-        <v>1633.07</v>
+        <v>4542</v>
       </c>
       <c r="AE10" s="22" t="n">
-        <v>1633.07</v>
+        <v>4542</v>
       </c>
       <c r="AF10" s="22" t="n">
-        <v>1633.07</v>
+        <v>4542</v>
       </c>
       <c r="AG10" s="22" t="n">
-        <v>1633.07</v>
+        <v>4542</v>
       </c>
       <c r="AH10" s="22" t="n">
-        <v>1633.07</v>
+        <v>4542</v>
       </c>
       <c r="AI10" s="22" t="n">
-        <v>1633.07</v>
+        <v>4542</v>
       </c>
       <c r="AJ10" s="22" t="n">
-        <v>1633.07</v>
+        <v>4542</v>
       </c>
       <c r="AK10" s="22" t="n">
-        <v>1633.07</v>
+        <v>4542</v>
       </c>
       <c r="AL10" s="22" t="n">
-        <v>1633.07</v>
+        <v>4542</v>
       </c>
       <c r="AM10" s="22" t="n">
-        <v>1633.07</v>
+        <v>4542</v>
       </c>
       <c r="AN10" s="22" t="n">
-        <v>1633.07</v>
+        <v>4542</v>
       </c>
       <c r="AO10" s="22" t="n">
         <v/>
@@ -8939,7 +8939,7 @@
         <v/>
       </c>
       <c r="B11" s="14" t="n">
-        <v>11092.8</v>
+        <v>3689</v>
       </c>
       <c r="C11" s="14">
         <f>+'Completion Factors'!J27</f>
@@ -8963,7 +8963,7 @@
         <v/>
       </c>
       <c r="I11" s="14" t="n">
-        <v>5040.595833333334</v>
+        <v>4909.183333333333</v>
       </c>
       <c r="J11" s="14">
         <f>100*$G11/$I11</f>
@@ -8986,67 +8986,67 @@
         <v/>
       </c>
       <c r="S11" s="22" t="n">
-        <v/>
+        <v>273</v>
       </c>
       <c r="T11" s="22" t="n">
-        <v>375</v>
+        <v>2317</v>
       </c>
       <c r="U11" s="22" t="n">
-        <v>375</v>
+        <v>3507</v>
       </c>
       <c r="V11" s="22" t="n">
-        <v>1340</v>
+        <v>3689</v>
       </c>
       <c r="W11" s="22" t="n">
-        <v>2431</v>
+        <v>3689</v>
       </c>
       <c r="X11" s="22" t="n">
-        <v>7031</v>
+        <v>3689</v>
       </c>
       <c r="Y11" s="22" t="n">
-        <v>7031</v>
+        <v>3689</v>
       </c>
       <c r="Z11" s="22" t="n">
-        <v>7031</v>
+        <v>3689</v>
       </c>
       <c r="AA11" s="22" t="n">
-        <v>7031</v>
+        <v>3689</v>
       </c>
       <c r="AB11" s="22" t="n">
-        <v>7031</v>
+        <v>3689</v>
       </c>
       <c r="AC11" s="22" t="n">
-        <v>7031</v>
+        <v>3689</v>
       </c>
       <c r="AD11" s="22" t="n">
-        <v>7031</v>
+        <v>3689</v>
       </c>
       <c r="AE11" s="22" t="n">
-        <v>7031</v>
+        <v>3689</v>
       </c>
       <c r="AF11" s="22" t="n">
-        <v>7031</v>
+        <v>3689</v>
       </c>
       <c r="AG11" s="22" t="n">
-        <v>11092.8</v>
+        <v>3689</v>
       </c>
       <c r="AH11" s="22" t="n">
-        <v>11092.8</v>
+        <v>3689</v>
       </c>
       <c r="AI11" s="22" t="n">
-        <v>11092.8</v>
+        <v>3689</v>
       </c>
       <c r="AJ11" s="22" t="n">
-        <v>11092.8</v>
+        <v>3689</v>
       </c>
       <c r="AK11" s="22" t="n">
-        <v>11092.8</v>
+        <v>3689</v>
       </c>
       <c r="AL11" s="22" t="n">
-        <v>11092.8</v>
+        <v>3689</v>
       </c>
       <c r="AM11" s="22" t="n">
-        <v>11092.8</v>
+        <v>3689</v>
       </c>
       <c r="AN11" s="22" t="n">
         <v/>
@@ -9066,7 +9066,7 @@
         <v/>
       </c>
       <c r="B12" s="14" t="n">
-        <v>3618.06</v>
+        <v>5914.75</v>
       </c>
       <c r="C12" s="14">
         <f>++'Completion Factors'!J26</f>
@@ -9090,7 +9090,7 @@
         <v/>
       </c>
       <c r="I12" s="14" t="n">
-        <v>5040.595833333334</v>
+        <v>4864.166666666667</v>
       </c>
       <c r="J12" s="14">
         <f>100*$G12/$I12</f>
@@ -9116,61 +9116,61 @@
         <v/>
       </c>
       <c r="T12" s="22" t="n">
-        <v/>
+        <v>2488</v>
       </c>
       <c r="U12" s="22" t="n">
-        <v/>
+        <v>2488</v>
       </c>
       <c r="V12" s="22" t="n">
-        <v>1110</v>
+        <v>4142.75</v>
       </c>
       <c r="W12" s="22" t="n">
-        <v>1110</v>
+        <v>4142.75</v>
       </c>
       <c r="X12" s="22" t="n">
-        <v>2581.97</v>
+        <v>4142.75</v>
       </c>
       <c r="Y12" s="22" t="n">
-        <v>2581.97</v>
+        <v>4142.75</v>
       </c>
       <c r="Z12" s="22" t="n">
-        <v>2581.97</v>
+        <v>4142.75</v>
       </c>
       <c r="AA12" s="22" t="n">
-        <v>2618.06</v>
+        <v>4142.75</v>
       </c>
       <c r="AB12" s="22" t="n">
-        <v>2618.06</v>
+        <v>4705.75</v>
       </c>
       <c r="AC12" s="22" t="n">
-        <v>2618.06</v>
+        <v>5914.75</v>
       </c>
       <c r="AD12" s="22" t="n">
-        <v>2618.06</v>
+        <v>5914.75</v>
       </c>
       <c r="AE12" s="22" t="n">
-        <v>2618.06</v>
+        <v>5914.75</v>
       </c>
       <c r="AF12" s="22" t="n">
-        <v>3618.06</v>
+        <v>5914.75</v>
       </c>
       <c r="AG12" s="22" t="n">
-        <v>3618.06</v>
+        <v>5914.75</v>
       </c>
       <c r="AH12" s="22" t="n">
-        <v>3618.06</v>
+        <v>5914.75</v>
       </c>
       <c r="AI12" s="22" t="n">
-        <v>3618.06</v>
+        <v>5914.75</v>
       </c>
       <c r="AJ12" s="22" t="n">
-        <v>3618.06</v>
+        <v>5914.75</v>
       </c>
       <c r="AK12" s="22" t="n">
-        <v>3618.06</v>
+        <v>5914.75</v>
       </c>
       <c r="AL12" s="22" t="n">
-        <v>3618.06</v>
+        <v>5914.75</v>
       </c>
       <c r="AM12" s="22" t="n">
         <v/>
@@ -9193,7 +9193,7 @@
         <v/>
       </c>
       <c r="B13" s="14" t="n">
-        <v>1341.53</v>
+        <v>10039.45</v>
       </c>
       <c r="C13" s="14">
         <f>++'Completion Factors'!J25</f>
@@ -9217,7 +9217,7 @@
         <v/>
       </c>
       <c r="I13" s="14" t="n">
-        <v>5005.4375</v>
+        <v>4828.1075</v>
       </c>
       <c r="J13" s="14">
         <f>100*$G13/$I13</f>
@@ -9246,55 +9246,55 @@
         <v/>
       </c>
       <c r="U13" s="22" t="n">
-        <v>1022</v>
+        <v>6517</v>
       </c>
       <c r="V13" s="22" t="n">
-        <v>1022</v>
+        <v>7106</v>
       </c>
       <c r="W13" s="22" t="n">
-        <v>1022</v>
+        <v>7106</v>
       </c>
       <c r="X13" s="22" t="n">
-        <v>1291.53</v>
+        <v>8120</v>
       </c>
       <c r="Y13" s="22" t="n">
-        <v>1291.53</v>
+        <v>8120</v>
       </c>
       <c r="Z13" s="22" t="n">
-        <v>1341.53</v>
+        <v>8120</v>
       </c>
       <c r="AA13" s="22" t="n">
-        <v>1341.53</v>
+        <v>8120</v>
       </c>
       <c r="AB13" s="22" t="n">
-        <v>1341.53</v>
+        <v>8120</v>
       </c>
       <c r="AC13" s="22" t="n">
-        <v>1341.53</v>
+        <v>8120</v>
       </c>
       <c r="AD13" s="22" t="n">
-        <v>1341.53</v>
+        <v>8120</v>
       </c>
       <c r="AE13" s="22" t="n">
-        <v>1341.53</v>
+        <v>8120</v>
       </c>
       <c r="AF13" s="22" t="n">
-        <v>1341.53</v>
+        <v>8120</v>
       </c>
       <c r="AG13" s="22" t="n">
-        <v>1341.53</v>
+        <v>9294.450000000001</v>
       </c>
       <c r="AH13" s="22" t="n">
-        <v>1341.53</v>
+        <v>9294.450000000001</v>
       </c>
       <c r="AI13" s="22" t="n">
-        <v>1341.53</v>
+        <v>10039.45</v>
       </c>
       <c r="AJ13" s="22" t="n">
-        <v>1341.53</v>
+        <v>10039.45</v>
       </c>
       <c r="AK13" s="22" t="n">
-        <v>1341.53</v>
+        <v>10039.45</v>
       </c>
       <c r="AL13" s="22" t="n">
         <v/>
@@ -9320,7 +9320,7 @@
         <v/>
       </c>
       <c r="B14" s="14" t="n">
-        <v>6299.240000000001</v>
+        <v>9743.629999999999</v>
       </c>
       <c r="C14" s="14">
         <f>++'Completion Factors'!J24</f>
@@ -9344,7 +9344,7 @@
         <v/>
       </c>
       <c r="I14" s="14" t="n">
-        <v>4973.020833333333</v>
+        <v>4792.87</v>
       </c>
       <c r="J14" s="14">
         <f>100*$G14/$I14</f>
@@ -9370,55 +9370,55 @@
         <v/>
       </c>
       <c r="T14" s="22" t="n">
-        <v>3455.1</v>
+        <v>1454</v>
       </c>
       <c r="U14" s="22" t="n">
-        <v>4443.1</v>
+        <v>4663</v>
       </c>
       <c r="V14" s="22" t="n">
-        <v>4832.1</v>
+        <v>8673</v>
       </c>
       <c r="W14" s="22" t="n">
-        <v>6299.240000000001</v>
+        <v>8673</v>
       </c>
       <c r="X14" s="22" t="n">
-        <v>6299.240000000001</v>
+        <v>8673</v>
       </c>
       <c r="Y14" s="22" t="n">
-        <v>6299.240000000001</v>
+        <v>8673</v>
       </c>
       <c r="Z14" s="22" t="n">
-        <v>6299.240000000001</v>
+        <v>8673</v>
       </c>
       <c r="AA14" s="22" t="n">
-        <v>6299.240000000001</v>
+        <v>8673</v>
       </c>
       <c r="AB14" s="22" t="n">
-        <v>6299.240000000001</v>
+        <v>8673</v>
       </c>
       <c r="AC14" s="22" t="n">
-        <v>6299.240000000001</v>
+        <v>8673</v>
       </c>
       <c r="AD14" s="22" t="n">
-        <v>6299.240000000001</v>
+        <v>8908</v>
       </c>
       <c r="AE14" s="22" t="n">
-        <v>6299.240000000001</v>
+        <v>8908</v>
       </c>
       <c r="AF14" s="22" t="n">
-        <v>6299.240000000001</v>
+        <v>8908</v>
       </c>
       <c r="AG14" s="22" t="n">
-        <v>6299.240000000001</v>
+        <v>8908</v>
       </c>
       <c r="AH14" s="22" t="n">
-        <v>6299.240000000001</v>
+        <v>9743.629999999999</v>
       </c>
       <c r="AI14" s="22" t="n">
-        <v>6299.240000000001</v>
+        <v>9743.629999999999</v>
       </c>
       <c r="AJ14" s="22" t="n">
-        <v>6299.240000000001</v>
+        <v>9743.629999999999</v>
       </c>
       <c r="AK14" s="22" t="n">
         <v/>
@@ -9447,7 +9447,7 @@
         <v/>
       </c>
       <c r="B15" s="14" t="n">
-        <v>4542</v>
+        <v>7630.6</v>
       </c>
       <c r="C15" s="14">
         <f>++'Completion Factors'!J23</f>
@@ -9471,7 +9471,7 @@
         <v/>
       </c>
       <c r="I15" s="14" t="n">
-        <v>4940.436666666666</v>
+        <v>4752.311666666667</v>
       </c>
       <c r="J15" s="14">
         <f>100*$G15/$I15</f>
@@ -9494,55 +9494,55 @@
         <v/>
       </c>
       <c r="S15" s="22" t="n">
-        <v>933</v>
+        <v/>
       </c>
       <c r="T15" s="22" t="n">
-        <v>2531</v>
+        <v/>
       </c>
       <c r="U15" s="22" t="n">
-        <v>4112</v>
+        <v>6953</v>
       </c>
       <c r="V15" s="22" t="n">
-        <v>4312</v>
+        <v>7047</v>
       </c>
       <c r="W15" s="22" t="n">
-        <v>4542</v>
+        <v>7047</v>
       </c>
       <c r="X15" s="22" t="n">
-        <v>4542</v>
+        <v>7047</v>
       </c>
       <c r="Y15" s="22" t="n">
-        <v>4542</v>
+        <v>7047</v>
       </c>
       <c r="Z15" s="22" t="n">
-        <v>4542</v>
+        <v>7047</v>
       </c>
       <c r="AA15" s="22" t="n">
-        <v>4542</v>
+        <v>7285.6</v>
       </c>
       <c r="AB15" s="22" t="n">
-        <v>4542</v>
+        <v>7285.6</v>
       </c>
       <c r="AC15" s="22" t="n">
-        <v>4542</v>
+        <v>7285.6</v>
       </c>
       <c r="AD15" s="22" t="n">
-        <v>4542</v>
+        <v>7285.6</v>
       </c>
       <c r="AE15" s="22" t="n">
-        <v>4542</v>
+        <v>7630.6</v>
       </c>
       <c r="AF15" s="22" t="n">
-        <v>4542</v>
+        <v>7630.6</v>
       </c>
       <c r="AG15" s="22" t="n">
-        <v>4542</v>
+        <v>7630.6</v>
       </c>
       <c r="AH15" s="22" t="n">
-        <v>4542</v>
+        <v>7630.6</v>
       </c>
       <c r="AI15" s="22" t="n">
-        <v>4542</v>
+        <v>7630.6</v>
       </c>
       <c r="AJ15" s="22" t="n">
         <v/>
@@ -9574,7 +9574,7 @@
         <v/>
       </c>
       <c r="B16" s="14" t="n">
-        <v>3689</v>
+        <v>7306</v>
       </c>
       <c r="C16" s="14">
         <f>++'Completion Factors'!J22</f>
@@ -9598,7 +9598,7 @@
         <v/>
       </c>
       <c r="I16" s="14" t="n">
-        <v>4909.183333333333</v>
+        <v>4722.149166666667</v>
       </c>
       <c r="J16" s="14">
         <f>100*$G16/$I16</f>
@@ -9621,52 +9621,52 @@
         <v/>
       </c>
       <c r="S16" s="22" t="n">
-        <v>273</v>
+        <v/>
       </c>
       <c r="T16" s="22" t="n">
-        <v>2317</v>
+        <v>2530</v>
       </c>
       <c r="U16" s="22" t="n">
-        <v>3507</v>
+        <v>2905</v>
       </c>
       <c r="V16" s="22" t="n">
-        <v>3689</v>
+        <v>2905</v>
       </c>
       <c r="W16" s="22" t="n">
-        <v>3689</v>
+        <v>4324</v>
       </c>
       <c r="X16" s="22" t="n">
-        <v>3689</v>
+        <v>6211</v>
       </c>
       <c r="Y16" s="22" t="n">
-        <v>3689</v>
+        <v>6211</v>
       </c>
       <c r="Z16" s="22" t="n">
-        <v>3689</v>
+        <v>6796</v>
       </c>
       <c r="AA16" s="22" t="n">
-        <v>3689</v>
+        <v>7306</v>
       </c>
       <c r="AB16" s="22" t="n">
-        <v>3689</v>
+        <v>7306</v>
       </c>
       <c r="AC16" s="22" t="n">
-        <v>3689</v>
+        <v>7306</v>
       </c>
       <c r="AD16" s="22" t="n">
-        <v>3689</v>
+        <v>7306</v>
       </c>
       <c r="AE16" s="22" t="n">
-        <v>3689</v>
+        <v>7306</v>
       </c>
       <c r="AF16" s="22" t="n">
-        <v>3689</v>
+        <v>7306</v>
       </c>
       <c r="AG16" s="22" t="n">
-        <v>3689</v>
+        <v>7306</v>
       </c>
       <c r="AH16" s="22" t="n">
-        <v>3689</v>
+        <v>7306</v>
       </c>
       <c r="AI16" s="22" t="n">
         <v/>
@@ -9701,7 +9701,7 @@
         <v/>
       </c>
       <c r="B17" s="14" t="n">
-        <v>5914.75</v>
+        <v>496</v>
       </c>
       <c r="C17" s="14">
         <f>++'Completion Factors'!J21</f>
@@ -9725,7 +9725,7 @@
         <v/>
       </c>
       <c r="I17" s="14" t="n">
-        <v>4864.166666666667</v>
+        <v>4712.149166666667</v>
       </c>
       <c r="J17" s="14">
         <f>100*$G17/$I17</f>
@@ -9751,46 +9751,46 @@
         <v/>
       </c>
       <c r="T17" s="22" t="n">
-        <v>2488</v>
+        <v/>
       </c>
       <c r="U17" s="22" t="n">
-        <v>2488</v>
+        <v/>
       </c>
       <c r="V17" s="22" t="n">
-        <v>4142.75</v>
+        <v>421</v>
       </c>
       <c r="W17" s="22" t="n">
-        <v>4142.75</v>
+        <v>421</v>
       </c>
       <c r="X17" s="22" t="n">
-        <v>4142.75</v>
+        <v>421</v>
       </c>
       <c r="Y17" s="22" t="n">
-        <v>4142.75</v>
+        <v>496</v>
       </c>
       <c r="Z17" s="22" t="n">
-        <v>4142.75</v>
+        <v>496</v>
       </c>
       <c r="AA17" s="22" t="n">
-        <v>4142.75</v>
+        <v>496</v>
       </c>
       <c r="AB17" s="22" t="n">
-        <v>4705.75</v>
+        <v>496</v>
       </c>
       <c r="AC17" s="22" t="n">
-        <v>5914.75</v>
+        <v>496</v>
       </c>
       <c r="AD17" s="22" t="n">
-        <v>5914.75</v>
+        <v>496</v>
       </c>
       <c r="AE17" s="22" t="n">
-        <v>5914.75</v>
+        <v>496</v>
       </c>
       <c r="AF17" s="22" t="n">
-        <v>5914.75</v>
+        <v>496</v>
       </c>
       <c r="AG17" s="22" t="n">
-        <v>5914.75</v>
+        <v>496</v>
       </c>
       <c r="AH17" s="22" t="n">
         <v/>
@@ -9828,7 +9828,7 @@
         <v/>
       </c>
       <c r="B18" s="14" t="n">
-        <v>8120</v>
+        <v>329.83</v>
       </c>
       <c r="C18" s="14">
         <f>++'Completion Factors'!J20</f>
@@ -9852,7 +9852,7 @@
         <v/>
       </c>
       <c r="I18" s="14" t="n">
-        <v>4828.1075</v>
+        <v>4698.078333333334</v>
       </c>
       <c r="J18" s="14">
         <f>100*$G18/$I18</f>
@@ -9881,40 +9881,40 @@
         <v/>
       </c>
       <c r="U18" s="22" t="n">
-        <v>6517</v>
+        <v/>
       </c>
       <c r="V18" s="22" t="n">
-        <v>7106</v>
+        <v>160</v>
       </c>
       <c r="W18" s="22" t="n">
-        <v>7106</v>
+        <v>160</v>
       </c>
       <c r="X18" s="22" t="n">
-        <v>8120</v>
+        <v>160</v>
       </c>
       <c r="Y18" s="22" t="n">
-        <v>8120</v>
+        <v>160</v>
       </c>
       <c r="Z18" s="22" t="n">
-        <v>8120</v>
+        <v>160</v>
       </c>
       <c r="AA18" s="22" t="n">
-        <v>8120</v>
+        <v>325</v>
       </c>
       <c r="AB18" s="22" t="n">
-        <v>8120</v>
+        <v>329.83</v>
       </c>
       <c r="AC18" s="22" t="n">
-        <v>8120</v>
+        <v>329.83</v>
       </c>
       <c r="AD18" s="22" t="n">
-        <v>8120</v>
+        <v>329.83</v>
       </c>
       <c r="AE18" s="22" t="n">
-        <v>8120</v>
+        <v>329.83</v>
       </c>
       <c r="AF18" s="22" t="n">
-        <v>8120</v>
+        <v>329.83</v>
       </c>
       <c r="AG18" s="22" t="n">
         <v/>
@@ -9955,7 +9955,7 @@
         <v/>
       </c>
       <c r="B19" s="14" t="n">
-        <v>8908</v>
+        <v>5030.889999999999</v>
       </c>
       <c r="C19" s="14">
         <f>++'Completion Factors'!J19</f>
@@ -9979,7 +9979,7 @@
         <v/>
       </c>
       <c r="I19" s="14" t="n">
-        <v>4792.87</v>
+        <v>4661.936666666667</v>
       </c>
       <c r="J19" s="14">
         <f>100*$G19/$I19</f>
@@ -10008,40 +10008,40 @@
         <v/>
       </c>
       <c r="T19" s="22" t="n">
-        <v>1454</v>
+        <v/>
       </c>
       <c r="U19" s="22" t="n">
-        <v>4663</v>
+        <v>408</v>
       </c>
       <c r="V19" s="22" t="n">
-        <v>8673</v>
+        <v>1814</v>
       </c>
       <c r="W19" s="22" t="n">
-        <v>8673</v>
+        <v>1814</v>
       </c>
       <c r="X19" s="22" t="n">
-        <v>8673</v>
+        <v>2657.66</v>
       </c>
       <c r="Y19" s="22" t="n">
-        <v>8673</v>
+        <v>3105.66</v>
       </c>
       <c r="Z19" s="22" t="n">
-        <v>8673</v>
+        <v>4320.889999999999</v>
       </c>
       <c r="AA19" s="22" t="n">
-        <v>8673</v>
+        <v>4320.889999999999</v>
       </c>
       <c r="AB19" s="22" t="n">
-        <v>8673</v>
+        <v>4320.889999999999</v>
       </c>
       <c r="AC19" s="22" t="n">
-        <v>8673</v>
+        <v>4320.889999999999</v>
       </c>
       <c r="AD19" s="22" t="n">
-        <v>8908</v>
+        <v>4320.889999999999</v>
       </c>
       <c r="AE19" s="22" t="n">
-        <v>8908</v>
+        <v>5030.889999999999</v>
       </c>
       <c r="AF19" s="22" t="n">
         <v/>
@@ -10085,7 +10085,7 @@
         <v/>
       </c>
       <c r="B20" s="14" t="n">
-        <v>7285.6</v>
+        <v>5660</v>
       </c>
       <c r="C20" s="14">
         <f>++'Completion Factors'!J18</f>
@@ -10109,7 +10109,7 @@
         <v/>
       </c>
       <c r="I20" s="14" t="n">
-        <v>4752.311666666667</v>
+        <v>4626.9575</v>
       </c>
       <c r="J20" s="14">
         <f>100*$G20/$I20</f>
@@ -10147,34 +10147,34 @@
         <v/>
       </c>
       <c r="U20" s="22" t="n">
-        <v>6953</v>
+        <v>1128</v>
       </c>
       <c r="V20" s="22" t="n">
-        <v>7047</v>
+        <v>1128</v>
       </c>
       <c r="W20" s="22" t="n">
-        <v>7047</v>
+        <v>1128</v>
       </c>
       <c r="X20" s="22" t="n">
-        <v>7047</v>
+        <v>1128</v>
       </c>
       <c r="Y20" s="22" t="n">
-        <v>7047</v>
+        <v>1128</v>
       </c>
       <c r="Z20" s="22" t="n">
-        <v>7047</v>
+        <v>1241</v>
       </c>
       <c r="AA20" s="22" t="n">
-        <v>7285.6</v>
+        <v>1241</v>
       </c>
       <c r="AB20" s="22" t="n">
-        <v>7285.6</v>
+        <v>4705</v>
       </c>
       <c r="AC20" s="22" t="n">
-        <v>7285.6</v>
+        <v>4705</v>
       </c>
       <c r="AD20" s="22" t="n">
-        <v>7285.6</v>
+        <v>5660</v>
       </c>
       <c r="AE20" s="22" t="n">
         <v/>
@@ -10221,7 +10221,7 @@
         <v/>
       </c>
       <c r="B21" s="14" t="n">
-        <v>7306</v>
+        <v>6823.3</v>
       </c>
       <c r="C21" s="14">
         <f>++'Completion Factors'!J17</f>
@@ -10245,7 +10245,7 @@
         <v/>
       </c>
       <c r="I21" s="14" t="n">
-        <v>4722.149166666667</v>
+        <v>4592.820000000001</v>
       </c>
       <c r="J21" s="14">
         <f>100*$G21/$I21</f>
@@ -10280,34 +10280,34 @@
         <v/>
       </c>
       <c r="T21" s="22" t="n">
-        <v>2530</v>
+        <v/>
       </c>
       <c r="U21" s="22" t="n">
-        <v>2905</v>
+        <v/>
       </c>
       <c r="V21" s="22" t="n">
-        <v>2905</v>
+        <v>2240.36</v>
       </c>
       <c r="W21" s="22" t="n">
-        <v>4324</v>
+        <v>2240.36</v>
       </c>
       <c r="X21" s="22" t="n">
-        <v>6211</v>
+        <v>3246.39</v>
       </c>
       <c r="Y21" s="22" t="n">
-        <v>6211</v>
+        <v>6206.900000000001</v>
       </c>
       <c r="Z21" s="22" t="n">
-        <v>6796</v>
+        <v>6206.900000000001</v>
       </c>
       <c r="AA21" s="22" t="n">
-        <v>7306</v>
+        <v>6823.3</v>
       </c>
       <c r="AB21" s="22" t="n">
-        <v>7306</v>
+        <v>6823.3</v>
       </c>
       <c r="AC21" s="22" t="n">
-        <v>7306</v>
+        <v>6823.3</v>
       </c>
       <c r="AD21" s="22" t="n">
         <v/>
@@ -10357,7 +10357,7 @@
         <v/>
       </c>
       <c r="B22" s="14" t="n">
-        <v>496</v>
+        <v>3076.88</v>
       </c>
       <c r="C22" s="14">
         <f>++'Completion Factors'!J16</f>
@@ -10381,7 +10381,7 @@
         <v/>
       </c>
       <c r="I22" s="14" t="n">
-        <v>4712.149166666667</v>
+        <v>4528.328333333334</v>
       </c>
       <c r="J22" s="14">
         <f>100*$G22/$I22</f>
@@ -10419,28 +10419,28 @@
         <v/>
       </c>
       <c r="U22" s="22" t="n">
-        <v/>
+        <v>260.36</v>
       </c>
       <c r="V22" s="22" t="n">
-        <v>421</v>
+        <v>1915.35</v>
       </c>
       <c r="W22" s="22" t="n">
-        <v>421</v>
+        <v>2602.56</v>
       </c>
       <c r="X22" s="22" t="n">
-        <v>421</v>
+        <v>3076.88</v>
       </c>
       <c r="Y22" s="22" t="n">
-        <v>496</v>
+        <v>3076.88</v>
       </c>
       <c r="Z22" s="22" t="n">
-        <v>496</v>
+        <v>3076.88</v>
       </c>
       <c r="AA22" s="22" t="n">
-        <v>496</v>
+        <v>3076.88</v>
       </c>
       <c r="AB22" s="22" t="n">
-        <v>496</v>
+        <v>3076.88</v>
       </c>
       <c r="AC22" s="22" t="n">
         <v/>
@@ -10493,7 +10493,7 @@
         <v/>
       </c>
       <c r="B23" s="14" t="n">
-        <v>325</v>
+        <v>6539.490000000001</v>
       </c>
       <c r="C23" s="14">
         <f>++'Completion Factors'!J15</f>
@@ -10517,7 +10517,7 @@
         <v/>
       </c>
       <c r="I23" s="14" t="n">
-        <v>4698.078333333334</v>
+        <v>4499.67</v>
       </c>
       <c r="J23" s="14">
         <f>100*$G23/$I23</f>
@@ -10555,25 +10555,25 @@
         <v/>
       </c>
       <c r="U23" s="22" t="n">
-        <v/>
+        <v>1235</v>
       </c>
       <c r="V23" s="22" t="n">
-        <v>160</v>
+        <v>4459.27</v>
       </c>
       <c r="W23" s="22" t="n">
-        <v>160</v>
+        <v>6457.490000000001</v>
       </c>
       <c r="X23" s="22" t="n">
-        <v>160</v>
+        <v>6457.490000000001</v>
       </c>
       <c r="Y23" s="22" t="n">
-        <v>160</v>
+        <v>6457.490000000001</v>
       </c>
       <c r="Z23" s="22" t="n">
-        <v>160</v>
+        <v>6457.490000000001</v>
       </c>
       <c r="AA23" s="22" t="n">
-        <v>325</v>
+        <v>6539.490000000001</v>
       </c>
       <c r="AB23" s="22" t="n">
         <v/>
@@ -10629,7 +10629,7 @@
         <v/>
       </c>
       <c r="B24" s="14" t="n">
-        <v>4320.889999999999</v>
+        <v>2871.02</v>
       </c>
       <c r="C24" s="14">
         <f>++'Completion Factors'!J14</f>
@@ -10655,7 +10655,7 @@
         <v/>
       </c>
       <c r="I24" s="14" t="n">
-        <v>4661.936666666667</v>
+        <v>4412.840833333334</v>
       </c>
       <c r="J24" s="14">
         <f>100*$G24/$I24</f>
@@ -10693,22 +10693,22 @@
         <v/>
       </c>
       <c r="U24" s="22" t="n">
-        <v>408</v>
+        <v/>
       </c>
       <c r="V24" s="22" t="n">
-        <v>1814</v>
+        <v>2871.02</v>
       </c>
       <c r="W24" s="22" t="n">
-        <v>1814</v>
+        <v>2871.02</v>
       </c>
       <c r="X24" s="22" t="n">
-        <v>2657.66</v>
+        <v>2871.02</v>
       </c>
       <c r="Y24" s="22" t="n">
-        <v>3105.66</v>
+        <v>2871.02</v>
       </c>
       <c r="Z24" s="22" t="n">
-        <v>4320.889999999999</v>
+        <v>2871.02</v>
       </c>
       <c r="AA24" s="22" t="n">
         <v/>
@@ -10767,7 +10767,7 @@
         <v/>
       </c>
       <c r="B25" s="14" t="n">
-        <v>1128</v>
+        <v>6083.47</v>
       </c>
       <c r="C25" s="14">
         <f>++'Completion Factors'!J13</f>
@@ -10793,7 +10793,7 @@
         <v/>
       </c>
       <c r="I25" s="14" t="n">
-        <v>4626.9575</v>
+        <v>4386.054166666667</v>
       </c>
       <c r="J25" s="14">
         <f>100*$G25/$I25</f>
@@ -10831,19 +10831,19 @@
         <v/>
       </c>
       <c r="U25" s="22" t="n">
-        <v>1128</v>
+        <v>3833</v>
       </c>
       <c r="V25" s="22" t="n">
-        <v>1128</v>
+        <v>4241</v>
       </c>
       <c r="W25" s="22" t="n">
-        <v>1128</v>
+        <v>6033.47</v>
       </c>
       <c r="X25" s="22" t="n">
-        <v>1128</v>
+        <v>6083.47</v>
       </c>
       <c r="Y25" s="22" t="n">
-        <v>1128</v>
+        <v>6083.47</v>
       </c>
       <c r="Z25" s="22" t="n">
         <v/>
@@ -10905,7 +10905,7 @@
         <v/>
       </c>
       <c r="B26" s="14" t="n">
-        <v>3246.39</v>
+        <v>9498</v>
       </c>
       <c r="C26" s="14">
         <f>++'Completion Factors'!J12</f>
@@ -10931,7 +10931,7 @@
         <v/>
       </c>
       <c r="I26" s="14" t="n">
-        <v>4592.820000000001</v>
+        <v>4386.054166666667</v>
       </c>
       <c r="J26" s="14">
         <f>100*$G26/$I26</f>
@@ -10966,19 +10966,19 @@
         <v/>
       </c>
       <c r="T26" s="22" t="n">
-        <v/>
+        <v>3965</v>
       </c>
       <c r="U26" s="22" t="n">
-        <v/>
+        <v>4678</v>
       </c>
       <c r="V26" s="22" t="n">
-        <v>2240.36</v>
+        <v>9498</v>
       </c>
       <c r="W26" s="22" t="n">
-        <v>2240.36</v>
+        <v>9498</v>
       </c>
       <c r="X26" s="22" t="n">
-        <v>3246.39</v>
+        <v>9498</v>
       </c>
       <c r="Y26" s="22" t="n">
         <v/>
@@ -11043,7 +11043,7 @@
         <v/>
       </c>
       <c r="B27" s="14" t="n">
-        <v>2602.56</v>
+        <v>2547.78</v>
       </c>
       <c r="C27" s="14">
         <f>++'Completion Factors'!J11</f>
@@ -11069,7 +11069,7 @@
         <v/>
       </c>
       <c r="I27" s="14" t="n">
-        <v>4528.328333333334</v>
+        <v>4318.9375</v>
       </c>
       <c r="J27" s="14">
         <f>100*$G27/$I27</f>
@@ -11107,13 +11107,13 @@
         <v/>
       </c>
       <c r="U27" s="22" t="n">
-        <v>260.36</v>
+        <v>2296</v>
       </c>
       <c r="V27" s="22" t="n">
-        <v>1915.35</v>
+        <v>2296</v>
       </c>
       <c r="W27" s="22" t="n">
-        <v>2602.56</v>
+        <v>2547.78</v>
       </c>
       <c r="X27" s="22" t="n">
         <v/>
@@ -11181,7 +11181,7 @@
         <v/>
       </c>
       <c r="B28" s="14" t="n">
-        <v>4459.27</v>
+        <v>2454</v>
       </c>
       <c r="C28" s="14">
         <f>++'Completion Factors'!J10</f>
@@ -11207,7 +11207,7 @@
         <v/>
       </c>
       <c r="I28" s="14" t="n">
-        <v>4499.67</v>
+        <v>4281.125</v>
       </c>
       <c r="J28" s="14">
         <f>100*$G28/$I28</f>
@@ -11242,13 +11242,13 @@
         <v/>
       </c>
       <c r="T28" s="22" t="n">
-        <v/>
+        <v>375</v>
       </c>
       <c r="U28" s="22" t="n">
-        <v>1235</v>
+        <v>2454</v>
       </c>
       <c r="V28" s="22" t="n">
-        <v>4459.27</v>
+        <v>2454</v>
       </c>
       <c r="W28" s="22" t="n">
         <v/>
@@ -11319,7 +11319,7 @@
         <v/>
       </c>
       <c r="B29" s="14" t="n">
-        <v/>
+        <v>2232</v>
       </c>
       <c r="C29" s="14">
         <f>++'Completion Factors'!J9</f>
@@ -11346,7 +11346,7 @@
         <v/>
       </c>
       <c r="I29" s="14" t="n">
-        <v>4412.840833333334</v>
+        <v>4201.455</v>
       </c>
       <c r="J29" s="20" t="n">
         <v>335</v>
@@ -11377,13 +11377,13 @@
         <v/>
       </c>
       <c r="S29" s="22" t="n">
-        <v/>
+        <v>1235</v>
       </c>
       <c r="T29" s="22" t="n">
-        <v/>
+        <v>2232</v>
       </c>
       <c r="U29" s="22" t="n">
-        <v/>
+        <v>2232</v>
       </c>
       <c r="V29" s="22" t="n">
         <v/>
@@ -11484,7 +11484,7 @@
         <v/>
       </c>
       <c r="I30" s="14" t="n">
-        <v>4386.054166666667</v>
+        <v>4159.263333333333</v>
       </c>
       <c r="J30" s="20" t="n">
         <v>335</v>
@@ -11622,7 +11622,7 @@
         <v/>
       </c>
       <c r="I31" s="14" t="n">
-        <v>4386.054166666667</v>
+        <v>4123.3675</v>
       </c>
       <c r="J31" s="20" t="n">
         <v>335</v>

--- a/Process Results/Unified_IBNP_NSL.xlsx
+++ b/Process Results/Unified_IBNP_NSL.xlsx
@@ -3727,20 +3727,20 @@
         <v/>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.09862740802000147</v>
+        <v>0.2264532659384766</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.113050729884849</v>
+        <v>0.1513650879109036</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.1287651765301288</v>
+        <v>0.1332385070108906</v>
       </c>
       <c r="H7" s="4">
         <f>+I7/I8</f>
         <v/>
       </c>
       <c r="I7" s="5" t="n">
-        <v>0.1053476809052796</v>
+        <v>0.1814476091871045</v>
       </c>
       <c r="J7" s="5">
         <f>I7</f>
@@ -3765,20 +3765,20 @@
         <v/>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1782480766806828</v>
+        <v>0.409266145404599</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2043151652655733</v>
+        <v>0.2735602236576007</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2327156874617388</v>
+        <v>0.2408002814966055</v>
       </c>
       <c r="H8" s="4">
         <f>+I8/I9</f>
         <v/>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1903935415227401</v>
+        <v>0.3279279868061678</v>
       </c>
       <c r="J8" s="5">
         <f>I8</f>
@@ -3803,20 +3803,20 @@
         <v/>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3203952770716071</v>
+        <v>0.7356429449044691</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2911149128951352</v>
+        <v>0.3897775310909575</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3315809034375719</v>
+        <v>0.3431000967641836</v>
       </c>
       <c r="H9" s="4">
         <f>+I9/I10</f>
         <v/>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.3050540929883321</v>
+        <v>0.5095643751740492</v>
       </c>
       <c r="J9" s="5">
         <f>I9</f>
@@ -3841,20 +3841,20 @@
         <v/>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.4841951535549701</v>
+        <v>0.802759037127922</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.460857037951438</v>
+        <v>0.5373309564991074</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>0.5658979178118957</v>
+        <v>0.5681419001900504</v>
       </c>
       <c r="H10" s="4">
         <f>+I10/I11</f>
         <v/>
       </c>
       <c r="I10" s="5" t="n">
-        <v>0.472237927731999</v>
+        <v>0.6437586778642873</v>
       </c>
       <c r="J10" s="5">
         <f>I10</f>
@@ -3879,20 +3879,20 @@
         <v/>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.545923618952834</v>
+        <v>0.816944794453025</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.5470774150960893</v>
+        <v>0.6214596940329027</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.6683906336294939</v>
+        <v>0.6483595066886735</v>
       </c>
       <c r="H11" s="4">
         <f>+I11/I12</f>
         <v/>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.5464999080380569</v>
+        <v>0.7059186286841408</v>
       </c>
       <c r="J11" s="5">
         <f>I11</f>
@@ -3917,20 +3917,20 @@
         <v/>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.5474069063203393</v>
+        <v>0.8316757154255038</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.5752638858512109</v>
+        <v>0.6380328802677849</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.7322520045723535</v>
+        <v>0.7217206977960288</v>
       </c>
       <c r="H12" s="4">
         <f>+I12/I13</f>
         <v/>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.5609897866186034</v>
+        <v>0.7220975011191164</v>
       </c>
       <c r="J12" s="5">
         <f>I12</f>
@@ -3955,20 +3955,20 @@
         <v/>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.5474069063203393</v>
+        <v>0.8766116936202747</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.6497534919527654</v>
+        <v>0.718876900790419</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.7853574104377868</v>
+        <v>0.7879060258970891</v>
       </c>
       <c r="H13" s="4">
         <f>+I13/I14</f>
         <v/>
       </c>
       <c r="I13" s="5" t="n">
-        <v>0.5942053369185382</v>
+        <v>0.7899472295997751</v>
       </c>
       <c r="J13" s="5">
         <f>I13</f>
@@ -3993,20 +3993,20 @@
         <v/>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.5474069063203393</v>
+        <v>0.8766116936202747</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.6875292062748409</v>
+        <v>0.7220225732172584</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.8134150498091358</v>
+        <v>0.8171674816800626</v>
       </c>
       <c r="H14" s="4">
         <f>+I14/I15</f>
         <v/>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.609518552374153</v>
+        <v>0.7918426920650686</v>
       </c>
       <c r="J14" s="5">
         <f>I14</f>
@@ -4031,20 +4031,20 @@
         <v/>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.5716939545301805</v>
+        <v>0.8824061232090954</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.715186490509674</v>
+        <v>0.7428820424995642</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.8365252606063317</v>
+        <v>0.8409166199922425</v>
       </c>
       <c r="H15" s="4">
         <f>+I15/I16</f>
         <v/>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.635440214453448</v>
+        <v>0.8066553082146793</v>
       </c>
       <c r="J15" s="5">
         <f>I15</f>
@@ -4069,20 +4069,20 @@
         <v/>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.74944423398824</v>
+        <v>0.8824061232090954</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.8675447591822691</v>
+        <v>0.8583020407206859</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.8972957630993383</v>
+        <v>0.8990218142587516</v>
       </c>
       <c r="H16" s="4">
         <f>+I16/I17</f>
         <v/>
       </c>
       <c r="I16" s="5" t="n">
-        <v>0.8041816242929832</v>
+        <v>0.8701871939118994</v>
       </c>
       <c r="J16" s="5">
         <f>I16</f>
@@ -4107,20 +4107,20 @@
         <v/>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.74944423398824</v>
+        <v>0.8824061232090954</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.8675447591822691</v>
+        <v>0.8583020407206859</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.9150809292918035</v>
+        <v>0.9172797438913199</v>
       </c>
       <c r="H17" s="4">
         <f>+I17/I18</f>
         <v/>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.8041816242929832</v>
+        <v>0.8701871939118994</v>
       </c>
       <c r="J17" s="5">
         <f>I17</f>
@@ -4145,20 +4145,20 @@
         <v/>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8259449462219076</v>
+        <v>0.9355758970375803</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.9014397147373685</v>
+        <v>0.8924823403446491</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.9327353258319749</v>
+        <v>0.934827471607282</v>
       </c>
       <c r="H18" s="4">
         <f>+I18/I19</f>
         <v/>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.8620425936833075</v>
+        <v>0.913521187764607</v>
       </c>
       <c r="J18" s="5">
         <f>I18</f>
@@ -4183,20 +4183,20 @@
         <v/>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.9398856525003829</v>
+        <v>1</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.9346383559257626</v>
+        <v>0.9295544328713833</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>0.9495412701508625</v>
+        <v>0.9505141653082034</v>
       </c>
       <c r="H19" s="4">
         <f>+I19/I20</f>
         <v/>
       </c>
       <c r="I19" s="5" t="n">
-        <v>0.9372546599162758</v>
+        <v>0.9634912776086931</v>
       </c>
       <c r="J19" s="5">
         <f>I19</f>
@@ -4221,20 +4221,20 @@
         <v/>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.9398856525003829</v>
+        <v>1</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.9346383559257626</v>
+        <v>0.9295544328713833</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.9495412701508625</v>
+        <v>0.9505141653082034</v>
       </c>
       <c r="H20" s="4">
         <f>+I20/I21</f>
         <v/>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.9372546599162758</v>
+        <v>0.9634912776086931</v>
       </c>
       <c r="J20" s="5">
         <f>I20</f>
@@ -4259,20 +4259,20 @@
         <v/>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.9398856525003829</v>
+        <v>1</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.9632422909287531</v>
+        <v>0.9628481470338933</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.9700988360590376</v>
+        <v>0.9714838761031256</v>
       </c>
       <c r="H21" s="4">
         <f>+I21/I22</f>
         <v/>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.9514206464692641</v>
+        <v>0.9810724772457575</v>
       </c>
       <c r="J21" s="5">
         <f>I21</f>
@@ -4297,20 +4297,20 @@
         <v/>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.9728237872478267</v>
+        <v>1</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.9820738638619442</v>
+        <v>0.983191734033219</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.9848577851309547</v>
+        <v>0.9864949794859644</v>
       </c>
       <c r="H22" s="4">
         <f>+I22/I23</f>
         <v/>
       </c>
       <c r="I22" s="5" t="n">
-        <v>0.9774269410543546</v>
+        <v>0.9915246389553075</v>
       </c>
       <c r="J22" s="5">
         <f>I22</f>
@@ -4836,22 +4836,22 @@
         <v/>
       </c>
       <c r="C38" s="4" t="n">
-        <v/>
+        <v>1.285954096842349</v>
       </c>
       <c r="D38" s="4" t="n">
-        <v>1</v>
+        <v>1.087551484324008</v>
       </c>
       <c r="E38" s="4" t="n">
-        <v>1</v>
+        <v>1.3036236832847</v>
       </c>
       <c r="F38" s="4" t="n">
-        <v>1.263727984344423</v>
+        <v>1</v>
       </c>
       <c r="G38" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H38" s="4" t="n">
-        <v>1.038713773586367</v>
+        <v>1</v>
       </c>
       <c r="I38" s="4" t="n">
         <v>1</v>
@@ -4908,16 +4908,16 @@
         <v/>
       </c>
       <c r="B39" s="4" t="n">
-        <v/>
+        <v>2.712754555198285</v>
       </c>
       <c r="C39" s="4" t="n">
-        <v>1.285954096842349</v>
+        <v>1.624654286843145</v>
       </c>
       <c r="D39" s="4" t="n">
-        <v>1.087551484324008</v>
+        <v>1.04863813229572</v>
       </c>
       <c r="E39" s="4" t="n">
-        <v>1.3036236832847</v>
+        <v>1.053339517625232</v>
       </c>
       <c r="F39" s="4" t="n">
         <v>1</v>
@@ -4983,67 +4983,67 @@
         <v/>
       </c>
       <c r="B40" s="4" t="n">
-        <v>2.712754555198285</v>
+        <v>8.487179487179487</v>
       </c>
       <c r="C40" s="4" t="n">
-        <v>1.624654286843145</v>
+        <v>1.513595166163142</v>
       </c>
       <c r="D40" s="4" t="n">
-        <v>1.04863813229572</v>
+        <v>1.05189620758483</v>
       </c>
       <c r="E40" s="4" t="n">
-        <v>1.053339517625232</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F40" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G40" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="H40" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="I40" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="J40" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K40" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="L40" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="M40" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="N40" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O40" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="P40" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Q40" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="R40" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="S40" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="T40" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="U40" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="V40" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="W40" t="n">
         <v/>
@@ -5058,64 +5058,64 @@
         <v/>
       </c>
       <c r="B41" s="4" t="n">
-        <v>8.487179487179487</v>
+        <v/>
       </c>
       <c r="C41" s="4" t="n">
-        <v>1.513595166163142</v>
+        <v>1</v>
       </c>
       <c r="D41" s="4" t="n">
-        <v>1.05189620758483</v>
+        <v>1.665092443729904</v>
       </c>
       <c r="E41" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="F41" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="G41" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="H41" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="I41" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="J41" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.135900066381027</v>
       </c>
       <c r="K41" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.25691972586729</v>
       </c>
       <c r="L41" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="M41" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="N41" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="O41" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="P41" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="Q41" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="R41" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="S41" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="T41" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="U41" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="V41" s="4" t="n">
         <v/>
@@ -5136,49 +5136,49 @@
         <v/>
       </c>
       <c r="C42" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="D42" s="4" t="n">
-        <v>1.665092443729904</v>
+        <v>1.090379008746356</v>
       </c>
       <c r="E42" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F42" s="4" t="n">
-        <v>1</v>
+        <v>1.142696312974951</v>
       </c>
       <c r="G42" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="H42" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="I42" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="J42" s="4" t="n">
-        <v>1.135900066381027</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K42" s="4" t="n">
-        <v>1.25691972586729</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="L42" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="M42" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="N42" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O42" s="4" t="n">
-        <v>1</v>
+        <v>1.144636699507389</v>
       </c>
       <c r="P42" s="4" t="n">
         <v>1</v>
       </c>
       <c r="Q42" s="4" t="n">
-        <v>1</v>
+        <v>1.080155361532958</v>
       </c>
       <c r="R42" s="4" t="n">
         <v>1</v>
@@ -5211,49 +5211,49 @@
         <v/>
       </c>
       <c r="C43" s="4" t="n">
-        <v/>
+        <v>3.207015130674003</v>
       </c>
       <c r="D43" s="4" t="n">
-        <v>1.090379008746356</v>
+        <v>1.859961398241476</v>
       </c>
       <c r="E43" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F43" s="4" t="n">
-        <v>1.142696312974951</v>
+        <v>1</v>
       </c>
       <c r="G43" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="H43" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="I43" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="J43" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="K43" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="L43" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.02709558399631</v>
       </c>
       <c r="M43" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="N43" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="O43" s="4" t="n">
-        <v>1.144636699507389</v>
+        <v>1</v>
       </c>
       <c r="P43" s="4" t="n">
-        <v>1</v>
+        <v>1.093806690615177</v>
       </c>
       <c r="Q43" s="4" t="n">
-        <v>1.080155361532958</v>
+        <v>1</v>
       </c>
       <c r="R43" s="4" t="n">
         <v>1</v>
@@ -5286,10 +5286,10 @@
         <v/>
       </c>
       <c r="C44" s="4" t="n">
-        <v>3.207015130674003</v>
+        <v/>
       </c>
       <c r="D44" s="4" t="n">
-        <v>1.859961398241476</v>
+        <v>1.013519344167985</v>
       </c>
       <c r="E44" s="4" t="n">
         <v>1</v>
@@ -5304,7 +5304,7 @@
         <v>1</v>
       </c>
       <c r="I44" s="4" t="n">
-        <v>1</v>
+        <v>1.033858379452249</v>
       </c>
       <c r="J44" s="4" t="n">
         <v>1</v>
@@ -5313,25 +5313,25 @@
         <v>1</v>
       </c>
       <c r="L44" s="4" t="n">
-        <v>1.02709558399631</v>
+        <v>1</v>
       </c>
       <c r="M44" s="4" t="n">
-        <v>1</v>
+        <v>1.047353683979357</v>
       </c>
       <c r="N44" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O44" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="P44" s="4" t="n">
-        <v>1.093806690615177</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Q44" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="R44" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="S44" t="n">
         <v/>
@@ -5361,37 +5361,37 @@
         <v/>
       </c>
       <c r="C45" s="4" t="n">
-        <v/>
+        <v>1.148221343873518</v>
       </c>
       <c r="D45" s="4" t="n">
-        <v>1.013519344167985</v>
+        <v>1</v>
       </c>
       <c r="E45" s="4" t="n">
-        <v>1</v>
+        <v>1.488468158347676</v>
       </c>
       <c r="F45" s="4" t="n">
-        <v>1</v>
+        <v>1.436401480111008</v>
       </c>
       <c r="G45" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H45" s="4" t="n">
-        <v>1</v>
+        <v>1.094187731444212</v>
       </c>
       <c r="I45" s="4" t="n">
-        <v>1.033858379452249</v>
+        <v>1.07504414361389</v>
       </c>
       <c r="J45" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K45" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="L45" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="M45" s="4" t="n">
-        <v>1.047353683979357</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="N45" s="4" t="n">
         <v>0.9999999999999999</v>
@@ -5436,46 +5436,46 @@
         <v/>
       </c>
       <c r="C46" s="4" t="n">
-        <v>1.148221343873518</v>
+        <v/>
       </c>
       <c r="D46" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E46" s="4" t="n">
-        <v>1.488468158347676</v>
+        <v>1</v>
       </c>
       <c r="F46" s="4" t="n">
-        <v>1.436401480111008</v>
+        <v>1</v>
       </c>
       <c r="G46" s="4" t="n">
-        <v>1</v>
+        <v>1.178147268408551</v>
       </c>
       <c r="H46" s="4" t="n">
-        <v>1.094187731444212</v>
+        <v>1</v>
       </c>
       <c r="I46" s="4" t="n">
-        <v>1.07504414361389</v>
+        <v>1</v>
       </c>
       <c r="J46" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="K46" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="L46" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="M46" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="N46" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="O46" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="P46" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="Q46" s="4" t="n">
         <v/>
@@ -5523,16 +5523,16 @@
         <v>1</v>
       </c>
       <c r="G47" s="4" t="n">
-        <v>1.178147268408551</v>
+        <v>1</v>
       </c>
       <c r="H47" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I47" s="4" t="n">
-        <v>1</v>
+        <v>2.03125</v>
       </c>
       <c r="J47" s="4" t="n">
-        <v>1</v>
+        <v>1.014861538461538</v>
       </c>
       <c r="K47" s="4" t="n">
         <v>1</v>
@@ -5589,25 +5589,25 @@
         <v/>
       </c>
       <c r="D48" s="4" t="n">
-        <v/>
+        <v>4.446078431372549</v>
       </c>
       <c r="E48" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F48" s="4" t="n">
-        <v>1</v>
+        <v>1.465082690187431</v>
       </c>
       <c r="G48" s="4" t="n">
-        <v>1</v>
+        <v>1.168569342955833</v>
       </c>
       <c r="H48" s="4" t="n">
-        <v>1</v>
+        <v>1.391295248031014</v>
       </c>
       <c r="I48" s="4" t="n">
-        <v>2.03125</v>
+        <v>1</v>
       </c>
       <c r="J48" s="4" t="n">
-        <v>1.014861538461538</v>
+        <v>1</v>
       </c>
       <c r="K48" s="4" t="n">
         <v>1</v>
@@ -5616,7 +5616,7 @@
         <v>1</v>
       </c>
       <c r="M48" s="4" t="n">
-        <v>1</v>
+        <v>1.16431799930107</v>
       </c>
       <c r="N48" s="4" t="n">
         <v>1</v>
@@ -5664,34 +5664,34 @@
         <v/>
       </c>
       <c r="D49" s="4" t="n">
-        <v>4.446078431372549</v>
+        <v>1</v>
       </c>
       <c r="E49" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F49" s="4" t="n">
-        <v>1.465082690187431</v>
+        <v>1</v>
       </c>
       <c r="G49" s="4" t="n">
-        <v>1.168569342955833</v>
+        <v>1</v>
       </c>
       <c r="H49" s="4" t="n">
-        <v>1.391295248031014</v>
+        <v>1.100177304964539</v>
       </c>
       <c r="I49" s="4" t="n">
         <v>1</v>
       </c>
       <c r="J49" s="4" t="n">
-        <v>1</v>
+        <v>3.79129734085415</v>
       </c>
       <c r="K49" s="4" t="n">
         <v>1</v>
       </c>
       <c r="L49" s="4" t="n">
-        <v>1</v>
+        <v>1.20297555791711</v>
       </c>
       <c r="M49" s="4" t="n">
-        <v>1.16431799930107</v>
+        <v>1</v>
       </c>
       <c r="N49" t="n">
         <v/>
@@ -5739,31 +5739,31 @@
         <v/>
       </c>
       <c r="D50" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E50" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F50" s="4" t="n">
-        <v>1</v>
+        <v>1.449048367226696</v>
       </c>
       <c r="G50" s="4" t="n">
-        <v>1</v>
+        <v>1.911939107747375</v>
       </c>
       <c r="H50" s="4" t="n">
-        <v>1.100177304964539</v>
+        <v>1</v>
       </c>
       <c r="I50" s="4" t="n">
-        <v>1</v>
+        <v>1.099308833717314</v>
       </c>
       <c r="J50" s="4" t="n">
-        <v>3.79129734085415</v>
+        <v>1</v>
       </c>
       <c r="K50" s="4" t="n">
         <v>1</v>
       </c>
       <c r="L50" s="4" t="n">
-        <v>1.20297555791711</v>
+        <v>1</v>
       </c>
       <c r="M50" t="n">
         <v/>
@@ -5814,28 +5814,28 @@
         <v/>
       </c>
       <c r="D51" s="4" t="n">
-        <v/>
+        <v>7.356544784145029</v>
       </c>
       <c r="E51" s="4" t="n">
-        <v>1</v>
+        <v>1.358790821520871</v>
       </c>
       <c r="F51" s="4" t="n">
-        <v>1.449048367226696</v>
+        <v>1.182251321775483</v>
       </c>
       <c r="G51" s="4" t="n">
-        <v>1.911939107747375</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="H51" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="I51" s="4" t="n">
-        <v>1.099308833717314</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="J51" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K51" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="L51" t="n">
         <v/>
@@ -5889,25 +5889,25 @@
         <v/>
       </c>
       <c r="D52" s="4" t="n">
-        <v>7.356544784145029</v>
+        <v>3.610744939271255</v>
       </c>
       <c r="E52" s="4" t="n">
-        <v>1.358790821520871</v>
+        <v>1.448104734631453</v>
       </c>
       <c r="F52" s="4" t="n">
-        <v>1.182251321775483</v>
+        <v>1</v>
       </c>
       <c r="G52" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="H52" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="I52" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.012698432363039</v>
       </c>
       <c r="J52" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="K52" t="n">
         <v/>
@@ -5964,10 +5964,10 @@
         <v/>
       </c>
       <c r="D53" s="4" t="n">
-        <v>3.610744939271255</v>
+        <v/>
       </c>
       <c r="E53" s="4" t="n">
-        <v>1.448104734631453</v>
+        <v>1</v>
       </c>
       <c r="F53" s="4" t="n">
         <v>1</v>
@@ -5979,7 +5979,7 @@
         <v>1</v>
       </c>
       <c r="I53" s="4" t="n">
-        <v>1.012698432363039</v>
+        <v>1</v>
       </c>
       <c r="J53" t="n">
         <v/>
@@ -6039,13 +6039,13 @@
         <v/>
       </c>
       <c r="D54" s="4" t="n">
-        <v/>
+        <v>1.106444038612053</v>
       </c>
       <c r="E54" s="4" t="n">
-        <v>1</v>
+        <v>1.4226526762556</v>
       </c>
       <c r="F54" s="4" t="n">
-        <v>1</v>
+        <v>1.008287105098724</v>
       </c>
       <c r="G54" s="4" t="n">
         <v>1</v>
@@ -6111,19 +6111,19 @@
         <v/>
       </c>
       <c r="C55" s="4" t="n">
-        <v/>
+        <v>1.179823455233291</v>
       </c>
       <c r="D55" s="4" t="n">
-        <v>1.106444038612053</v>
+        <v>2.030354852501069</v>
       </c>
       <c r="E55" s="4" t="n">
-        <v>1.4226526762556</v>
+        <v>1</v>
       </c>
       <c r="F55" s="4" t="n">
-        <v>1.008287105098724</v>
+        <v>1</v>
       </c>
       <c r="G55" s="4" t="n">
-        <v>1</v>
+        <v>1.104969467256264</v>
       </c>
       <c r="H55" t="n">
         <v/>
@@ -6186,16 +6186,16 @@
         <v/>
       </c>
       <c r="C56" s="4" t="n">
-        <v>1.179823455233291</v>
+        <v/>
       </c>
       <c r="D56" s="4" t="n">
-        <v>2.030354852501069</v>
+        <v>1</v>
       </c>
       <c r="E56" s="4" t="n">
-        <v>1</v>
+        <v>1.109660278745645</v>
       </c>
       <c r="F56" s="4" t="n">
-        <v>1</v>
+        <v>1.108329604596943</v>
       </c>
       <c r="G56" t="n">
         <v/>
@@ -6261,13 +6261,13 @@
         <v/>
       </c>
       <c r="C57" s="4" t="n">
-        <v/>
+        <v>6.544</v>
       </c>
       <c r="D57" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E57" s="4" t="n">
-        <v>1.109660278745645</v>
+        <v>1</v>
       </c>
       <c r="F57" t="n">
         <v/>
@@ -6333,13 +6333,13 @@
         <v/>
       </c>
       <c r="B58" s="4" t="n">
-        <v/>
+        <v>1.807287449392712</v>
       </c>
       <c r="C58" s="4" t="n">
-        <v>6.544</v>
+        <v>1</v>
       </c>
       <c r="D58" s="4" t="n">
-        <v>1</v>
+        <v>1.285394265232975</v>
       </c>
       <c r="E58" t="n">
         <v/>
@@ -6408,10 +6408,10 @@
         <v/>
       </c>
       <c r="B59" s="4" t="n">
-        <v>1.807287449392712</v>
+        <v/>
       </c>
       <c r="C59" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="D59" t="n">
         <v/>
@@ -6704,31 +6704,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="34" t="n">
-        <v>0.1132047060188934</v>
+        <v>0.1136422100464224</v>
       </c>
       <c r="C2" s="34" t="n">
-        <v>0.1287651765301288</v>
+        <v>0.1332385070108906</v>
       </c>
       <c r="D2" s="34" t="n">
-        <v>0.113050729884849</v>
+        <v>0.1513650879109036</v>
       </c>
       <c r="E2" s="34" t="n">
-        <v>0.09862740802000147</v>
+        <v>0.2264532659384766</v>
       </c>
       <c r="F2" s="34" t="n">
-        <v>0.0308440341466188</v>
+        <v>0.03070341977645993</v>
       </c>
       <c r="G2" s="34" t="n">
-        <v>0.03108336300719786</v>
+        <v>0.0336707871489834</v>
       </c>
       <c r="H2" s="34" t="n">
-        <v>0.03270472081402305</v>
+        <v>0.06048209848969637</v>
       </c>
       <c r="I2" s="34" t="n">
-        <v>0.0387306357109533</v>
+        <v>0.1062721064714936</v>
       </c>
       <c r="J2" s="34" t="n">
-        <v>0.1053476809052796</v>
+        <v>0.1814476091871045</v>
       </c>
       <c r="M2" s="33" t="n">
         <v>1</v>
@@ -6767,31 +6767,31 @@
         <v/>
       </c>
       <c r="B3" s="34" t="n">
-        <v>0.3283446614558645</v>
+        <v>0.3296136202903197</v>
       </c>
       <c r="C3" s="34" t="n">
-        <v>0.2327156874617388</v>
+        <v>0.2408002814966055</v>
       </c>
       <c r="D3" s="34" t="n">
-        <v>0.2043151652655733</v>
+        <v>0.2735602236576007</v>
       </c>
       <c r="E3" s="34" t="n">
-        <v>0.1782480766806828</v>
+        <v>0.409266145404599</v>
       </c>
       <c r="F3" s="34" t="n">
-        <v>0.1337317279482676</v>
+        <v>0.1331220605290735</v>
       </c>
       <c r="G3" s="34" t="n">
-        <v>0.05617657184782642</v>
+        <v>0.06085279102553114</v>
       </c>
       <c r="H3" s="34" t="n">
-        <v>0.05910683146307647</v>
+        <v>0.1093085375133622</v>
       </c>
       <c r="I3" s="34" t="n">
-        <v>0.06999739182740709</v>
+        <v>0.1920642442464565</v>
       </c>
       <c r="J3" s="34" t="n">
-        <v>0.1903935415227401</v>
+        <v>0.3279279868061678</v>
       </c>
       <c r="M3">
         <f>+M2+1</f>
@@ -6831,62 +6831,62 @@
         <v/>
       </c>
       <c r="B4" s="34" t="n">
-        <v>0.4842334306027363</v>
+        <v>0.4861048552422518</v>
       </c>
       <c r="C4" s="34" t="n">
-        <v>0.3315809034375719</v>
+        <v>0.3431000967641836</v>
       </c>
       <c r="D4" s="34" t="n">
-        <v>0.2911149128951352</v>
+        <v>0.3897775310909575</v>
       </c>
       <c r="E4" s="34" t="n">
-        <v>0.3203952770716071</v>
+        <v>0.7356429449044691</v>
       </c>
       <c r="F4" s="34" t="n">
-        <v>0.27494148864588</v>
+        <v>0.2736880623245141</v>
       </c>
       <c r="G4" s="34" t="n">
-        <v>0.1633581650402221</v>
+        <v>0.1769563352216461</v>
       </c>
       <c r="H4" s="34" t="n">
-        <v>0.1718791875607025</v>
+        <v>0.3178627944721056</v>
       </c>
       <c r="I4" s="34" t="n">
-        <v>0.2640301619729795</v>
+        <v>0.7244663292976339</v>
       </c>
       <c r="J4" s="34" t="n">
-        <v>0.3050540929883321</v>
+        <v>0.5095643751740492</v>
       </c>
       <c r="M4">
         <f>+M3+1</f>
         <v/>
       </c>
       <c r="N4" s="22" t="n">
-        <v>1.352195531171897</v>
+        <v>1.356091924115074</v>
       </c>
       <c r="O4" s="22" t="n">
-        <v>1.70666619200656</v>
+        <v>1.655907140651553</v>
       </c>
       <c r="P4" s="22" t="n">
-        <v>1.583076020971302</v>
+        <v>1.378558058478022</v>
       </c>
       <c r="Q4" s="22" t="n">
-        <v>1.511243105642766</v>
+        <v>1.09123460326554</v>
       </c>
       <c r="R4" s="22" t="n">
-        <v>1.90395323911719</v>
+        <v>1.920741137072072</v>
       </c>
       <c r="S4" s="22" t="n">
-        <v>2.693770880737745</v>
+        <v>2.537284590126104</v>
       </c>
       <c r="T4" s="22" t="n">
-        <v>1.749508766076875</v>
+        <v>1.284438631269219</v>
       </c>
       <c r="U4" s="22" t="n">
-        <v>1.343451617500356</v>
+        <v>1.095131421744325</v>
       </c>
       <c r="V4" s="22" t="n">
-        <v>1.547159563307034</v>
+        <v>1.234896330871781</v>
       </c>
     </row>
     <row r="5">
@@ -6895,62 +6895,62 @@
         <v/>
       </c>
       <c r="B5" s="34" t="n">
-        <v>0.6547782809050565</v>
+        <v>0.659202868467145</v>
       </c>
       <c r="C5" s="34" t="n">
-        <v>0.5658979178118957</v>
+        <v>0.5681419001900504</v>
       </c>
       <c r="D5" s="34" t="n">
-        <v>0.460857037951438</v>
+        <v>0.5373309564991074</v>
       </c>
       <c r="E5" s="34" t="n">
-        <v>0.4841951535549701</v>
+        <v>0.802759037127922</v>
       </c>
       <c r="F5" s="34" t="n">
-        <v>0.5234757378750254</v>
+        <v>0.5256839200322392</v>
       </c>
       <c r="G5" s="34" t="n">
-        <v>0.440049468116101</v>
+        <v>0.4489885824830718</v>
       </c>
       <c r="H5" s="34" t="n">
-        <v>0.3007041453436205</v>
+        <v>0.4082752526631606</v>
       </c>
       <c r="I5" s="34" t="n">
-        <v>0.3547117481714804</v>
+        <v>0.79338584120961</v>
       </c>
       <c r="J5" s="34" t="n">
-        <v>0.472237927731999</v>
+        <v>0.6437586778642873</v>
       </c>
       <c r="M5">
         <f>+M4+1</f>
         <v/>
       </c>
       <c r="N5" s="22" t="n">
-        <v>1.104928727472605</v>
+        <v>1.102956964025255</v>
       </c>
       <c r="O5" s="22" t="n">
-        <v>1.181115202215087</v>
+        <v>1.141192907039226</v>
       </c>
       <c r="P5" s="22" t="n">
-        <v>1.187087035771246</v>
+        <v>1.15656782196567</v>
       </c>
       <c r="Q5" s="22" t="n">
-        <v>1.12748674773932</v>
+        <v>1.017671252105559</v>
       </c>
       <c r="R5" s="22" t="n">
         <v>1.109231993520559</v>
       </c>
       <c r="S5" s="22" t="n">
-        <v>1.152306389125104</v>
+        <v>1.111600709262797</v>
       </c>
       <c r="T5" s="22" t="n">
-        <v>1.223201418525595</v>
+        <v>1.163402948272116</v>
       </c>
       <c r="U5" s="22" t="n">
-        <v>1.177437651667082</v>
+        <v>1.036553426248548</v>
       </c>
       <c r="V5" s="22" t="n">
-        <v>1.157286891755283</v>
+        <v>1.087119537035614</v>
       </c>
     </row>
     <row r="6">
@@ -6959,62 +6959,62 @@
         <v/>
       </c>
       <c r="B6" s="34" t="n">
-        <v>0.7234833326971242</v>
+        <v>0.727072394481262</v>
       </c>
       <c r="C6" s="34" t="n">
-        <v>0.6683906336294939</v>
+        <v>0.6483595066886735</v>
       </c>
       <c r="D6" s="34" t="n">
-        <v>0.5470774150960893</v>
+        <v>0.6214596940329027</v>
       </c>
       <c r="E6" s="34" t="n">
-        <v>0.545923618952834</v>
+        <v>0.816944794453025</v>
       </c>
       <c r="F6" s="34" t="n">
-        <v>0.58065603628276</v>
+        <v>0.5831054225790627</v>
       </c>
       <c r="G6" s="34" t="n">
-        <v>0.5070718136412867</v>
+        <v>0.4990960267390806</v>
       </c>
       <c r="H6" s="34" t="n">
-        <v>0.3678217371408432</v>
+        <v>0.4749886326548642</v>
       </c>
       <c r="I6" s="34" t="n">
-        <v>0.4176509677857532</v>
+        <v>0.8223868120429079</v>
       </c>
       <c r="J6" s="34" t="n">
-        <v>0.5464999080380569</v>
+        <v>0.7059186286841408</v>
       </c>
       <c r="M6">
         <f>+M5+1</f>
         <v/>
       </c>
       <c r="N6" s="22" t="n">
-        <v>1.069245389928849</v>
+        <v>1.068029859551867</v>
       </c>
       <c r="O6" s="22" t="n">
-        <v>1.095544981826091</v>
+        <v>1.113148940287817</v>
       </c>
       <c r="P6" s="22" t="n">
-        <v>1.051521905268509</v>
+        <v>1.02666815948647</v>
       </c>
       <c r="Q6" s="22" t="n">
-        <v>1.002717023620173</v>
+        <v>1.018031721448622</v>
       </c>
       <c r="R6" s="22" t="n">
-        <v>1.102499750616774</v>
+        <v>1.094320888524802</v>
       </c>
       <c r="S6" s="22" t="n">
-        <v>1.128422580366612</v>
+        <v>1.137450047416357</v>
       </c>
       <c r="T6" s="22" t="n">
-        <v>1.106597799016817</v>
+        <v>1.049811338578525</v>
       </c>
       <c r="U6" s="22" t="n">
-        <v>1.002762368366241</v>
+        <v>1.038872236565223</v>
       </c>
       <c r="V6" s="22" t="n">
-        <v>1.027119464444341</v>
+        <v>1.022349940467546</v>
       </c>
     </row>
     <row r="7">
@@ -7023,62 +7023,62 @@
         <v/>
       </c>
       <c r="B7" s="34" t="n">
-        <v>0.7735812181767601</v>
+        <v>0.7765350273618618</v>
       </c>
       <c r="C7" s="34" t="n">
-        <v>0.7322520045723535</v>
+        <v>0.7217206977960288</v>
       </c>
       <c r="D7" s="34" t="n">
-        <v>0.5752638858512109</v>
+        <v>0.6380328802677849</v>
       </c>
       <c r="E7" s="34" t="n">
-        <v>0.5474069063203393</v>
+        <v>0.8316757154255038</v>
       </c>
       <c r="F7" s="34" t="n">
-        <v>0.6401731351958675</v>
+        <v>0.6381044441403501</v>
       </c>
       <c r="G7" s="34" t="n">
-        <v>0.5721912843802786</v>
+        <v>0.5676967992796826</v>
       </c>
       <c r="H7" s="34" t="n">
-        <v>0.4070307247505994</v>
+        <v>0.4986484522569863</v>
       </c>
       <c r="I7" s="34" t="n">
-        <v>0.4188046736072946</v>
+        <v>0.8543548267487592</v>
       </c>
       <c r="J7" s="34" t="n">
-        <v>0.5609897866186034</v>
+        <v>0.7220975011191164</v>
       </c>
       <c r="M7">
         <f>+M6+1</f>
         <v/>
       </c>
       <c r="N7" s="22" t="n">
-        <v>1.045764945032958</v>
+        <v>1.053134520580761</v>
       </c>
       <c r="O7" s="22" t="n">
-        <v>1.072523401143091</v>
+        <v>1.091704905101344</v>
       </c>
       <c r="P7" s="22" t="n">
-        <v>1.129487715001148</v>
+        <v>1.126708235614289</v>
       </c>
       <c r="Q7" s="22" t="n">
-        <v>1</v>
+        <v>1.054030648438232</v>
       </c>
       <c r="R7" s="22" t="n">
-        <v>1.069925317728431</v>
+        <v>1.075756954798224</v>
       </c>
       <c r="S7" s="22" t="n">
-        <v>1.104887976592647</v>
+        <v>1.113635432197335</v>
       </c>
       <c r="T7" s="22" t="n">
-        <v>1.151989851291229</v>
+        <v>1.169484762500607</v>
       </c>
       <c r="U7" s="22" t="n">
-        <v>1</v>
+        <v>1.034989822418755</v>
       </c>
       <c r="V7" s="22" t="n">
-        <v>1.064743857500574</v>
+        <v>1.090369442026261</v>
       </c>
     </row>
     <row r="8">
@@ -7087,62 +7087,62 @@
         <v/>
       </c>
       <c r="B8" s="34" t="n">
-        <v>0.8089841201051481</v>
+        <v>0.8177958437549022</v>
       </c>
       <c r="C8" s="34" t="n">
-        <v>0.7853574104377868</v>
+        <v>0.7879060258970891</v>
       </c>
       <c r="D8" s="34" t="n">
-        <v>0.6497534919527654</v>
+        <v>0.718876900790419</v>
       </c>
       <c r="E8" s="34" t="n">
-        <v>0.5474069063203393</v>
+        <v>0.8766116936202747</v>
       </c>
       <c r="F8" s="34" t="n">
-        <v>0.6849374450756445</v>
+        <v>0.6864452936716362</v>
       </c>
       <c r="G8" s="34" t="n">
-        <v>0.6322072704228736</v>
+        <v>0.6322072704228734</v>
       </c>
       <c r="H8" s="34" t="n">
-        <v>0.4688952640764043</v>
+        <v>0.5831617667590567</v>
       </c>
       <c r="I8" s="34" t="n">
-        <v>0.4188046736072946</v>
+        <v>0.8842485504193043</v>
       </c>
       <c r="J8" s="34" t="n">
-        <v>0.5942053369185382</v>
+        <v>0.7899472295997751</v>
       </c>
       <c r="M8">
         <f>+M7+1</f>
         <v/>
       </c>
       <c r="N8" s="22" t="n">
-        <v>1.026704264986268</v>
+        <v>1.024431674303254</v>
       </c>
       <c r="O8" s="22" t="n">
-        <v>1.035725949737596</v>
+        <v>1.037138256113294</v>
       </c>
       <c r="P8" s="22" t="n">
-        <v>1.058138532212493</v>
+        <v>1.004375815140785</v>
       </c>
       <c r="Q8" s="22" t="n">
         <v>1</v>
       </c>
       <c r="R8" s="22" t="n">
-        <v>1.036727885766243</v>
+        <v>1.034450604967045</v>
       </c>
       <c r="S8" s="22" t="n">
         <v>1.048805023703314</v>
       </c>
       <c r="T8" s="22" t="n">
-        <v>1.081912092165926</v>
+        <v>1.01669621749409</v>
       </c>
       <c r="U8" s="22" t="n">
         <v>1</v>
       </c>
       <c r="V8" s="22" t="n">
-        <v>1.029069266106246</v>
+        <v>1.002187907570393</v>
       </c>
     </row>
     <row r="9">
@@ -7151,47 +7151,47 @@
         <v/>
       </c>
       <c r="B9" s="34" t="n">
-        <v>0.8305874464181187</v>
+        <v>0.8377759654560769</v>
       </c>
       <c r="C9" s="34" t="n">
-        <v>0.8134150498091358</v>
+        <v>0.8171674816800626</v>
       </c>
       <c r="D9" s="34" t="n">
-        <v>0.6875292062748409</v>
+        <v>0.7220225732172584</v>
       </c>
       <c r="E9" s="34" t="n">
-        <v>0.5474069063203393</v>
+        <v>0.8766116936202747</v>
       </c>
       <c r="F9" s="34" t="n">
-        <v>0.710093749315405</v>
+        <v>0.7100937493154049</v>
       </c>
       <c r="G9" s="34" t="n">
-        <v>0.6630621612412693</v>
+        <v>0.663062161241269</v>
       </c>
       <c r="H9" s="34" t="n">
-        <v>0.5073034561635966</v>
+        <v>0.5928983624511036</v>
       </c>
       <c r="I9" s="34" t="n">
-        <v>0.4188046736072946</v>
+        <v>0.8842485504193043</v>
       </c>
       <c r="J9" s="34" t="n">
-        <v>0.609518552374153</v>
+        <v>0.7918426920650686</v>
       </c>
       <c r="M9">
         <f>+M8+1</f>
         <v/>
       </c>
       <c r="N9" s="22" t="n">
-        <v>1.022200896629761</v>
+        <v>1.021742892454825</v>
       </c>
       <c r="O9" s="22" t="n">
-        <v>1.028411339085278</v>
+        <v>1.02906275499773</v>
       </c>
       <c r="P9" s="22" t="n">
-        <v>1.040227068148399</v>
+        <v>1.028890328441337</v>
       </c>
       <c r="Q9" s="22" t="n">
-        <v>1.044367449386231</v>
+        <v>1.006610029995026</v>
       </c>
       <c r="R9" s="22" t="n">
         <v>1.078259986821656</v>
@@ -7200,13 +7200,13 @@
         <v>1.104346649095541</v>
       </c>
       <c r="T9" s="22" t="n">
-        <v>1.190542877680059</v>
+        <v>1.018667877680059</v>
       </c>
       <c r="U9" s="22" t="n">
-        <v>1.037335755360118</v>
+        <v>1.00423281078768</v>
       </c>
       <c r="V9" s="22" t="n">
-        <v>1.042297258767315</v>
+        <v>1.017750179218182</v>
       </c>
     </row>
     <row r="10">
@@ -7215,47 +7215,47 @@
         <v/>
       </c>
       <c r="B10" s="34" t="n">
-        <v>0.8490272324580241</v>
+        <v>0.8559916381742257</v>
       </c>
       <c r="C10" s="34" t="n">
-        <v>0.8365252606063317</v>
+        <v>0.8409166199922425</v>
       </c>
       <c r="D10" s="34" t="n">
-        <v>0.715186490509674</v>
+        <v>0.7428820424995642</v>
       </c>
       <c r="E10" s="34" t="n">
-        <v>0.5716939545301805</v>
+        <v>0.8824061232090954</v>
       </c>
       <c r="F10" s="34" t="n">
-        <v>0.7656656767789689</v>
+        <v>0.7656656767789688</v>
       </c>
       <c r="G10" s="34" t="n">
-        <v>0.7322504759088431</v>
+        <v>0.7322504759088428</v>
       </c>
       <c r="H10" s="34" t="n">
         <v>0.6039665165580479</v>
       </c>
       <c r="I10" s="34" t="n">
-        <v>0.4344410624447707</v>
+        <v>0.8879914072225092</v>
       </c>
       <c r="J10" s="34" t="n">
-        <v>0.635440214453448</v>
+        <v>0.8066553082146793</v>
       </c>
       <c r="M10">
         <f>+M9+1</f>
         <v/>
       </c>
       <c r="N10" s="22" t="n">
-        <v>1.059570028688493</v>
+        <v>1.055321373515285</v>
       </c>
       <c r="O10" s="22" t="n">
-        <v>1.072646344772612</v>
+        <v>1.069097450193154</v>
       </c>
       <c r="P10" s="22" t="n">
-        <v>1.213032923152698</v>
+        <v>1.155367866791839</v>
       </c>
       <c r="Q10" s="22" t="n">
-        <v>1.310918592106042</v>
+        <v>1</v>
       </c>
       <c r="R10" s="22" t="n">
         <v>1.196137263046448</v>
@@ -7267,10 +7267,10 @@
         <v>1.467693146552615</v>
       </c>
       <c r="U10" s="22" t="n">
-        <v>1.930432446951383</v>
+        <v>1</v>
       </c>
       <c r="V10" s="22" t="n">
-        <v>1.26197575762937</v>
+        <v>1.07768393339592</v>
       </c>
     </row>
     <row r="11">
@@ -7279,41 +7279,41 @@
         <v/>
       </c>
       <c r="B11" s="34" t="n">
-        <v>0.8996038090528601</v>
+        <v>0.9033462713156228</v>
       </c>
       <c r="C11" s="34" t="n">
-        <v>0.8972957630993383</v>
+        <v>0.8990218142587516</v>
       </c>
       <c r="D11" s="34" t="n">
-        <v>0.8675447591822691</v>
+        <v>0.8583020407206859</v>
       </c>
       <c r="E11" s="34" t="n">
-        <v>0.74944423398824</v>
+        <v>0.8824061232090954</v>
       </c>
       <c r="F11" s="34" t="n">
-        <v>0.915841247031002</v>
+        <v>0.9158412470310018</v>
       </c>
       <c r="G11" s="34" t="n">
-        <v>0.9117774811703672</v>
+        <v>0.9117774811703668</v>
       </c>
       <c r="H11" s="34" t="n">
         <v>0.8864375170995034</v>
       </c>
       <c r="I11" s="34" t="n">
-        <v>0.8386591232314173</v>
+        <v>0.8879914072225092</v>
       </c>
       <c r="J11" s="34" t="n">
-        <v>0.8041816242929832</v>
+        <v>0.8701871939118994</v>
       </c>
       <c r="M11">
         <f>+M10+1</f>
         <v/>
       </c>
       <c r="N11" s="22" t="n">
-        <v>1.017614370295732</v>
+        <v>1.017180008835839</v>
       </c>
       <c r="O11" s="22" t="n">
-        <v>1.019820851634286</v>
+        <v>1.020308661417323</v>
       </c>
       <c r="P11" s="22" t="n">
         <v>1</v>
@@ -7343,47 +7343,47 @@
         <v/>
       </c>
       <c r="B12" s="34" t="n">
-        <v>0.9154497636649682</v>
+        <v>0.9188657682386475</v>
       </c>
       <c r="C12" s="34" t="n">
-        <v>0.9150809292918035</v>
+        <v>0.9172797438913199</v>
       </c>
       <c r="D12" s="34" t="n">
-        <v>0.8675447591822691</v>
+        <v>0.8583020407206859</v>
       </c>
       <c r="E12" s="34" t="n">
-        <v>0.74944423398824</v>
+        <v>0.8824061232090954</v>
       </c>
       <c r="F12" s="34" t="n">
-        <v>0.9326482243256565</v>
+        <v>0.9326482243256563</v>
       </c>
       <c r="G12" s="34" t="n">
-        <v>0.931298616213222</v>
+        <v>0.9312986162132219</v>
       </c>
       <c r="H12" s="34" t="n">
         <v>0.8864375170995034</v>
       </c>
       <c r="I12" s="34" t="n">
-        <v>0.8386591232314173</v>
+        <v>0.8879914072225092</v>
       </c>
       <c r="J12" s="34" t="n">
-        <v>0.8041816242929832</v>
+        <v>0.8701871939118994</v>
       </c>
       <c r="M12">
         <f>+M11+1</f>
         <v/>
       </c>
       <c r="N12" s="22" t="n">
-        <v>1.018882043398869</v>
+        <v>1.017371093711795</v>
       </c>
       <c r="O12" s="22" t="n">
-        <v>1.01929271605937</v>
+        <v>1.019130181204613</v>
       </c>
       <c r="P12" s="22" t="n">
-        <v>1.039069979037218</v>
+        <v>1.039823160149151</v>
       </c>
       <c r="Q12" s="22" t="n">
-        <v>1.102076590577743</v>
+        <v>1.060255445230955</v>
       </c>
       <c r="R12" s="22" t="n">
         <v>1.017697780147186</v>
@@ -7398,7 +7398,7 @@
         <v>1.067658519305703</v>
       </c>
       <c r="V12" s="22" t="n">
-        <v>1.07057328480748</v>
+        <v>1.050039302690053</v>
       </c>
     </row>
     <row r="13">
@@ -7407,47 +7407,47 @@
         <v/>
       </c>
       <c r="B13" s="34" t="n">
-        <v>0.9327353258319749</v>
+        <v>0.934827471607282</v>
       </c>
       <c r="C13" s="34" t="n">
-        <v>0.9327353258319749</v>
+        <v>0.934827471607282</v>
       </c>
       <c r="D13" s="34" t="n">
-        <v>0.9014397147373685</v>
+        <v>0.8924823403446491</v>
       </c>
       <c r="E13" s="34" t="n">
-        <v>0.8259449462219076</v>
+        <v>0.9355758970375803</v>
       </c>
       <c r="F13" s="34" t="n">
-        <v>0.9491540275544356</v>
+        <v>0.9491540275544355</v>
       </c>
       <c r="G13" s="34" t="n">
-        <v>0.9491540275544356</v>
+        <v>0.9491540275544355</v>
       </c>
       <c r="H13" s="34" t="n">
         <v>0.9164250420314914</v>
       </c>
       <c r="I13" s="34" t="n">
-        <v>0.8954015577114742</v>
+        <v>0.9480715909913717</v>
       </c>
       <c r="J13" s="34" t="n">
-        <v>0.8620425936833075</v>
+        <v>0.913521187764607</v>
       </c>
       <c r="M13">
         <f>+M12+1</f>
         <v/>
       </c>
       <c r="N13" s="22" t="n">
-        <v>1.018017913392416</v>
+        <v>1.016780308856297</v>
       </c>
       <c r="O13" s="22" t="n">
-        <v>1.018017913392416</v>
+        <v>1.016780308856297</v>
       </c>
       <c r="P13" s="22" t="n">
-        <v>1.036828465226947</v>
+        <v>1.041538180478079</v>
       </c>
       <c r="Q13" s="22" t="n">
-        <v>1.137951938321883</v>
+        <v>1.06886037056578</v>
       </c>
       <c r="R13" s="22" t="n">
         <v>1.017639306940035</v>
@@ -7462,7 +7462,7 @@
         <v>1.05477266643369</v>
       </c>
       <c r="V13" s="22" t="n">
-        <v>1.087390201774415</v>
+        <v>1.055199275521929</v>
       </c>
     </row>
     <row r="14">
@@ -7471,31 +7471,31 @@
         <v/>
       </c>
       <c r="B14" s="34" t="n">
-        <v>0.9495412701508625</v>
+        <v>0.9505141653082034</v>
       </c>
       <c r="C14" s="34" t="n">
-        <v>0.9495412701508625</v>
+        <v>0.9505141653082034</v>
       </c>
       <c r="D14" s="34" t="n">
-        <v>0.9346383559257626</v>
+        <v>0.9295544328713833</v>
       </c>
       <c r="E14" s="34" t="n">
-        <v>0.9398856525003829</v>
+        <v>1</v>
       </c>
       <c r="F14" s="34" t="n">
-        <v>0.965896446779839</v>
+        <v>0.9658964467798389</v>
       </c>
       <c r="G14" s="34" t="n">
-        <v>0.965896446779839</v>
+        <v>0.9658964467798389</v>
       </c>
       <c r="H14" s="34" t="n">
         <v>0.9487552472393485</v>
       </c>
       <c r="I14" s="34" t="n">
-        <v>0.9444450885562112</v>
+        <v>1</v>
       </c>
       <c r="J14" s="34" t="n">
-        <v>0.9372546599162758</v>
+        <v>0.9634912776086931</v>
       </c>
       <c r="M14">
         <f>+M13+1</f>
@@ -7535,44 +7535,44 @@
         <v/>
       </c>
       <c r="B15" s="34" t="n">
-        <v>0.9495412701508625</v>
+        <v>0.9505141653082034</v>
       </c>
       <c r="C15" s="34" t="n">
-        <v>0.9495412701508625</v>
+        <v>0.9505141653082034</v>
       </c>
       <c r="D15" s="34" t="n">
-        <v>0.9346383559257626</v>
+        <v>0.9295544328713833</v>
       </c>
       <c r="E15" s="34" t="n">
-        <v>0.9398856525003829</v>
+        <v>1</v>
       </c>
       <c r="F15" s="34" t="n">
-        <v>0.965896446779839</v>
+        <v>0.9658964467798389</v>
       </c>
       <c r="G15" s="34" t="n">
-        <v>0.965896446779839</v>
+        <v>0.9658964467798389</v>
       </c>
       <c r="H15" s="34" t="n">
         <v>0.9487552472393485</v>
       </c>
       <c r="I15" s="34" t="n">
-        <v>0.9444450885562112</v>
+        <v>1</v>
       </c>
       <c r="J15" s="34" t="n">
-        <v>0.9372546599162758</v>
+        <v>0.9634912776086931</v>
       </c>
       <c r="M15">
         <f>+M14+1</f>
         <v/>
       </c>
       <c r="N15" s="22" t="n">
-        <v>1.021649997271745</v>
+        <v>1.022061439545325</v>
       </c>
       <c r="O15" s="22" t="n">
-        <v>1.021649997271745</v>
+        <v>1.022061439545325</v>
       </c>
       <c r="P15" s="22" t="n">
-        <v>1.030604281133592</v>
+        <v>1.035816852660975</v>
       </c>
       <c r="Q15" s="22" t="n">
         <v>1</v>
@@ -7590,7 +7590,7 @@
         <v>1</v>
       </c>
       <c r="V15" s="22" t="n">
-        <v>1.015302140566796</v>
+        <v>1.017908426330487</v>
       </c>
     </row>
     <row r="16">
@@ -7599,47 +7599,47 @@
         <v/>
       </c>
       <c r="B16" s="34" t="n">
-        <v>0.9700988360590376</v>
+        <v>0.9714838761031256</v>
       </c>
       <c r="C16" s="34" t="n">
-        <v>0.9700988360590376</v>
+        <v>0.9714838761031256</v>
       </c>
       <c r="D16" s="34" t="n">
-        <v>0.9632422909287531</v>
+        <v>0.9628481470338933</v>
       </c>
       <c r="E16" s="34" t="n">
-        <v>0.9398856525003829</v>
+        <v>1</v>
       </c>
       <c r="F16" s="34" t="n">
-        <v>0.9798668541926542</v>
+        <v>0.979866854192654</v>
       </c>
       <c r="G16" s="34" t="n">
-        <v>0.9798668541926542</v>
+        <v>0.979866854192654</v>
       </c>
       <c r="H16" s="34" t="n">
         <v>0.9716260518395178</v>
       </c>
       <c r="I16" s="34" t="n">
-        <v>0.9444450885562112</v>
+        <v>1</v>
       </c>
       <c r="J16" s="34" t="n">
-        <v>0.9514206464692641</v>
+        <v>0.9810724772457575</v>
       </c>
       <c r="M16">
         <f>+M15+1</f>
         <v/>
       </c>
       <c r="N16" s="22" t="n">
-        <v>1.015213861230753</v>
+        <v>1.015451726736889</v>
       </c>
       <c r="O16" s="22" t="n">
-        <v>1.015213861230753</v>
+        <v>1.015451726736889</v>
       </c>
       <c r="P16" s="22" t="n">
-        <v>1.019550193248921</v>
+        <v>1.021128551851084</v>
       </c>
       <c r="Q16" s="22" t="n">
-        <v>1.035044831953566</v>
+        <v>1</v>
       </c>
       <c r="R16" s="22" t="n">
         <v>1.010422965623909</v>
@@ -7651,10 +7651,10 @@
         <v>1.015634448435863</v>
       </c>
       <c r="U16" s="22" t="n">
-        <v>1.031268896871726</v>
+        <v>1</v>
       </c>
       <c r="V16" s="22" t="n">
-        <v>1.027297512601244</v>
+        <v>1.010564275925542</v>
       </c>
     </row>
     <row r="17">
@@ -7663,16 +7663,16 @@
         <v/>
       </c>
       <c r="B17" s="34" t="n">
-        <v>0.9848577851309547</v>
+        <v>0.9864949794859644</v>
       </c>
       <c r="C17" s="34" t="n">
-        <v>0.9848577851309547</v>
+        <v>0.9864949794859644</v>
       </c>
       <c r="D17" s="34" t="n">
-        <v>0.9820738638619442</v>
+        <v>0.983191734033219</v>
       </c>
       <c r="E17" s="34" t="n">
-        <v>0.9728237872478267</v>
+        <v>1</v>
       </c>
       <c r="F17" s="34" t="n">
         <v>0.9900799727299117</v>
@@ -7684,26 +7684,26 @@
         <v>0.9868168892459438</v>
       </c>
       <c r="I17" s="34" t="n">
-        <v>0.9739768446312833</v>
+        <v>1</v>
       </c>
       <c r="J17" s="34" t="n">
-        <v>0.9774269410543546</v>
+        <v>0.9915246389553075</v>
       </c>
       <c r="M17">
         <f>+M16+1</f>
         <v/>
       </c>
       <c r="N17" s="22" t="n">
-        <v>1.015375026828906</v>
+        <v>1.013689902933994</v>
       </c>
       <c r="O17" s="22" t="n">
-        <v>1.015375026828906</v>
+        <v>1.013689902933994</v>
       </c>
       <c r="P17" s="22" t="n">
-        <v>1.018253348141821</v>
+        <v>1.017095613586813</v>
       </c>
       <c r="Q17" s="22" t="n">
-        <v>1.027935390877989</v>
+        <v>1</v>
       </c>
       <c r="R17" s="22" t="n">
         <v>1.01001942019162</v>
@@ -7715,10 +7715,10 @@
         <v>1.01335922692216</v>
       </c>
       <c r="U17" s="22" t="n">
-        <v>1.026718453844319</v>
+        <v>1</v>
       </c>
       <c r="V17" s="22" t="n">
-        <v>1.023094369509905</v>
+        <v>1.008547806793407</v>
       </c>
     </row>
     <row r="18">
@@ -8234,7 +8234,7 @@
         </is>
       </c>
       <c r="H4" s="8" t="n">
-        <v>45808</v>
+        <v>45838</v>
       </c>
       <c r="J4" s="40" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v/>
       </c>
       <c r="B8" s="14" t="n">
-        <v>1341.53</v>
+        <v>6299.240000000001</v>
       </c>
       <c r="C8" s="14">
         <f>+'Completion Factors'!J30</f>
@@ -8582,7 +8582,7 @@
         <v/>
       </c>
       <c r="I8" s="14" t="n">
-        <v>5005.4375</v>
+        <v>4973.020833333333</v>
       </c>
       <c r="J8" s="14">
         <f>100*$G8/$I8</f>
@@ -8608,73 +8608,73 @@
         <v/>
       </c>
       <c r="T8" s="22" t="n">
-        <v/>
+        <v>3455.1</v>
       </c>
       <c r="U8" s="22" t="n">
-        <v>1022</v>
+        <v>4443.1</v>
       </c>
       <c r="V8" s="22" t="n">
-        <v>1022</v>
+        <v>4832.1</v>
       </c>
       <c r="W8" s="22" t="n">
-        <v>1022</v>
+        <v>6299.240000000001</v>
       </c>
       <c r="X8" s="22" t="n">
-        <v>1291.53</v>
+        <v>6299.240000000001</v>
       </c>
       <c r="Y8" s="22" t="n">
-        <v>1291.53</v>
+        <v>6299.240000000001</v>
       </c>
       <c r="Z8" s="22" t="n">
-        <v>1341.53</v>
+        <v>6299.240000000001</v>
       </c>
       <c r="AA8" s="22" t="n">
-        <v>1341.53</v>
+        <v>6299.240000000001</v>
       </c>
       <c r="AB8" s="22" t="n">
-        <v>1341.53</v>
+        <v>6299.240000000001</v>
       </c>
       <c r="AC8" s="22" t="n">
-        <v>1341.53</v>
+        <v>6299.240000000001</v>
       </c>
       <c r="AD8" s="22" t="n">
-        <v>1341.53</v>
+        <v>6299.240000000001</v>
       </c>
       <c r="AE8" s="22" t="n">
-        <v>1341.53</v>
+        <v>6299.240000000001</v>
       </c>
       <c r="AF8" s="22" t="n">
-        <v>1341.53</v>
+        <v>6299.240000000001</v>
       </c>
       <c r="AG8" s="22" t="n">
-        <v>1341.53</v>
+        <v>6299.240000000001</v>
       </c>
       <c r="AH8" s="22" t="n">
-        <v>1341.53</v>
+        <v>6299.240000000001</v>
       </c>
       <c r="AI8" s="22" t="n">
-        <v>1341.53</v>
+        <v>6299.240000000001</v>
       </c>
       <c r="AJ8" s="22" t="n">
-        <v>1341.53</v>
+        <v>6299.240000000001</v>
       </c>
       <c r="AK8" s="22" t="n">
-        <v>1341.53</v>
+        <v>6299.240000000001</v>
       </c>
       <c r="AL8" s="22" t="n">
-        <v>1341.53</v>
+        <v>6299.240000000001</v>
       </c>
       <c r="AM8" s="22" t="n">
-        <v>1341.53</v>
+        <v>6299.240000000001</v>
       </c>
       <c r="AN8" s="22" t="n">
-        <v>1341.53</v>
+        <v>6299.240000000001</v>
       </c>
       <c r="AO8" s="22" t="n">
-        <v>1341.53</v>
+        <v>6299.240000000001</v>
       </c>
       <c r="AP8" s="22" t="n">
-        <v>1341.53</v>
+        <v>6299.240000000001</v>
       </c>
       <c r="AQ8" s="14" t="n"/>
       <c r="AR8" s="14" t="n"/>
@@ -8685,7 +8685,7 @@
         <v/>
       </c>
       <c r="B9" s="14" t="n">
-        <v>6299.240000000001</v>
+        <v>4542</v>
       </c>
       <c r="C9" s="14">
         <f>+'Completion Factors'!J29</f>
@@ -8709,7 +8709,7 @@
         <v/>
       </c>
       <c r="I9" s="14" t="n">
-        <v>4973.020833333333</v>
+        <v>4940.436666666666</v>
       </c>
       <c r="J9" s="14">
         <f>100*$G9/$I9</f>
@@ -8732,73 +8732,73 @@
         <v/>
       </c>
       <c r="S9" s="22" t="n">
-        <v/>
+        <v>933</v>
       </c>
       <c r="T9" s="22" t="n">
-        <v>3455.1</v>
+        <v>2531</v>
       </c>
       <c r="U9" s="22" t="n">
-        <v>4443.1</v>
+        <v>4112</v>
       </c>
       <c r="V9" s="22" t="n">
-        <v>4832.1</v>
+        <v>4312</v>
       </c>
       <c r="W9" s="22" t="n">
-        <v>6299.240000000001</v>
+        <v>4542</v>
       </c>
       <c r="X9" s="22" t="n">
-        <v>6299.240000000001</v>
+        <v>4542</v>
       </c>
       <c r="Y9" s="22" t="n">
-        <v>6299.240000000001</v>
+        <v>4542</v>
       </c>
       <c r="Z9" s="22" t="n">
-        <v>6299.240000000001</v>
+        <v>4542</v>
       </c>
       <c r="AA9" s="22" t="n">
-        <v>6299.240000000001</v>
+        <v>4542</v>
       </c>
       <c r="AB9" s="22" t="n">
-        <v>6299.240000000001</v>
+        <v>4542</v>
       </c>
       <c r="AC9" s="22" t="n">
-        <v>6299.240000000001</v>
+        <v>4542</v>
       </c>
       <c r="AD9" s="22" t="n">
-        <v>6299.240000000001</v>
+        <v>4542</v>
       </c>
       <c r="AE9" s="22" t="n">
-        <v>6299.240000000001</v>
+        <v>4542</v>
       </c>
       <c r="AF9" s="22" t="n">
-        <v>6299.240000000001</v>
+        <v>4542</v>
       </c>
       <c r="AG9" s="22" t="n">
-        <v>6299.240000000001</v>
+        <v>4542</v>
       </c>
       <c r="AH9" s="22" t="n">
-        <v>6299.240000000001</v>
+        <v>4542</v>
       </c>
       <c r="AI9" s="22" t="n">
-        <v>6299.240000000001</v>
+        <v>4542</v>
       </c>
       <c r="AJ9" s="22" t="n">
-        <v>6299.240000000001</v>
+        <v>4542</v>
       </c>
       <c r="AK9" s="22" t="n">
-        <v>6299.240000000001</v>
+        <v>4542</v>
       </c>
       <c r="AL9" s="22" t="n">
-        <v>6299.240000000001</v>
+        <v>4542</v>
       </c>
       <c r="AM9" s="22" t="n">
-        <v>6299.240000000001</v>
+        <v>4542</v>
       </c>
       <c r="AN9" s="22" t="n">
-        <v>6299.240000000001</v>
+        <v>4542</v>
       </c>
       <c r="AO9" s="22" t="n">
-        <v>6299.240000000001</v>
+        <v>4542</v>
       </c>
       <c r="AP9" s="22" t="n">
         <v/>
@@ -8812,7 +8812,7 @@
         <v/>
       </c>
       <c r="B10" s="14" t="n">
-        <v>4542</v>
+        <v>3689</v>
       </c>
       <c r="C10" s="14">
         <f>+'Completion Factors'!J28</f>
@@ -8836,7 +8836,7 @@
         <v/>
       </c>
       <c r="I10" s="14" t="n">
-        <v>4940.436666666666</v>
+        <v>4909.183333333333</v>
       </c>
       <c r="J10" s="14">
         <f>100*$G10/$I10</f>
@@ -8859,70 +8859,70 @@
         <v/>
       </c>
       <c r="S10" s="22" t="n">
-        <v>933</v>
+        <v>273</v>
       </c>
       <c r="T10" s="22" t="n">
-        <v>2531</v>
+        <v>2317</v>
       </c>
       <c r="U10" s="22" t="n">
-        <v>4112</v>
+        <v>3507</v>
       </c>
       <c r="V10" s="22" t="n">
-        <v>4312</v>
+        <v>3689</v>
       </c>
       <c r="W10" s="22" t="n">
-        <v>4542</v>
+        <v>3689</v>
       </c>
       <c r="X10" s="22" t="n">
-        <v>4542</v>
+        <v>3689</v>
       </c>
       <c r="Y10" s="22" t="n">
-        <v>4542</v>
+        <v>3689</v>
       </c>
       <c r="Z10" s="22" t="n">
-        <v>4542</v>
+        <v>3689</v>
       </c>
       <c r="AA10" s="22" t="n">
-        <v>4542</v>
+        <v>3689</v>
       </c>
       <c r="AB10" s="22" t="n">
-        <v>4542</v>
+        <v>3689</v>
       </c>
       <c r="AC10" s="22" t="n">
-        <v>4542</v>
+        <v>3689</v>
       </c>
       <c r="AD10" s="22" t="n">
-        <v>4542</v>
+        <v>3689</v>
       </c>
       <c r="AE10" s="22" t="n">
-        <v>4542</v>
+        <v>3689</v>
       </c>
       <c r="AF10" s="22" t="n">
-        <v>4542</v>
+        <v>3689</v>
       </c>
       <c r="AG10" s="22" t="n">
-        <v>4542</v>
+        <v>3689</v>
       </c>
       <c r="AH10" s="22" t="n">
-        <v>4542</v>
+        <v>3689</v>
       </c>
       <c r="AI10" s="22" t="n">
-        <v>4542</v>
+        <v>3689</v>
       </c>
       <c r="AJ10" s="22" t="n">
-        <v>4542</v>
+        <v>3689</v>
       </c>
       <c r="AK10" s="22" t="n">
-        <v>4542</v>
+        <v>3689</v>
       </c>
       <c r="AL10" s="22" t="n">
-        <v>4542</v>
+        <v>3689</v>
       </c>
       <c r="AM10" s="22" t="n">
-        <v>4542</v>
+        <v>3689</v>
       </c>
       <c r="AN10" s="22" t="n">
-        <v>4542</v>
+        <v>3689</v>
       </c>
       <c r="AO10" s="22" t="n">
         <v/>
@@ -8939,7 +8939,7 @@
         <v/>
       </c>
       <c r="B11" s="14" t="n">
-        <v>3689</v>
+        <v>5914.75</v>
       </c>
       <c r="C11" s="14">
         <f>+'Completion Factors'!J27</f>
@@ -8963,7 +8963,7 @@
         <v/>
       </c>
       <c r="I11" s="14" t="n">
-        <v>4909.183333333333</v>
+        <v>4864.166666666667</v>
       </c>
       <c r="J11" s="14">
         <f>100*$G11/$I11</f>
@@ -8986,67 +8986,67 @@
         <v/>
       </c>
       <c r="S11" s="22" t="n">
-        <v>273</v>
+        <v/>
       </c>
       <c r="T11" s="22" t="n">
-        <v>2317</v>
+        <v>2488</v>
       </c>
       <c r="U11" s="22" t="n">
-        <v>3507</v>
+        <v>2488</v>
       </c>
       <c r="V11" s="22" t="n">
-        <v>3689</v>
+        <v>4142.75</v>
       </c>
       <c r="W11" s="22" t="n">
-        <v>3689</v>
+        <v>4142.75</v>
       </c>
       <c r="X11" s="22" t="n">
-        <v>3689</v>
+        <v>4142.75</v>
       </c>
       <c r="Y11" s="22" t="n">
-        <v>3689</v>
+        <v>4142.75</v>
       </c>
       <c r="Z11" s="22" t="n">
-        <v>3689</v>
+        <v>4142.75</v>
       </c>
       <c r="AA11" s="22" t="n">
-        <v>3689</v>
+        <v>4142.75</v>
       </c>
       <c r="AB11" s="22" t="n">
-        <v>3689</v>
+        <v>4705.75</v>
       </c>
       <c r="AC11" s="22" t="n">
-        <v>3689</v>
+        <v>5914.75</v>
       </c>
       <c r="AD11" s="22" t="n">
-        <v>3689</v>
+        <v>5914.75</v>
       </c>
       <c r="AE11" s="22" t="n">
-        <v>3689</v>
+        <v>5914.75</v>
       </c>
       <c r="AF11" s="22" t="n">
-        <v>3689</v>
+        <v>5914.75</v>
       </c>
       <c r="AG11" s="22" t="n">
-        <v>3689</v>
+        <v>5914.75</v>
       </c>
       <c r="AH11" s="22" t="n">
-        <v>3689</v>
+        <v>5914.75</v>
       </c>
       <c r="AI11" s="22" t="n">
-        <v>3689</v>
+        <v>5914.75</v>
       </c>
       <c r="AJ11" s="22" t="n">
-        <v>3689</v>
+        <v>5914.75</v>
       </c>
       <c r="AK11" s="22" t="n">
-        <v>3689</v>
+        <v>5914.75</v>
       </c>
       <c r="AL11" s="22" t="n">
-        <v>3689</v>
+        <v>5914.75</v>
       </c>
       <c r="AM11" s="22" t="n">
-        <v>3689</v>
+        <v>5914.75</v>
       </c>
       <c r="AN11" s="22" t="n">
         <v/>
@@ -9066,7 +9066,7 @@
         <v/>
       </c>
       <c r="B12" s="14" t="n">
-        <v>5914.75</v>
+        <v>10039.45</v>
       </c>
       <c r="C12" s="14">
         <f>++'Completion Factors'!J26</f>
@@ -9090,7 +9090,7 @@
         <v/>
       </c>
       <c r="I12" s="14" t="n">
-        <v>4864.166666666667</v>
+        <v>4828.1075</v>
       </c>
       <c r="J12" s="14">
         <f>100*$G12/$I12</f>
@@ -9116,61 +9116,61 @@
         <v/>
       </c>
       <c r="T12" s="22" t="n">
-        <v>2488</v>
+        <v/>
       </c>
       <c r="U12" s="22" t="n">
-        <v>2488</v>
+        <v>6517</v>
       </c>
       <c r="V12" s="22" t="n">
-        <v>4142.75</v>
+        <v>7106</v>
       </c>
       <c r="W12" s="22" t="n">
-        <v>4142.75</v>
+        <v>7106</v>
       </c>
       <c r="X12" s="22" t="n">
-        <v>4142.75</v>
+        <v>8120</v>
       </c>
       <c r="Y12" s="22" t="n">
-        <v>4142.75</v>
+        <v>8120</v>
       </c>
       <c r="Z12" s="22" t="n">
-        <v>4142.75</v>
+        <v>8120</v>
       </c>
       <c r="AA12" s="22" t="n">
-        <v>4142.75</v>
+        <v>8120</v>
       </c>
       <c r="AB12" s="22" t="n">
-        <v>4705.75</v>
+        <v>8120</v>
       </c>
       <c r="AC12" s="22" t="n">
-        <v>5914.75</v>
+        <v>8120</v>
       </c>
       <c r="AD12" s="22" t="n">
-        <v>5914.75</v>
+        <v>8120</v>
       </c>
       <c r="AE12" s="22" t="n">
-        <v>5914.75</v>
+        <v>8120</v>
       </c>
       <c r="AF12" s="22" t="n">
-        <v>5914.75</v>
+        <v>8120</v>
       </c>
       <c r="AG12" s="22" t="n">
-        <v>5914.75</v>
+        <v>9294.450000000001</v>
       </c>
       <c r="AH12" s="22" t="n">
-        <v>5914.75</v>
+        <v>9294.450000000001</v>
       </c>
       <c r="AI12" s="22" t="n">
-        <v>5914.75</v>
+        <v>10039.45</v>
       </c>
       <c r="AJ12" s="22" t="n">
-        <v>5914.75</v>
+        <v>10039.45</v>
       </c>
       <c r="AK12" s="22" t="n">
-        <v>5914.75</v>
+        <v>10039.45</v>
       </c>
       <c r="AL12" s="22" t="n">
-        <v>5914.75</v>
+        <v>10039.45</v>
       </c>
       <c r="AM12" s="22" t="n">
         <v/>
@@ -9193,7 +9193,7 @@
         <v/>
       </c>
       <c r="B13" s="14" t="n">
-        <v>10039.45</v>
+        <v>9743.629999999999</v>
       </c>
       <c r="C13" s="14">
         <f>++'Completion Factors'!J25</f>
@@ -9217,7 +9217,7 @@
         <v/>
       </c>
       <c r="I13" s="14" t="n">
-        <v>4828.1075</v>
+        <v>4792.87</v>
       </c>
       <c r="J13" s="14">
         <f>100*$G13/$I13</f>
@@ -9243,58 +9243,58 @@
         <v/>
       </c>
       <c r="T13" s="22" t="n">
-        <v/>
+        <v>1454</v>
       </c>
       <c r="U13" s="22" t="n">
-        <v>6517</v>
+        <v>4663</v>
       </c>
       <c r="V13" s="22" t="n">
-        <v>7106</v>
+        <v>8673</v>
       </c>
       <c r="W13" s="22" t="n">
-        <v>7106</v>
+        <v>8673</v>
       </c>
       <c r="X13" s="22" t="n">
-        <v>8120</v>
+        <v>8673</v>
       </c>
       <c r="Y13" s="22" t="n">
-        <v>8120</v>
+        <v>8673</v>
       </c>
       <c r="Z13" s="22" t="n">
-        <v>8120</v>
+        <v>8673</v>
       </c>
       <c r="AA13" s="22" t="n">
-        <v>8120</v>
+        <v>8673</v>
       </c>
       <c r="AB13" s="22" t="n">
-        <v>8120</v>
+        <v>8673</v>
       </c>
       <c r="AC13" s="22" t="n">
-        <v>8120</v>
+        <v>8673</v>
       </c>
       <c r="AD13" s="22" t="n">
-        <v>8120</v>
+        <v>8908</v>
       </c>
       <c r="AE13" s="22" t="n">
-        <v>8120</v>
+        <v>8908</v>
       </c>
       <c r="AF13" s="22" t="n">
-        <v>8120</v>
+        <v>8908</v>
       </c>
       <c r="AG13" s="22" t="n">
-        <v>9294.450000000001</v>
+        <v>8908</v>
       </c>
       <c r="AH13" s="22" t="n">
-        <v>9294.450000000001</v>
+        <v>9743.629999999999</v>
       </c>
       <c r="AI13" s="22" t="n">
-        <v>10039.45</v>
+        <v>9743.629999999999</v>
       </c>
       <c r="AJ13" s="22" t="n">
-        <v>10039.45</v>
+        <v>9743.629999999999</v>
       </c>
       <c r="AK13" s="22" t="n">
-        <v>10039.45</v>
+        <v>9743.629999999999</v>
       </c>
       <c r="AL13" s="22" t="n">
         <v/>
@@ -9320,7 +9320,7 @@
         <v/>
       </c>
       <c r="B14" s="14" t="n">
-        <v>9743.629999999999</v>
+        <v>7630.6</v>
       </c>
       <c r="C14" s="14">
         <f>++'Completion Factors'!J24</f>
@@ -9344,7 +9344,7 @@
         <v/>
       </c>
       <c r="I14" s="14" t="n">
-        <v>4792.87</v>
+        <v>4752.311666666667</v>
       </c>
       <c r="J14" s="14">
         <f>100*$G14/$I14</f>
@@ -9370,55 +9370,55 @@
         <v/>
       </c>
       <c r="T14" s="22" t="n">
-        <v>1454</v>
+        <v/>
       </c>
       <c r="U14" s="22" t="n">
-        <v>4663</v>
+        <v>6953</v>
       </c>
       <c r="V14" s="22" t="n">
-        <v>8673</v>
+        <v>7047</v>
       </c>
       <c r="W14" s="22" t="n">
-        <v>8673</v>
+        <v>7047</v>
       </c>
       <c r="X14" s="22" t="n">
-        <v>8673</v>
+        <v>7047</v>
       </c>
       <c r="Y14" s="22" t="n">
-        <v>8673</v>
+        <v>7047</v>
       </c>
       <c r="Z14" s="22" t="n">
-        <v>8673</v>
+        <v>7047</v>
       </c>
       <c r="AA14" s="22" t="n">
-        <v>8673</v>
+        <v>7285.6</v>
       </c>
       <c r="AB14" s="22" t="n">
-        <v>8673</v>
+        <v>7285.6</v>
       </c>
       <c r="AC14" s="22" t="n">
-        <v>8673</v>
+        <v>7285.6</v>
       </c>
       <c r="AD14" s="22" t="n">
-        <v>8908</v>
+        <v>7285.6</v>
       </c>
       <c r="AE14" s="22" t="n">
-        <v>8908</v>
+        <v>7630.6</v>
       </c>
       <c r="AF14" s="22" t="n">
-        <v>8908</v>
+        <v>7630.6</v>
       </c>
       <c r="AG14" s="22" t="n">
-        <v>8908</v>
+        <v>7630.6</v>
       </c>
       <c r="AH14" s="22" t="n">
-        <v>9743.629999999999</v>
+        <v>7630.6</v>
       </c>
       <c r="AI14" s="22" t="n">
-        <v>9743.629999999999</v>
+        <v>7630.6</v>
       </c>
       <c r="AJ14" s="22" t="n">
-        <v>9743.629999999999</v>
+        <v>7630.6</v>
       </c>
       <c r="AK14" s="22" t="n">
         <v/>
@@ -9447,7 +9447,7 @@
         <v/>
       </c>
       <c r="B15" s="14" t="n">
-        <v>7630.6</v>
+        <v>7306</v>
       </c>
       <c r="C15" s="14">
         <f>++'Completion Factors'!J23</f>
@@ -9471,7 +9471,7 @@
         <v/>
       </c>
       <c r="I15" s="14" t="n">
-        <v>4752.311666666667</v>
+        <v>4722.149166666667</v>
       </c>
       <c r="J15" s="14">
         <f>100*$G15/$I15</f>
@@ -9497,52 +9497,52 @@
         <v/>
       </c>
       <c r="T15" s="22" t="n">
-        <v/>
+        <v>2530</v>
       </c>
       <c r="U15" s="22" t="n">
-        <v>6953</v>
+        <v>2905</v>
       </c>
       <c r="V15" s="22" t="n">
-        <v>7047</v>
+        <v>2905</v>
       </c>
       <c r="W15" s="22" t="n">
-        <v>7047</v>
+        <v>4324</v>
       </c>
       <c r="X15" s="22" t="n">
-        <v>7047</v>
+        <v>6211</v>
       </c>
       <c r="Y15" s="22" t="n">
-        <v>7047</v>
+        <v>6211</v>
       </c>
       <c r="Z15" s="22" t="n">
-        <v>7047</v>
+        <v>6796</v>
       </c>
       <c r="AA15" s="22" t="n">
-        <v>7285.6</v>
+        <v>7306</v>
       </c>
       <c r="AB15" s="22" t="n">
-        <v>7285.6</v>
+        <v>7306</v>
       </c>
       <c r="AC15" s="22" t="n">
-        <v>7285.6</v>
+        <v>7306</v>
       </c>
       <c r="AD15" s="22" t="n">
-        <v>7285.6</v>
+        <v>7306</v>
       </c>
       <c r="AE15" s="22" t="n">
-        <v>7630.6</v>
+        <v>7306</v>
       </c>
       <c r="AF15" s="22" t="n">
-        <v>7630.6</v>
+        <v>7306</v>
       </c>
       <c r="AG15" s="22" t="n">
-        <v>7630.6</v>
+        <v>7306</v>
       </c>
       <c r="AH15" s="22" t="n">
-        <v>7630.6</v>
+        <v>7306</v>
       </c>
       <c r="AI15" s="22" t="n">
-        <v>7630.6</v>
+        <v>7306</v>
       </c>
       <c r="AJ15" s="22" t="n">
         <v/>
@@ -9574,7 +9574,7 @@
         <v/>
       </c>
       <c r="B16" s="14" t="n">
-        <v>7306</v>
+        <v>496</v>
       </c>
       <c r="C16" s="14">
         <f>++'Completion Factors'!J22</f>
@@ -9598,7 +9598,7 @@
         <v/>
       </c>
       <c r="I16" s="14" t="n">
-        <v>4722.149166666667</v>
+        <v>4712.149166666667</v>
       </c>
       <c r="J16" s="14">
         <f>100*$G16/$I16</f>
@@ -9624,49 +9624,49 @@
         <v/>
       </c>
       <c r="T16" s="22" t="n">
-        <v>2530</v>
+        <v/>
       </c>
       <c r="U16" s="22" t="n">
-        <v>2905</v>
+        <v/>
       </c>
       <c r="V16" s="22" t="n">
-        <v>2905</v>
+        <v>421</v>
       </c>
       <c r="W16" s="22" t="n">
-        <v>4324</v>
+        <v>421</v>
       </c>
       <c r="X16" s="22" t="n">
-        <v>6211</v>
+        <v>421</v>
       </c>
       <c r="Y16" s="22" t="n">
-        <v>6211</v>
+        <v>496</v>
       </c>
       <c r="Z16" s="22" t="n">
-        <v>6796</v>
+        <v>496</v>
       </c>
       <c r="AA16" s="22" t="n">
-        <v>7306</v>
+        <v>496</v>
       </c>
       <c r="AB16" s="22" t="n">
-        <v>7306</v>
+        <v>496</v>
       </c>
       <c r="AC16" s="22" t="n">
-        <v>7306</v>
+        <v>496</v>
       </c>
       <c r="AD16" s="22" t="n">
-        <v>7306</v>
+        <v>496</v>
       </c>
       <c r="AE16" s="22" t="n">
-        <v>7306</v>
+        <v>496</v>
       </c>
       <c r="AF16" s="22" t="n">
-        <v>7306</v>
+        <v>496</v>
       </c>
       <c r="AG16" s="22" t="n">
-        <v>7306</v>
+        <v>496</v>
       </c>
       <c r="AH16" s="22" t="n">
-        <v>7306</v>
+        <v>496</v>
       </c>
       <c r="AI16" s="22" t="n">
         <v/>
@@ -9701,7 +9701,7 @@
         <v/>
       </c>
       <c r="B17" s="14" t="n">
-        <v>496</v>
+        <v>329.83</v>
       </c>
       <c r="C17" s="14">
         <f>++'Completion Factors'!J21</f>
@@ -9725,7 +9725,7 @@
         <v/>
       </c>
       <c r="I17" s="14" t="n">
-        <v>4712.149166666667</v>
+        <v>4698.078333333334</v>
       </c>
       <c r="J17" s="14">
         <f>100*$G17/$I17</f>
@@ -9757,40 +9757,40 @@
         <v/>
       </c>
       <c r="V17" s="22" t="n">
-        <v>421</v>
+        <v>160</v>
       </c>
       <c r="W17" s="22" t="n">
-        <v>421</v>
+        <v>160</v>
       </c>
       <c r="X17" s="22" t="n">
-        <v>421</v>
+        <v>160</v>
       </c>
       <c r="Y17" s="22" t="n">
-        <v>496</v>
+        <v>160</v>
       </c>
       <c r="Z17" s="22" t="n">
-        <v>496</v>
+        <v>160</v>
       </c>
       <c r="AA17" s="22" t="n">
-        <v>496</v>
+        <v>325</v>
       </c>
       <c r="AB17" s="22" t="n">
-        <v>496</v>
+        <v>329.83</v>
       </c>
       <c r="AC17" s="22" t="n">
-        <v>496</v>
+        <v>329.83</v>
       </c>
       <c r="AD17" s="22" t="n">
-        <v>496</v>
+        <v>329.83</v>
       </c>
       <c r="AE17" s="22" t="n">
-        <v>496</v>
+        <v>329.83</v>
       </c>
       <c r="AF17" s="22" t="n">
-        <v>496</v>
+        <v>329.83</v>
       </c>
       <c r="AG17" s="22" t="n">
-        <v>496</v>
+        <v>329.83</v>
       </c>
       <c r="AH17" s="22" t="n">
         <v/>
@@ -9828,7 +9828,7 @@
         <v/>
       </c>
       <c r="B18" s="14" t="n">
-        <v>329.83</v>
+        <v>5030.889999999999</v>
       </c>
       <c r="C18" s="14">
         <f>++'Completion Factors'!J20</f>
@@ -9852,7 +9852,7 @@
         <v/>
       </c>
       <c r="I18" s="14" t="n">
-        <v>4698.078333333334</v>
+        <v>4661.936666666667</v>
       </c>
       <c r="J18" s="14">
         <f>100*$G18/$I18</f>
@@ -9881,40 +9881,40 @@
         <v/>
       </c>
       <c r="U18" s="22" t="n">
-        <v/>
+        <v>408</v>
       </c>
       <c r="V18" s="22" t="n">
-        <v>160</v>
+        <v>1814</v>
       </c>
       <c r="W18" s="22" t="n">
-        <v>160</v>
+        <v>1814</v>
       </c>
       <c r="X18" s="22" t="n">
-        <v>160</v>
+        <v>2657.66</v>
       </c>
       <c r="Y18" s="22" t="n">
-        <v>160</v>
+        <v>3105.66</v>
       </c>
       <c r="Z18" s="22" t="n">
-        <v>160</v>
+        <v>4320.889999999999</v>
       </c>
       <c r="AA18" s="22" t="n">
-        <v>325</v>
+        <v>4320.889999999999</v>
       </c>
       <c r="AB18" s="22" t="n">
-        <v>329.83</v>
+        <v>4320.889999999999</v>
       </c>
       <c r="AC18" s="22" t="n">
-        <v>329.83</v>
+        <v>4320.889999999999</v>
       </c>
       <c r="AD18" s="22" t="n">
-        <v>329.83</v>
+        <v>4320.889999999999</v>
       </c>
       <c r="AE18" s="22" t="n">
-        <v>329.83</v>
+        <v>5030.889999999999</v>
       </c>
       <c r="AF18" s="22" t="n">
-        <v>329.83</v>
+        <v>5030.889999999999</v>
       </c>
       <c r="AG18" s="22" t="n">
         <v/>
@@ -9955,7 +9955,7 @@
         <v/>
       </c>
       <c r="B19" s="14" t="n">
-        <v>5030.889999999999</v>
+        <v>5660</v>
       </c>
       <c r="C19" s="14">
         <f>++'Completion Factors'!J19</f>
@@ -9979,7 +9979,7 @@
         <v/>
       </c>
       <c r="I19" s="14" t="n">
-        <v>4661.936666666667</v>
+        <v>4626.9575</v>
       </c>
       <c r="J19" s="14">
         <f>100*$G19/$I19</f>
@@ -10011,37 +10011,37 @@
         <v/>
       </c>
       <c r="U19" s="22" t="n">
-        <v>408</v>
+        <v>1128</v>
       </c>
       <c r="V19" s="22" t="n">
-        <v>1814</v>
+        <v>1128</v>
       </c>
       <c r="W19" s="22" t="n">
-        <v>1814</v>
+        <v>1128</v>
       </c>
       <c r="X19" s="22" t="n">
-        <v>2657.66</v>
+        <v>1128</v>
       </c>
       <c r="Y19" s="22" t="n">
-        <v>3105.66</v>
+        <v>1128</v>
       </c>
       <c r="Z19" s="22" t="n">
-        <v>4320.889999999999</v>
+        <v>1241</v>
       </c>
       <c r="AA19" s="22" t="n">
-        <v>4320.889999999999</v>
+        <v>1241</v>
       </c>
       <c r="AB19" s="22" t="n">
-        <v>4320.889999999999</v>
+        <v>4705</v>
       </c>
       <c r="AC19" s="22" t="n">
-        <v>4320.889999999999</v>
+        <v>4705</v>
       </c>
       <c r="AD19" s="22" t="n">
-        <v>4320.889999999999</v>
+        <v>5660</v>
       </c>
       <c r="AE19" s="22" t="n">
-        <v>5030.889999999999</v>
+        <v>5660</v>
       </c>
       <c r="AF19" s="22" t="n">
         <v/>
@@ -10085,7 +10085,7 @@
         <v/>
       </c>
       <c r="B20" s="14" t="n">
-        <v>5660</v>
+        <v>6823.3</v>
       </c>
       <c r="C20" s="14">
         <f>++'Completion Factors'!J18</f>
@@ -10109,7 +10109,7 @@
         <v/>
       </c>
       <c r="I20" s="14" t="n">
-        <v>4626.9575</v>
+        <v>4592.820000000001</v>
       </c>
       <c r="J20" s="14">
         <f>100*$G20/$I20</f>
@@ -10147,34 +10147,34 @@
         <v/>
       </c>
       <c r="U20" s="22" t="n">
-        <v>1128</v>
+        <v/>
       </c>
       <c r="V20" s="22" t="n">
-        <v>1128</v>
+        <v>2240.36</v>
       </c>
       <c r="W20" s="22" t="n">
-        <v>1128</v>
+        <v>2240.36</v>
       </c>
       <c r="X20" s="22" t="n">
-        <v>1128</v>
+        <v>3246.39</v>
       </c>
       <c r="Y20" s="22" t="n">
-        <v>1128</v>
+        <v>6206.900000000001</v>
       </c>
       <c r="Z20" s="22" t="n">
-        <v>1241</v>
+        <v>6206.900000000001</v>
       </c>
       <c r="AA20" s="22" t="n">
-        <v>1241</v>
+        <v>6823.3</v>
       </c>
       <c r="AB20" s="22" t="n">
-        <v>4705</v>
+        <v>6823.3</v>
       </c>
       <c r="AC20" s="22" t="n">
-        <v>4705</v>
+        <v>6823.3</v>
       </c>
       <c r="AD20" s="22" t="n">
-        <v>5660</v>
+        <v>6823.3</v>
       </c>
       <c r="AE20" s="22" t="n">
         <v/>
@@ -10221,7 +10221,7 @@
         <v/>
       </c>
       <c r="B21" s="14" t="n">
-        <v>6823.3</v>
+        <v>3076.88</v>
       </c>
       <c r="C21" s="14">
         <f>++'Completion Factors'!J17</f>
@@ -10245,7 +10245,7 @@
         <v/>
       </c>
       <c r="I21" s="14" t="n">
-        <v>4592.820000000001</v>
+        <v>4528.328333333334</v>
       </c>
       <c r="J21" s="14">
         <f>100*$G21/$I21</f>
@@ -10283,31 +10283,31 @@
         <v/>
       </c>
       <c r="U21" s="22" t="n">
-        <v/>
+        <v>260.36</v>
       </c>
       <c r="V21" s="22" t="n">
-        <v>2240.36</v>
+        <v>1915.35</v>
       </c>
       <c r="W21" s="22" t="n">
-        <v>2240.36</v>
+        <v>2602.56</v>
       </c>
       <c r="X21" s="22" t="n">
-        <v>3246.39</v>
+        <v>3076.88</v>
       </c>
       <c r="Y21" s="22" t="n">
-        <v>6206.900000000001</v>
+        <v>3076.88</v>
       </c>
       <c r="Z21" s="22" t="n">
-        <v>6206.900000000001</v>
+        <v>3076.88</v>
       </c>
       <c r="AA21" s="22" t="n">
-        <v>6823.3</v>
+        <v>3076.88</v>
       </c>
       <c r="AB21" s="22" t="n">
-        <v>6823.3</v>
+        <v>3076.88</v>
       </c>
       <c r="AC21" s="22" t="n">
-        <v>6823.3</v>
+        <v>3076.88</v>
       </c>
       <c r="AD21" s="22" t="n">
         <v/>
@@ -10357,7 +10357,7 @@
         <v/>
       </c>
       <c r="B22" s="14" t="n">
-        <v>3076.88</v>
+        <v>6539.490000000001</v>
       </c>
       <c r="C22" s="14">
         <f>++'Completion Factors'!J16</f>
@@ -10381,7 +10381,7 @@
         <v/>
       </c>
       <c r="I22" s="14" t="n">
-        <v>4528.328333333334</v>
+        <v>4499.67</v>
       </c>
       <c r="J22" s="14">
         <f>100*$G22/$I22</f>
@@ -10419,28 +10419,28 @@
         <v/>
       </c>
       <c r="U22" s="22" t="n">
-        <v>260.36</v>
+        <v>1235</v>
       </c>
       <c r="V22" s="22" t="n">
-        <v>1915.35</v>
+        <v>4459.27</v>
       </c>
       <c r="W22" s="22" t="n">
-        <v>2602.56</v>
+        <v>6457.490000000001</v>
       </c>
       <c r="X22" s="22" t="n">
-        <v>3076.88</v>
+        <v>6457.490000000001</v>
       </c>
       <c r="Y22" s="22" t="n">
-        <v>3076.88</v>
+        <v>6457.490000000001</v>
       </c>
       <c r="Z22" s="22" t="n">
-        <v>3076.88</v>
+        <v>6457.490000000001</v>
       </c>
       <c r="AA22" s="22" t="n">
-        <v>3076.88</v>
+        <v>6539.490000000001</v>
       </c>
       <c r="AB22" s="22" t="n">
-        <v>3076.88</v>
+        <v>6539.490000000001</v>
       </c>
       <c r="AC22" s="22" t="n">
         <v/>
@@ -10493,7 +10493,7 @@
         <v/>
       </c>
       <c r="B23" s="14" t="n">
-        <v>6539.490000000001</v>
+        <v>2871.02</v>
       </c>
       <c r="C23" s="14">
         <f>++'Completion Factors'!J15</f>
@@ -10517,7 +10517,7 @@
         <v/>
       </c>
       <c r="I23" s="14" t="n">
-        <v>4499.67</v>
+        <v>4412.840833333334</v>
       </c>
       <c r="J23" s="14">
         <f>100*$G23/$I23</f>
@@ -10555,25 +10555,25 @@
         <v/>
       </c>
       <c r="U23" s="22" t="n">
-        <v>1235</v>
+        <v/>
       </c>
       <c r="V23" s="22" t="n">
-        <v>4459.27</v>
+        <v>2871.02</v>
       </c>
       <c r="W23" s="22" t="n">
-        <v>6457.490000000001</v>
+        <v>2871.02</v>
       </c>
       <c r="X23" s="22" t="n">
-        <v>6457.490000000001</v>
+        <v>2871.02</v>
       </c>
       <c r="Y23" s="22" t="n">
-        <v>6457.490000000001</v>
+        <v>2871.02</v>
       </c>
       <c r="Z23" s="22" t="n">
-        <v>6457.490000000001</v>
+        <v>2871.02</v>
       </c>
       <c r="AA23" s="22" t="n">
-        <v>6539.490000000001</v>
+        <v>2871.02</v>
       </c>
       <c r="AB23" s="22" t="n">
         <v/>
@@ -10629,7 +10629,7 @@
         <v/>
       </c>
       <c r="B24" s="14" t="n">
-        <v>2871.02</v>
+        <v>6083.47</v>
       </c>
       <c r="C24" s="14">
         <f>++'Completion Factors'!J14</f>
@@ -10655,7 +10655,7 @@
         <v/>
       </c>
       <c r="I24" s="14" t="n">
-        <v>4412.840833333334</v>
+        <v>4386.054166666667</v>
       </c>
       <c r="J24" s="14">
         <f>100*$G24/$I24</f>
@@ -10693,22 +10693,22 @@
         <v/>
       </c>
       <c r="U24" s="22" t="n">
-        <v/>
+        <v>3833</v>
       </c>
       <c r="V24" s="22" t="n">
-        <v>2871.02</v>
+        <v>4241</v>
       </c>
       <c r="W24" s="22" t="n">
-        <v>2871.02</v>
+        <v>6033.47</v>
       </c>
       <c r="X24" s="22" t="n">
-        <v>2871.02</v>
+        <v>6083.47</v>
       </c>
       <c r="Y24" s="22" t="n">
-        <v>2871.02</v>
+        <v>6083.47</v>
       </c>
       <c r="Z24" s="22" t="n">
-        <v>2871.02</v>
+        <v>6083.47</v>
       </c>
       <c r="AA24" s="22" t="n">
         <v/>
@@ -10767,7 +10767,7 @@
         <v/>
       </c>
       <c r="B25" s="14" t="n">
-        <v>6083.47</v>
+        <v>10495</v>
       </c>
       <c r="C25" s="14">
         <f>++'Completion Factors'!J13</f>
@@ -10828,22 +10828,22 @@
         <v/>
       </c>
       <c r="T25" s="22" t="n">
-        <v/>
+        <v>3965</v>
       </c>
       <c r="U25" s="22" t="n">
-        <v>3833</v>
+        <v>4678</v>
       </c>
       <c r="V25" s="22" t="n">
-        <v>4241</v>
+        <v>9498</v>
       </c>
       <c r="W25" s="22" t="n">
-        <v>6033.47</v>
+        <v>9498</v>
       </c>
       <c r="X25" s="22" t="n">
-        <v>6083.47</v>
+        <v>9498</v>
       </c>
       <c r="Y25" s="22" t="n">
-        <v>6083.47</v>
+        <v>10495</v>
       </c>
       <c r="Z25" s="22" t="n">
         <v/>
@@ -10905,7 +10905,7 @@
         <v/>
       </c>
       <c r="B26" s="14" t="n">
-        <v>9498</v>
+        <v>2823.78</v>
       </c>
       <c r="C26" s="14">
         <f>++'Completion Factors'!J12</f>
@@ -10931,7 +10931,7 @@
         <v/>
       </c>
       <c r="I26" s="14" t="n">
-        <v>4386.054166666667</v>
+        <v>4318.9375</v>
       </c>
       <c r="J26" s="14">
         <f>100*$G26/$I26</f>
@@ -10966,19 +10966,19 @@
         <v/>
       </c>
       <c r="T26" s="22" t="n">
-        <v>3965</v>
+        <v/>
       </c>
       <c r="U26" s="22" t="n">
-        <v>4678</v>
+        <v>2296</v>
       </c>
       <c r="V26" s="22" t="n">
-        <v>9498</v>
+        <v>2296</v>
       </c>
       <c r="W26" s="22" t="n">
-        <v>9498</v>
+        <v>2547.78</v>
       </c>
       <c r="X26" s="22" t="n">
-        <v>9498</v>
+        <v>2823.78</v>
       </c>
       <c r="Y26" s="22" t="n">
         <v/>
@@ -11043,7 +11043,7 @@
         <v/>
       </c>
       <c r="B27" s="14" t="n">
-        <v>2547.78</v>
+        <v>2454</v>
       </c>
       <c r="C27" s="14">
         <f>++'Completion Factors'!J11</f>
@@ -11069,7 +11069,7 @@
         <v/>
       </c>
       <c r="I27" s="14" t="n">
-        <v>4318.9375</v>
+        <v>4281.125</v>
       </c>
       <c r="J27" s="14">
         <f>100*$G27/$I27</f>
@@ -11104,16 +11104,16 @@
         <v/>
       </c>
       <c r="T27" s="22" t="n">
-        <v/>
+        <v>375</v>
       </c>
       <c r="U27" s="22" t="n">
-        <v>2296</v>
+        <v>2454</v>
       </c>
       <c r="V27" s="22" t="n">
-        <v>2296</v>
+        <v>2454</v>
       </c>
       <c r="W27" s="22" t="n">
-        <v>2547.78</v>
+        <v>2454</v>
       </c>
       <c r="X27" s="22" t="n">
         <v/>
@@ -11181,7 +11181,7 @@
         <v/>
       </c>
       <c r="B28" s="14" t="n">
-        <v>2454</v>
+        <v>2869</v>
       </c>
       <c r="C28" s="14">
         <f>++'Completion Factors'!J10</f>
@@ -11207,7 +11207,7 @@
         <v/>
       </c>
       <c r="I28" s="14" t="n">
-        <v>4281.125</v>
+        <v>4201.455</v>
       </c>
       <c r="J28" s="14">
         <f>100*$G28/$I28</f>
@@ -11239,16 +11239,16 @@
         <v/>
       </c>
       <c r="S28" s="22" t="n">
-        <v/>
+        <v>1235</v>
       </c>
       <c r="T28" s="22" t="n">
-        <v>375</v>
+        <v>2232</v>
       </c>
       <c r="U28" s="22" t="n">
-        <v>2454</v>
+        <v>2232</v>
       </c>
       <c r="V28" s="22" t="n">
-        <v>2454</v>
+        <v>2869</v>
       </c>
       <c r="W28" s="22" t="n">
         <v/>
@@ -11319,7 +11319,7 @@
         <v/>
       </c>
       <c r="B29" s="14" t="n">
-        <v>2232</v>
+        <v/>
       </c>
       <c r="C29" s="14">
         <f>++'Completion Factors'!J9</f>
@@ -11346,7 +11346,7 @@
         <v/>
       </c>
       <c r="I29" s="14" t="n">
-        <v>4201.455</v>
+        <v>4159.263333333333</v>
       </c>
       <c r="J29" s="20" t="n">
         <v>335</v>
@@ -11377,13 +11377,13 @@
         <v/>
       </c>
       <c r="S29" s="22" t="n">
-        <v>1235</v>
+        <v/>
       </c>
       <c r="T29" s="22" t="n">
-        <v>2232</v>
+        <v/>
       </c>
       <c r="U29" s="22" t="n">
-        <v>2232</v>
+        <v/>
       </c>
       <c r="V29" s="22" t="n">
         <v/>
@@ -11484,7 +11484,7 @@
         <v/>
       </c>
       <c r="I30" s="14" t="n">
-        <v>4159.263333333333</v>
+        <v>4123.3675</v>
       </c>
       <c r="J30" s="20" t="n">
         <v>335</v>
@@ -11622,7 +11622,7 @@
         <v/>
       </c>
       <c r="I31" s="14" t="n">
-        <v>4123.3675</v>
+        <v>4095.463333333334</v>
       </c>
       <c r="J31" s="20" t="n">
         <v>335</v>
